--- a/MAE_Planner_AY24.xlsx
+++ b/MAE_Planner_AY24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nps01.sharepoint.com/sites/MAECurricula/Shared Documents/General/CourseAndTeachingPlanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32FC5844-3CFF-2441-A14D-9C3C790A9AAE}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D57AB2C1-5627-A54B-890D-32EE2E7B7348}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="720" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="49260" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="533 10 quarter (Summer)" sheetId="6" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'533 10 quarter (Summer)'!$A$1:$AI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">AY23_SpringSummerStartsPLAN!$A$6:$CS$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">AY23_SpringSummerStartsPLAN!$A$6:$CY$12</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="331">
   <si>
     <t>533 COMBAT SYSTEMS SCIENCE AND ENGINEERING</t>
   </si>
@@ -1556,6 +1556,10 @@
   </si>
   <si>
     <t>591 Core
+Summer 21 Start</t>
+  </si>
+  <si>
+    <t>591 Core
 Summer 22 Start</t>
   </si>
   <si>
@@ -1567,6 +1571,27 @@
   </si>
   <si>
     <t>366 Core</t>
+  </si>
+  <si>
+    <t>570 Bowman 1-year</t>
+  </si>
+  <si>
+    <t>609 Shoemaker 1-year</t>
+  </si>
+  <si>
+    <t>591 Shoemaker 1-year</t>
+  </si>
+  <si>
+    <t>Fall Start</t>
+  </si>
+  <si>
+    <t>Winter Start</t>
+  </si>
+  <si>
+    <t>Spring Start</t>
+  </si>
+  <si>
+    <t>Summer Start</t>
   </si>
   <si>
     <t>299
@@ -1584,30 +1609,6 @@
     <t>572
 DL
 Async</t>
-  </si>
-  <si>
-    <t>570 Bowman 1-year</t>
-  </si>
-  <si>
-    <t>525 Bowm+BP6:BW10an 1-year</t>
-  </si>
-  <si>
-    <t>609 Shoemaker 1-year</t>
-  </si>
-  <si>
-    <t>Fall Start</t>
-  </si>
-  <si>
-    <t>Winter Start</t>
-  </si>
-  <si>
-    <t>Spring Start</t>
-  </si>
-  <si>
-    <t>Summer Start</t>
-  </si>
-  <si>
-    <t>591 Shoemaker 1-year</t>
   </si>
   <si>
     <t>MAE Folk Teaching for Other Departments</t>
@@ -1826,12 +1827,67 @@
 Electromagnetism</t>
   </si>
   <si>
+    <t>ME3240 
+Marine Power and Propulsion</t>
+  </si>
+  <si>
+    <t>ME3450 Computational Methods</t>
+  </si>
+  <si>
+    <t>MA3132 Partial Differential Equations</t>
+  </si>
+  <si>
+    <t>ME0951
+ME Seminar</t>
+  </si>
+  <si>
+    <t>ME3240
+Marine Power and Propulsion</t>
+  </si>
+  <si>
+    <t>ME3450
+Computational Methods</t>
+  </si>
+  <si>
+    <t>ME1810
+Thesis Prep.</t>
+  </si>
+  <si>
+    <t>UW2001 
+History of USW I</t>
+  </si>
+  <si>
+    <t>UW2001 
+History of USW II</t>
+  </si>
+  <si>
+    <t>UW Seminar</t>
+  </si>
+  <si>
+    <t>MA3132 
+Partial Diff Eqs
+Pre: MA2121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME3205
+Missile Aerodynamics
+</t>
+  </si>
+  <si>
+    <t>ME4751
+Survivability</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE3820
 Adv. Mech. &amp; Orb. Robotics
 (Aerospace System Dynamics)
 </t>
   </si>
   <si>
+    <t>PH3052
+Physics of Space and Airborne Sensor Systems</t>
+  </si>
+  <si>
     <t>ME3420
 Computational Foundations of Robotics
 [Kragelund]</t>
@@ -1840,66 +1896,6 @@
     <t>ME4731
 Engineering Design Optimization
 [Gordis]</t>
-  </si>
-  <si>
-    <t>ME3240 
-Marine Power and Propulsion</t>
-  </si>
-  <si>
-    <t>ME3450 Computational Methods</t>
-  </si>
-  <si>
-    <t>MA3132 Partial Differential Equations</t>
-  </si>
-  <si>
-    <t>ME0951
-ME Seminar</t>
-  </si>
-  <si>
-    <t>ME3240
-Marine Power and Propulsion</t>
-  </si>
-  <si>
-    <t>ME3450
-Computational Methods</t>
-  </si>
-  <si>
-    <t>ME1810
-Thesis Prep.</t>
-  </si>
-  <si>
-    <t>UW2001 
-History of USW I</t>
-  </si>
-  <si>
-    <t>UW2001 
-History of USW II</t>
-  </si>
-  <si>
-    <t>UW Seminar</t>
-  </si>
-  <si>
-    <t>MA3132 
-Partial Diff Eqs
-Pre: MA2121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME3205
-Missile Aerodynamics
-</t>
-  </si>
-  <si>
-    <t>ME4751
-Survivability</t>
-  </si>
-  <si>
-    <t>PH3052
-Physics of Space and Airborne Sensor Systems</t>
-  </si>
-  <si>
-    <t>ME1810 (or SS1810?)
-Thesis Proposal Preparation 
-(1 Credit)</t>
   </si>
   <si>
     <t>24/1
@@ -2014,16 +2010,6 @@
 [Lan]</t>
   </si>
   <si>
-    <t>AE4850
-Dynamic Optimization
-[Karpenko/King]</t>
-  </si>
-  <si>
-    <t>ME3150
-Heat Transfer
-[Gannon]</t>
-  </si>
-  <si>
     <t>MS3202
 PP&amp;F of Eng. Matl's</t>
   </si>
@@ -2061,6 +2047,16 @@
   <si>
     <t xml:space="preserve">ME0810
 Thesis Research </t>
+  </si>
+  <si>
+    <t>AE4850
+Dynamic Optimization
+[Karpenko/King]</t>
+  </si>
+  <si>
+    <t>ME3150
+Heat Transfer
+[Gannon]</t>
   </si>
   <si>
     <t>DA3304 
@@ -2204,21 +2200,6 @@
 [Lan]</t>
   </si>
   <si>
-    <t>AE4881
-Aero Traj Plan and Guide
-[Karpenko/King]</t>
-  </si>
-  <si>
-    <t>ME4828
- GNC for Autonomous Robotics
-[Dobrohkodov]</t>
-  </si>
-  <si>
-    <t>ME4220
-Viscous Flows
-[Hobson]</t>
-  </si>
-  <si>
     <t xml:space="preserve">ME3201 Applied Fluids (thermo/fluids track)
 or
 ME4613 Finite Element Analysis (structures track)
@@ -2236,6 +2217,21 @@
 [Dobrohkodov]</t>
   </si>
   <si>
+    <t>AE4881
+Aero Traj Plan and Guide
+[Karpenko/King]</t>
+  </si>
+  <si>
+    <t>ME4828
+ GNC for Autonomous Robotics
+[Dobrohkodov]</t>
+  </si>
+  <si>
+    <t>ME4220
+Viscous Flows
+[Hobson]</t>
+  </si>
+  <si>
     <t>24/3
 Spring</t>
   </si>
@@ -2296,14 +2292,6 @@
     <t>AE4820
 Robotic Multibody Systems
 [Hudson]</t>
-  </si>
-  <si>
-    <t>AE3830
-Aero Guidance and Control
-[King]</t>
-  </si>
-  <si>
-    <t>?????</t>
   </si>
   <si>
     <t>AE4502
@@ -2326,6 +2314,14 @@
 [Brophy]</t>
   </si>
   <si>
+    <t>AE3830
+Aero Guidance and Control
+[King]</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
     <t>SE2440
 Intro. to Scientific Programming
 [Dausen]</t>
@@ -2412,6 +2408,11 @@
 [Thomason]</t>
   </si>
   <si>
+    <t>ME3205
+Missile Aerodynamics
+[Jones]</t>
+  </si>
+  <si>
     <t>AE3820
 Adv. Mech. &amp; Orb. Robotics
 [King]</t>
@@ -2422,11 +2423,6 @@
 [Hobson]</t>
   </si>
   <si>
-    <t>ME3205
-Missile Aerodynamics
-[Jones]</t>
-  </si>
-  <si>
     <t>25/1
 Fall</t>
   </si>
@@ -2514,15 +2510,29 @@
     </r>
   </si>
   <si>
-    <t>591 Core
-Summer 21 Start</t>
+    <t>SS1810
+Thesis Proposal Preparation 
+(1 Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA4311
+Calculus of Variations
+</t>
+  </si>
+  <si>
+    <t>591 Shoemaker 1-year
+BS in Astro</t>
+  </si>
+  <si>
+    <t>591 Shoemaker 1-year
+BS in Non-Astro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2713,14 +2723,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2728,7 +2730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2921,6 +2923,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED7EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="55">
     <border>
@@ -3977,9 +3997,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4112,7 +4129,32 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4196,9 +4238,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4304,13 +4343,10 @@
     <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4318,22 +4354,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4343,9 +4363,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF3CC"/>
+      <color rgb="FFBED7EE"/>
       <color rgb="FFE5D8F0"/>
-      <color rgb="FFBED7EE"/>
-      <color rgb="FFFEF3CC"/>
       <color rgb="FFFFDA66"/>
       <color rgb="FFFFF2CC"/>
       <color rgb="FFEDE6F2"/>
@@ -4703,23 +4723,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="M1" s="187" t="s">
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="M1" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="189"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="197"/>
       <c r="R1" s="34"/>
       <c r="U1" s="22" t="s">
         <v>2</v>
@@ -4732,25 +4752,25 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="M2" s="191" t="s">
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="M2" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="193"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201"/>
       <c r="R2" s="35"/>
-      <c r="U2" s="194" t="s">
+      <c r="U2" s="202" t="s">
         <v>7</v>
       </c>
       <c r="AF2" s="3" t="s">
@@ -4769,15 +4789,15 @@
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
-      <c r="M3" s="197" t="s">
+      <c r="M3" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="199"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="207"/>
       <c r="R3" s="36"/>
-      <c r="U3" s="195"/>
+      <c r="U3" s="203"/>
     </row>
     <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="68"/>
@@ -4788,15 +4808,15 @@
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
-      <c r="M4" s="200" t="s">
+      <c r="M4" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="202"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="210"/>
       <c r="R4" s="37"/>
-      <c r="U4" s="195"/>
+      <c r="U4" s="203"/>
     </row>
     <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="68"/>
@@ -4805,15 +4825,15 @@
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
-      <c r="M5" s="203" t="s">
+      <c r="M5" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204"/>
-      <c r="P5" s="204"/>
-      <c r="Q5" s="205"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="212"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="213"/>
       <c r="R5" s="53"/>
-      <c r="U5" s="196"/>
+      <c r="U5" s="204"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="68"/>
@@ -4823,11 +4843,11 @@
       <c r="F6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="208"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="216"/>
       <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4887,45 +4907,45 @@
         <v>18</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="209" t="s">
+      <c r="I9" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="211"/>
-      <c r="K9" s="212"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="220"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="209" t="s">
+      <c r="M9" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="211"/>
-      <c r="O9" s="212"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="220"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="209" t="s">
+      <c r="Q9" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="211"/>
-      <c r="S9" s="212"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="220"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="209" t="s">
+      <c r="U9" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="212"/>
+      <c r="V9" s="219"/>
+      <c r="W9" s="219"/>
+      <c r="X9" s="220"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="209" t="s">
+      <c r="Z9" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="211"/>
-      <c r="AB9" s="211"/>
-      <c r="AC9" s="210"/>
-      <c r="AE9" s="209" t="s">
+      <c r="AA9" s="219"/>
+      <c r="AB9" s="219"/>
+      <c r="AC9" s="218"/>
+      <c r="AE9" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="210"/>
-      <c r="AH9" s="209" t="s">
+      <c r="AF9" s="218"/>
+      <c r="AH9" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="210"/>
+      <c r="AI9" s="218"/>
     </row>
     <row r="10" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
@@ -5630,9 +5650,9 @@
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="23"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
       <c r="H24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -5824,61 +5844,65 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CS19"/>
+  <dimension ref="A1:CY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM10" sqref="BM10"/>
+    <sheetView tabSelected="1" topLeftCell="CK5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="10520" activePane="topRight"/>
+      <selection activeCell="CO9" sqref="CO9"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:BY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="106" width="15.83203125" customWidth="1"/>
+    <col min="2" max="32" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="15.83203125" customWidth="1"/>
+    <col min="35" max="57" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="58" max="112" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
-      <c r="AG1" s="213"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="188"/>
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="188"/>
+      <c r="AD1" s="188"/>
+      <c r="AE1" s="188"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="188"/>
       <c r="AH1" t="s">
         <v>99</v>
       </c>
       <c r="AJ1" s="78">
         <f ca="1">TODAY()</f>
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="AK1" s="78"/>
       <c r="AL1" s="78"/>
@@ -5886,397 +5910,441 @@
       <c r="AN1" s="78"/>
       <c r="AO1" s="78"/>
     </row>
-    <row r="2" spans="1:97" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="225" t="s">
+    <row r="2" spans="1:103" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="232" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="226"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="228" t="s">
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="228"/>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="228"/>
-      <c r="AB2" s="228"/>
-      <c r="AC2" s="228"/>
-      <c r="AD2" s="228"/>
-      <c r="AE2" s="228"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="228"/>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="228"/>
-      <c r="AJ2" s="229"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="235"/>
+      <c r="AB2" s="235"/>
+      <c r="AC2" s="235"/>
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="235"/>
+      <c r="AG2" s="235"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="235"/>
+      <c r="AJ2" s="236"/>
       <c r="AK2" s="87"/>
       <c r="AL2" s="87"/>
       <c r="AM2" s="87"/>
       <c r="AN2" s="87"/>
       <c r="AO2" s="87"/>
     </row>
-    <row r="3" spans="1:97" ht="109" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="230" t="s">
+    <row r="3" spans="1:103" ht="109" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="237" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="231"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="231"/>
-      <c r="U3" s="231"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="233" t="s">
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="238"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="239"/>
+      <c r="W3" s="240" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="234"/>
-      <c r="AE3" s="234"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="234"/>
-      <c r="AH3" s="234"/>
-      <c r="AI3" s="234"/>
-      <c r="AJ3" s="235"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="241"/>
+      <c r="AC3" s="241"/>
+      <c r="AD3" s="241"/>
+      <c r="AE3" s="241"/>
+      <c r="AF3" s="241"/>
+      <c r="AG3" s="241"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="241"/>
+      <c r="AJ3" s="242"/>
       <c r="AK3" s="88"/>
       <c r="AL3" s="88"/>
       <c r="AM3" s="88"/>
       <c r="AN3" s="88"/>
       <c r="AO3" s="88"/>
     </row>
-    <row r="4" spans="1:97" ht="65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="239" t="s">
+    <row r="4" spans="1:103" ht="65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="246" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="240"/>
-      <c r="U4" s="240"/>
-      <c r="V4" s="241"/>
-      <c r="W4" s="236"/>
-      <c r="X4" s="237"/>
-      <c r="Y4" s="237"/>
-      <c r="Z4" s="237"/>
-      <c r="AA4" s="237"/>
-      <c r="AB4" s="237"/>
-      <c r="AC4" s="237"/>
-      <c r="AD4" s="237"/>
-      <c r="AE4" s="237"/>
-      <c r="AF4" s="237"/>
-      <c r="AG4" s="237"/>
-      <c r="AH4" s="237"/>
-      <c r="AI4" s="237"/>
-      <c r="AJ4" s="238"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="247"/>
+      <c r="O4" s="247"/>
+      <c r="P4" s="247"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="247"/>
+      <c r="S4" s="247"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="248"/>
+      <c r="W4" s="243"/>
+      <c r="X4" s="244"/>
+      <c r="Y4" s="244"/>
+      <c r="Z4" s="244"/>
+      <c r="AA4" s="244"/>
+      <c r="AB4" s="244"/>
+      <c r="AC4" s="244"/>
+      <c r="AD4" s="244"/>
+      <c r="AE4" s="244"/>
+      <c r="AF4" s="244"/>
+      <c r="AG4" s="244"/>
+      <c r="AH4" s="244"/>
+      <c r="AI4" s="244"/>
+      <c r="AJ4" s="245"/>
       <c r="AK4" s="88"/>
       <c r="AL4" s="88"/>
       <c r="AM4" s="88"/>
       <c r="AN4" s="88"/>
       <c r="AO4" s="88"/>
     </row>
-    <row r="5" spans="1:97" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="217" t="s">
+    <row r="5" spans="1:103" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="218"/>
-      <c r="R5" s="218"/>
-      <c r="S5" s="218"/>
-      <c r="T5" s="218"/>
-      <c r="U5" s="218"/>
-      <c r="V5" s="218"/>
-      <c r="W5" s="218"/>
-      <c r="X5" s="218"/>
-      <c r="Y5" s="218"/>
-      <c r="Z5" s="218"/>
-      <c r="AA5" s="219"/>
-      <c r="AB5" s="219"/>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="219"/>
-      <c r="AE5" s="219"/>
-      <c r="AF5" s="219"/>
-      <c r="AG5" s="219"/>
-      <c r="AH5" s="219"/>
-      <c r="AI5" s="219"/>
-      <c r="AJ5" s="219"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="225"/>
+      <c r="M5" s="225"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="225"/>
+      <c r="Q5" s="225"/>
+      <c r="R5" s="225"/>
+      <c r="S5" s="225"/>
+      <c r="T5" s="225"/>
+      <c r="U5" s="225"/>
+      <c r="V5" s="225"/>
+      <c r="W5" s="225"/>
+      <c r="X5" s="225"/>
+      <c r="Y5" s="225"/>
+      <c r="Z5" s="225"/>
+      <c r="AA5" s="226"/>
+      <c r="AB5" s="226"/>
+      <c r="AC5" s="226"/>
+      <c r="AD5" s="226"/>
+      <c r="AE5" s="226"/>
+      <c r="AF5" s="226"/>
+      <c r="AG5" s="226"/>
+      <c r="AH5" s="226"/>
+      <c r="AI5" s="226"/>
+      <c r="AJ5" s="226"/>
       <c r="AK5" s="135"/>
       <c r="AL5" s="135"/>
       <c r="AM5" s="135"/>
       <c r="AN5" s="135"/>
       <c r="AO5" s="135"/>
-      <c r="AP5" s="242" t="s">
+      <c r="AP5" s="249" t="s">
         <v>106</v>
       </c>
-      <c r="AQ5" s="242"/>
-      <c r="AR5" s="242"/>
-      <c r="AS5" s="242"/>
-      <c r="AT5" s="242"/>
-      <c r="AU5" s="242"/>
-      <c r="AV5" s="242"/>
-      <c r="AW5" s="242"/>
-      <c r="AX5" s="242"/>
-      <c r="AY5" s="242"/>
-      <c r="AZ5" s="242"/>
-      <c r="BA5" s="242"/>
-      <c r="BB5" s="242"/>
-      <c r="BC5" s="242"/>
-      <c r="BD5" s="140"/>
-      <c r="BK5" s="249" t="s">
+      <c r="AQ5" s="249"/>
+      <c r="AR5" s="249"/>
+      <c r="AS5" s="249"/>
+      <c r="AT5" s="249"/>
+      <c r="AU5" s="249"/>
+      <c r="AV5" s="249"/>
+      <c r="AW5" s="249"/>
+      <c r="AX5" s="249"/>
+      <c r="AY5" s="249"/>
+      <c r="AZ5" s="249"/>
+      <c r="BA5" s="249"/>
+      <c r="BB5" s="249"/>
+      <c r="BC5" s="249"/>
+      <c r="BD5" s="249"/>
+      <c r="BE5" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF5" s="253" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG5" s="253"/>
+      <c r="BH5" s="253"/>
+      <c r="BI5" s="253"/>
+      <c r="BJ5" s="253"/>
+      <c r="BK5" s="253"/>
+      <c r="BL5" s="256" t="s">
         <v>107</v>
       </c>
-      <c r="BL5" s="250"/>
-      <c r="BM5" s="250"/>
-      <c r="BN5" s="250"/>
-      <c r="BO5" s="250"/>
-      <c r="BP5" s="250"/>
-      <c r="BQ5" s="250"/>
-      <c r="BR5" s="251"/>
-      <c r="CD5" s="243" t="s">
+      <c r="BM5" s="226"/>
+      <c r="BN5" s="226"/>
+      <c r="BO5" s="226"/>
+      <c r="BP5" s="226"/>
+      <c r="BQ5" s="226"/>
+      <c r="BR5" s="226"/>
+      <c r="BS5" s="257"/>
+      <c r="BT5" s="253" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU5" s="253"/>
+      <c r="BV5" s="253"/>
+      <c r="BW5" s="253"/>
+      <c r="BX5" s="253"/>
+      <c r="BY5" s="253"/>
+      <c r="BZ5" s="253" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA5" s="253"/>
+      <c r="CB5" s="253"/>
+      <c r="CC5" s="253"/>
+      <c r="CD5" s="253"/>
+      <c r="CE5" s="253" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF5" s="253"/>
+      <c r="CG5" s="253"/>
+      <c r="CH5" s="253"/>
+      <c r="CI5" s="253"/>
+      <c r="CJ5" s="250" t="s">
         <v>108</v>
       </c>
-      <c r="CE5" s="244"/>
-      <c r="CF5" s="244"/>
-      <c r="CG5" s="244"/>
-      <c r="CH5" s="243" t="s">
+      <c r="CK5" s="251"/>
+      <c r="CL5" s="251"/>
+      <c r="CM5" s="251"/>
+      <c r="CN5" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="CI5" s="244"/>
-      <c r="CJ5" s="244"/>
-      <c r="CK5" s="244"/>
+      <c r="CO5" s="251"/>
+      <c r="CP5" s="251"/>
+      <c r="CQ5" s="251"/>
+      <c r="CR5" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="CS5" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="CT5" s="258" t="s">
+        <v>137</v>
+      </c>
+      <c r="CU5" s="259"/>
+      <c r="CV5" s="168" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="6" spans="1:97" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:103" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214" t="s">
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214" t="s">
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="214"/>
-      <c r="L6" s="214"/>
-      <c r="M6" s="214"/>
-      <c r="N6" s="214" t="s">
+      <c r="K6" s="221"/>
+      <c r="L6" s="221"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="214"/>
-      <c r="P6" s="214"/>
-      <c r="Q6" s="214"/>
-      <c r="R6" s="220" t="s">
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="227" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="220"/>
-      <c r="T6" s="220"/>
-      <c r="U6" s="220"/>
-      <c r="V6" s="220"/>
-      <c r="W6" s="221" t="s">
+      <c r="S6" s="227"/>
+      <c r="T6" s="227"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="227"/>
+      <c r="W6" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="222" t="s">
+      <c r="X6" s="229"/>
+      <c r="Y6" s="229" t="s">
         <v>116</v>
       </c>
-      <c r="Z6" s="222"/>
-      <c r="AA6" s="223" t="s">
+      <c r="Z6" s="229"/>
+      <c r="AA6" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="AB6" s="224"/>
-      <c r="AC6" s="215" t="s">
+      <c r="AB6" s="231"/>
+      <c r="AC6" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="AD6" s="216"/>
-      <c r="AE6" s="215" t="s">
+      <c r="AD6" s="223"/>
+      <c r="AE6" s="222" t="s">
         <v>119</v>
       </c>
-      <c r="AF6" s="216"/>
-      <c r="AG6" s="215" t="s">
+      <c r="AF6" s="223"/>
+      <c r="AG6" s="222" t="s">
         <v>120</v>
       </c>
-      <c r="AH6" s="245"/>
+      <c r="AH6" s="252"/>
       <c r="AI6" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="AJ6" s="149" t="s">
+      <c r="AJ6" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="AK6" s="247" t="s">
-        <v>328</v>
-      </c>
-      <c r="AL6" s="247"/>
-      <c r="AM6" s="247"/>
-      <c r="AN6" s="247"/>
-      <c r="AO6" s="247"/>
-      <c r="AP6" s="247" t="s">
+      <c r="AK6" s="254" t="s">
         <v>123</v>
       </c>
-      <c r="AQ6" s="247"/>
-      <c r="AR6" s="247"/>
-      <c r="AS6" s="247"/>
-      <c r="AT6" s="247"/>
-      <c r="AU6" s="247"/>
-      <c r="AV6" s="247" t="s">
+      <c r="AL6" s="254"/>
+      <c r="AM6" s="254"/>
+      <c r="AN6" s="254"/>
+      <c r="AO6" s="254"/>
+      <c r="AP6" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="AW6" s="247"/>
-      <c r="AX6" s="247"/>
-      <c r="AY6" s="247"/>
-      <c r="AZ6" s="247"/>
-      <c r="BA6" s="247"/>
-      <c r="BB6" s="248" t="s">
+      <c r="AQ6" s="254"/>
+      <c r="AR6" s="254"/>
+      <c r="AS6" s="254"/>
+      <c r="AT6" s="254"/>
+      <c r="AU6" s="254"/>
+      <c r="AV6" s="254" t="s">
         <v>125</v>
       </c>
-      <c r="BC6" s="248"/>
-      <c r="BD6" s="150" t="s">
+      <c r="AW6" s="254"/>
+      <c r="AX6" s="254"/>
+      <c r="AY6" s="254"/>
+      <c r="AZ6" s="254"/>
+      <c r="BA6" s="254"/>
+      <c r="BB6" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="BE6" s="246" t="s">
+      <c r="BC6" s="255"/>
+      <c r="BD6" s="255"/>
+      <c r="BE6" s="149"/>
+      <c r="BF6" s="253" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG6" s="253"/>
+      <c r="BH6" s="253"/>
+      <c r="BI6" s="253"/>
+      <c r="BJ6" s="253"/>
+      <c r="BK6" s="253"/>
+      <c r="BL6" s="256" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM6" s="226"/>
+      <c r="BN6" s="226"/>
+      <c r="BO6" s="226"/>
+      <c r="BP6" s="226"/>
+      <c r="BQ6" s="226"/>
+      <c r="BR6" s="226"/>
+      <c r="BS6" s="257"/>
+      <c r="BT6" s="253" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU6" s="253"/>
+      <c r="BV6" s="253"/>
+      <c r="BW6" s="253"/>
+      <c r="BX6" s="253"/>
+      <c r="BY6" s="253"/>
+      <c r="BZ6" s="253" t="s">
+        <v>329</v>
+      </c>
+      <c r="CA6" s="253"/>
+      <c r="CB6" s="253"/>
+      <c r="CC6" s="253"/>
+      <c r="CD6" s="253"/>
+      <c r="CE6" s="253" t="s">
+        <v>330</v>
+      </c>
+      <c r="CF6" s="253"/>
+      <c r="CG6" s="253"/>
+      <c r="CH6" s="253"/>
+      <c r="CI6" s="253"/>
+      <c r="CJ6" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="BF6" s="246"/>
-      <c r="BG6" s="246"/>
-      <c r="BH6" s="246"/>
-      <c r="BI6" s="246"/>
-      <c r="BJ6" s="246"/>
-      <c r="BK6" s="254" t="s">
+      <c r="CK6" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="BL6" s="218"/>
-      <c r="BM6" s="218"/>
-      <c r="BN6" s="218"/>
-      <c r="BO6" s="218"/>
-      <c r="BP6" s="218"/>
-      <c r="BQ6" s="218"/>
-      <c r="BR6" s="255"/>
-      <c r="BS6" s="246" t="s">
+      <c r="CL6" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="BT6" s="246"/>
-      <c r="BU6" s="246"/>
-      <c r="BV6" s="246"/>
-      <c r="BW6" s="246"/>
-      <c r="BX6" s="246"/>
-      <c r="BY6" s="246" t="s">
-        <v>138</v>
-      </c>
-      <c r="BZ6" s="246"/>
-      <c r="CA6" s="246"/>
-      <c r="CB6" s="246"/>
-      <c r="CC6" s="246"/>
-      <c r="CD6" s="145" t="s">
+      <c r="CM6" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="CE6" s="145" t="s">
-        <v>135</v>
-      </c>
-      <c r="CF6" s="145" t="s">
-        <v>136</v>
-      </c>
-      <c r="CG6" s="145" t="s">
-        <v>137</v>
-      </c>
-      <c r="CH6" s="145" t="s">
+      <c r="CN6" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="CO6" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP6" s="144" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ6" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="CI6" s="145" t="s">
-        <v>135</v>
-      </c>
-      <c r="CJ6" s="145" t="s">
-        <v>136</v>
-      </c>
-      <c r="CK6" s="145" t="s">
-        <v>137</v>
-      </c>
-      <c r="CL6" s="151" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM6" s="152" t="s">
-        <v>128</v>
-      </c>
-      <c r="CN6" s="252" t="s">
-        <v>129</v>
-      </c>
-      <c r="CO6" s="253"/>
-      <c r="CP6" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="CQ6" s="242" t="s">
+      <c r="CR6" s="150"/>
+      <c r="CS6" s="151"/>
+      <c r="CT6" s="258"/>
+      <c r="CU6" s="259"/>
+      <c r="CV6" s="168"/>
+      <c r="CW6" s="249" t="s">
         <v>139</v>
       </c>
-      <c r="CR6" s="242"/>
-      <c r="CS6" s="242"/>
+      <c r="CX6" s="249"/>
+      <c r="CY6" s="249"/>
     </row>
-    <row r="7" spans="1:97" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:103" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="s">
         <v>140</v>
       </c>
@@ -6369,27 +6437,27 @@
       <c r="BB7" s="91"/>
       <c r="BC7" s="91"/>
       <c r="BD7" s="91"/>
-      <c r="BE7" s="85"/>
+      <c r="BE7" s="91"/>
       <c r="BF7" s="85"/>
       <c r="BG7" s="85"/>
       <c r="BH7" s="85"/>
       <c r="BI7" s="85"/>
-      <c r="BJ7" s="126"/>
-      <c r="BK7" s="125"/>
-      <c r="BL7" s="257"/>
-      <c r="BM7" s="257"/>
-      <c r="BN7" s="257"/>
-      <c r="BO7" s="257"/>
-      <c r="BP7" s="257"/>
-      <c r="BQ7" s="125"/>
+      <c r="BJ7" s="85"/>
+      <c r="BK7" s="126"/>
+      <c r="BL7" s="125"/>
+      <c r="BM7" s="185"/>
+      <c r="BN7" s="185"/>
+      <c r="BO7" s="185"/>
+      <c r="BP7" s="185"/>
+      <c r="BQ7" s="185"/>
       <c r="BR7" s="125"/>
-      <c r="BS7" s="128"/>
-      <c r="BT7" s="85"/>
+      <c r="BS7" s="125"/>
+      <c r="BT7" s="128"/>
       <c r="BU7" s="85"/>
       <c r="BV7" s="85"/>
       <c r="BW7" s="85"/>
-      <c r="BX7" s="126"/>
-      <c r="BY7" s="85"/>
+      <c r="BX7" s="85"/>
+      <c r="BY7" s="126"/>
       <c r="BZ7" s="85"/>
       <c r="CA7" s="85"/>
       <c r="CB7" s="85"/>
@@ -6403,21 +6471,27 @@
       <c r="CJ7" s="85"/>
       <c r="CK7" s="85"/>
       <c r="CL7" s="85"/>
-      <c r="CM7" s="132" t="s">
+      <c r="CM7" s="85"/>
+      <c r="CN7" s="85"/>
+      <c r="CO7" s="85"/>
+      <c r="CP7" s="85"/>
+      <c r="CQ7" s="85"/>
+      <c r="CR7" s="85"/>
+      <c r="CS7" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="CN7" s="115" t="s">
+      <c r="CT7" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="CO7" s="148"/>
-      <c r="CP7" s="170" t="s">
+      <c r="CU7" s="147"/>
+      <c r="CV7" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="CQ7" s="113"/>
-      <c r="CR7" s="113"/>
-      <c r="CS7" s="113"/>
+      <c r="CW7" s="113"/>
+      <c r="CX7" s="113"/>
+      <c r="CY7" s="113"/>
     </row>
-    <row r="8" spans="1:97" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:103" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>160</v>
       </c>
@@ -6496,7 +6570,7 @@
         <v>178</v>
       </c>
       <c r="AN8" s="108"/>
-      <c r="AO8" s="183" t="s">
+      <c r="AO8" s="182" t="s">
         <v>179</v>
       </c>
       <c r="AP8" s="86" t="s">
@@ -6530,108 +6604,126 @@
       <c r="BB8" s="91"/>
       <c r="BC8" s="91"/>
       <c r="BD8" s="91"/>
-      <c r="BE8" s="134" t="s">
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="BF8" s="134" t="s">
+      <c r="BG8" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="BH8" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI8" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ8" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="BG8" s="134" t="s">
+      <c r="BK8" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL8" s="134" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM8" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="BH8" s="134" t="s">
+      <c r="BN8" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="BI8" s="137" t="s">
+      <c r="BO8" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="BJ8" s="127" t="s">
+      <c r="BP8" s="186" t="s">
+        <v>195</v>
+      </c>
+      <c r="BQ8" s="186" t="s">
+        <v>196</v>
+      </c>
+      <c r="BR8" s="184" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS8" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT8" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="BU8" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV8" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="BW8" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="BX8" s="85"/>
+      <c r="BY8" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="BK8" s="134" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL8" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM8" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="BN8" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="BO8" s="258" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP8" s="258" t="s">
+      <c r="BZ8" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="CA8" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="CB8" s="189" t="s">
         <v>199</v>
       </c>
-      <c r="BQ8" s="256" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR8" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS8" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT8" s="56" t="s">
+      <c r="CC8" s="189" t="s">
+        <v>328</v>
+      </c>
+      <c r="CD8" s="127" t="s">
+        <v>327</v>
+      </c>
+      <c r="CE8" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="CF8" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="BU8" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV8" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW8" s="85"/>
-      <c r="BX8" s="127" t="s">
-        <v>164</v>
-      </c>
-      <c r="BY8" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="BZ8" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="CA8" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="CB8" s="85"/>
-      <c r="CC8" s="127" t="s">
-        <v>205</v>
-      </c>
-      <c r="CD8" s="91"/>
-      <c r="CE8" s="91"/>
-      <c r="CF8" s="91"/>
-      <c r="CG8" s="91"/>
-      <c r="CH8" s="91"/>
-      <c r="CI8" s="91"/>
+      <c r="CG8" s="189" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH8" s="189" t="s">
+        <v>328</v>
+      </c>
+      <c r="CI8" s="127" t="s">
+        <v>327</v>
+      </c>
       <c r="CJ8" s="91"/>
       <c r="CK8" s="91"/>
-      <c r="CL8" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="CM8" s="133" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN8" s="115" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO8" s="148"/>
-      <c r="CP8" s="171" t="s">
-        <v>190</v>
-      </c>
-      <c r="CQ8" s="113"/>
-      <c r="CR8" s="113"/>
-      <c r="CS8" s="113"/>
+      <c r="CL8" s="91"/>
+      <c r="CM8" s="91"/>
+      <c r="CN8" s="91"/>
+      <c r="CO8" s="91"/>
+      <c r="CP8" s="91"/>
+      <c r="CQ8" s="91"/>
+      <c r="CR8" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="CS8" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="CT8" s="115" t="s">
+        <v>204</v>
+      </c>
+      <c r="CU8" s="147"/>
+      <c r="CV8" s="170" t="s">
+        <v>204</v>
+      </c>
+      <c r="CW8" s="113"/>
+      <c r="CX8" s="113"/>
+      <c r="CY8" s="113"/>
     </row>
-    <row r="9" spans="1:97" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:103" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C9" s="91"/>
       <c r="D9" s="91"/>
@@ -6643,7 +6735,7 @@
         <v>142</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" s="56" t="s">
         <v>144</v>
@@ -6655,53 +6747,50 @@
         <v>146</v>
       </c>
       <c r="L9" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="56" t="s">
         <v>208</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>209</v>
       </c>
       <c r="N9" s="90"/>
       <c r="O9" s="91"/>
       <c r="P9" s="91"/>
       <c r="Q9" s="91"/>
       <c r="R9" s="111" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S9" s="89"/>
       <c r="T9" s="85"/>
       <c r="U9" s="91"/>
       <c r="V9" s="91"/>
       <c r="W9" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y9" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z9" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="Y9" s="111" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z9" s="57" t="s">
+      <c r="AA9" s="70" t="s">
         <v>212</v>
-      </c>
-      <c r="AA9" s="70" t="s">
-        <v>213</v>
       </c>
       <c r="AB9" s="85"/>
       <c r="AC9" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AD9" s="91"/>
       <c r="AE9" s="112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF9" s="113"/>
-      <c r="AG9" s="57" t="s">
+      <c r="AG9" s="110" t="s">
         <v>216</v>
-      </c>
-      <c r="AH9" s="110" t="s">
-        <v>217</v>
       </c>
       <c r="AI9" s="85"/>
       <c r="AJ9" s="108"/>
-      <c r="AK9" s="166" t="s">
-        <v>218</v>
+      <c r="AK9" s="165" t="s">
+        <v>217</v>
       </c>
       <c r="AL9" s="60" t="s">
         <v>178</v>
@@ -6709,18 +6798,18 @@
       <c r="AM9" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="AN9" s="167"/>
-      <c r="AO9" s="184" t="s">
+      <c r="AN9" s="166"/>
+      <c r="AO9" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP9" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="AP9" s="86" t="s">
+      <c r="AQ9" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="AQ9" s="185" t="s">
+      <c r="AR9" s="57" t="s">
         <v>221</v>
-      </c>
-      <c r="AR9" s="57" t="s">
-        <v>222</v>
       </c>
       <c r="AS9" s="60" t="s">
         <v>178</v>
@@ -6728,128 +6817,156 @@
       <c r="AT9" s="91"/>
       <c r="AU9" s="85"/>
       <c r="AV9" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW9" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="AW9" s="56" t="s">
+      <c r="AX9" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="AX9" s="86" t="s">
+      <c r="AY9" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="AY9" s="86" t="s">
+      <c r="AZ9" s="86" t="s">
         <v>226</v>
-      </c>
-      <c r="AZ9" s="86" t="s">
-        <v>227</v>
       </c>
       <c r="BA9" s="85"/>
       <c r="BB9" s="110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BC9" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD9" s="193" t="s">
+        <v>235</v>
+      </c>
+      <c r="BE9" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="BD9" s="86" t="s">
+      <c r="BF9" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="BE9" s="129" t="s">
+      <c r="BG9" s="134" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH9" s="134" t="s">
+        <v>231</v>
+      </c>
+      <c r="BI9" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ9" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK9" s="126"/>
+      <c r="BL9" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="BF9" s="57" t="s">
+      <c r="BM9" s="134" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN9" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO9" s="187" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP9" s="85"/>
+      <c r="BQ9" s="85"/>
+      <c r="BR9" s="184" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS9" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT9" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="BU9" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV9" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="BW9" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX9" s="85"/>
+      <c r="BY9" s="126"/>
+      <c r="BZ9" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA9" s="190" t="s">
+        <v>235</v>
+      </c>
+      <c r="CB9" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="CC9" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="BG9" s="134" t="s">
-        <v>233</v>
-      </c>
-      <c r="BH9" s="134" t="s">
-        <v>234</v>
-      </c>
-      <c r="BI9" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="BJ9" s="126"/>
-      <c r="BK9" s="57" t="s">
+      <c r="CD9" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="CE9" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="CF9" s="191" t="s">
+        <v>220</v>
+      </c>
+      <c r="CG9" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH9" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="BL9" s="134" t="s">
+      <c r="CI9" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ9" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="BM9" s="134" t="s">
-        <v>236</v>
-      </c>
-      <c r="BN9" s="259" t="s">
+      <c r="CK9" s="113"/>
+      <c r="CL9" s="180"/>
+      <c r="CM9" s="180"/>
+      <c r="CN9" s="85"/>
+      <c r="CO9" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="CP9" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="CQ9" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="CR9" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="BO9" s="85"/>
-      <c r="BP9" s="85"/>
-      <c r="BQ9" s="256" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR9" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS9" s="179" t="s">
+      <c r="CS9" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="CT9" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU9" s="167" t="s">
+        <v>213</v>
+      </c>
+      <c r="CV9" s="171" t="s">
         <v>238</v>
       </c>
-      <c r="BT9" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="BU9" s="113" t="s">
-        <v>222</v>
-      </c>
-      <c r="BV9" s="60" t="s">
+      <c r="CW9" s="113"/>
+      <c r="CX9" s="179" t="s">
         <v>239</v>
       </c>
-      <c r="BW9" s="85"/>
-      <c r="BX9" s="126"/>
-      <c r="BY9" s="85"/>
-      <c r="BZ9" s="85"/>
-      <c r="CA9" s="85"/>
-      <c r="CB9" s="85"/>
-      <c r="CC9" s="126"/>
-      <c r="CD9" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="CE9" s="113"/>
-      <c r="CF9" s="181"/>
-      <c r="CG9" s="181"/>
-      <c r="CH9" s="85"/>
-      <c r="CI9" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="CJ9" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="CK9" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="CL9" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="CM9" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="CN9" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="CO9" s="168" t="s">
-        <v>214</v>
-      </c>
-      <c r="CP9" s="172" t="s">
-        <v>231</v>
-      </c>
-      <c r="CQ9" s="113"/>
-      <c r="CR9" s="180" t="s">
+      <c r="CY9" s="113"/>
+    </row>
+    <row r="10" spans="1:103" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="CS9" s="113"/>
-    </row>
-    <row r="10" spans="1:97" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="B10" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>242</v>
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
@@ -6858,13 +6975,13 @@
         <v>161</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>163</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J10" s="56" t="s">
         <v>165</v>
@@ -6873,60 +6990,62 @@
         <v>166</v>
       </c>
       <c r="L10" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="M10" s="56" t="s">
         <v>245</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>246</v>
       </c>
       <c r="N10" s="90"/>
       <c r="O10" s="91"/>
       <c r="P10" s="91"/>
       <c r="Q10" s="91"/>
       <c r="R10" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="S10" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="S10" s="114" t="s">
+      <c r="T10" s="145" t="s">
         <v>248</v>
       </c>
-      <c r="T10" s="146" t="s">
+      <c r="U10" s="77" t="s">
         <v>249</v>
-      </c>
-      <c r="U10" s="77" t="s">
-        <v>250</v>
       </c>
       <c r="V10" s="91"/>
       <c r="W10" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="X10" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="X10" s="57" t="s">
+      <c r="Y10" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z10" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="Y10" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z10" s="57" t="s">
+      <c r="AA10" s="70" t="s">
         <v>253</v>
-      </c>
-      <c r="AA10" s="70" t="s">
-        <v>254</v>
       </c>
       <c r="AB10" s="85"/>
       <c r="AC10" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD10" s="91"/>
       <c r="AE10" s="112" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF10" s="112" t="s">
         <v>256</v>
-      </c>
-      <c r="AF10" s="112" t="s">
-        <v>257</v>
       </c>
       <c r="AG10" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="AH10" s="85"/>
+      <c r="AH10" s="57" t="s">
+        <v>215</v>
+      </c>
       <c r="AI10" s="115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ10" s="108"/>
       <c r="AK10" s="108"/>
@@ -6935,152 +7054,177 @@
       <c r="AN10" s="108"/>
       <c r="AO10" s="108"/>
       <c r="AP10" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ10" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="AQ10" s="86" t="s">
-        <v>260</v>
-      </c>
       <c r="AR10" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AS10" s="60" t="s">
         <v>178</v>
       </c>
       <c r="AT10" s="91"/>
-      <c r="AU10" s="143" t="s">
+      <c r="AU10" s="142" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV10" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="AV10" s="86" t="s">
+      <c r="AW10" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX10" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="AW10" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX10" s="86" t="s">
+      <c r="AY10" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="AY10" s="86" t="s">
+      <c r="AZ10" s="121"/>
+      <c r="BA10" s="142" t="s">
         <v>264</v>
       </c>
-      <c r="AZ10" s="121"/>
-      <c r="BA10" s="143" t="s">
+      <c r="BB10" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="BB10" s="110" t="s">
+      <c r="BC10" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="BC10" s="110" t="s">
+      <c r="BE10" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="BD10" s="86" t="s">
+      <c r="BF10" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="BE10" s="134" t="s">
+      <c r="BG10" s="134" t="s">
+        <v>269</v>
+      </c>
+      <c r="BH10" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI10" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ10" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK10" s="85"/>
+      <c r="BL10" s="134" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM10" s="134" t="s">
+        <v>269</v>
+      </c>
+      <c r="BN10" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="BO10" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP10" s="85"/>
+      <c r="BQ10" s="85"/>
+      <c r="BR10" s="184" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS10" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT10" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="BU10" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV10" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="BW10" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX10" s="85"/>
+      <c r="BY10" s="126"/>
+      <c r="BZ10" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA10" s="191" t="s">
+        <v>263</v>
+      </c>
+      <c r="CB10" s="110" t="s">
+        <v>266</v>
+      </c>
+      <c r="CC10" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="CD10" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="CE10" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="CF10" s="191" t="s">
+        <v>261</v>
+      </c>
+      <c r="CG10" s="110" t="s">
+        <v>266</v>
+      </c>
+      <c r="CH10" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="CI10" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ10" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="CK10" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL10" s="113"/>
+      <c r="CM10" s="113"/>
+      <c r="CN10" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="CO10" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="CP10" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="CQ10" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="CR10" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="CS10" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="BF10" s="134" t="s">
+      <c r="CT10" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU10" s="147"/>
+      <c r="CV10" s="172" t="s">
         <v>273</v>
       </c>
-      <c r="BG10" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH10" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="BI10" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="BJ10" s="85"/>
-      <c r="BK10" s="134" t="s">
-        <v>272</v>
-      </c>
-      <c r="BL10" s="134" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM10" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="BN10" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO10" s="85"/>
-      <c r="BP10" s="85"/>
-      <c r="BQ10" s="256" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR10" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS10" s="134" t="s">
+      <c r="CW10" s="113"/>
+      <c r="CX10" s="113"/>
+      <c r="CY10" s="113"/>
+    </row>
+    <row r="11" spans="1:103" ht="144" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="BT10" s="113" t="s">
-        <v>222</v>
-      </c>
-      <c r="BU10" s="113" t="s">
-        <v>222</v>
-      </c>
-      <c r="BV10" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="BW10" s="85"/>
-      <c r="BX10" s="126"/>
-      <c r="BY10" s="85"/>
-      <c r="BZ10" s="85"/>
-      <c r="CA10" s="85"/>
-      <c r="CB10" s="85"/>
-      <c r="CC10" s="126"/>
-      <c r="CD10" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="CE10" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="CF10" s="113"/>
-      <c r="CG10" s="113"/>
-      <c r="CH10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CI10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CJ10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CK10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CL10" s="124" t="s">
-        <v>269</v>
-      </c>
-      <c r="CM10" s="132" t="s">
-        <v>270</v>
-      </c>
-      <c r="CN10" s="115" t="s">
-        <v>254</v>
-      </c>
-      <c r="CO10" s="148"/>
-      <c r="CP10" s="173" t="s">
-        <v>271</v>
-      </c>
-      <c r="CQ10" s="113"/>
-      <c r="CR10" s="113"/>
-      <c r="CS10" s="113"/>
-    </row>
-    <row r="11" spans="1:97" ht="144" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="B11" s="56" t="s">
         <v>275</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>276</v>
       </c>
       <c r="C11" s="91"/>
       <c r="D11" s="60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="91"/>
@@ -7092,7 +7236,7 @@
         <v>142</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M11" s="56" t="s">
         <v>144</v>
@@ -7104,62 +7248,62 @@
         <v>146</v>
       </c>
       <c r="P11" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="Q11" s="56" t="s">
-        <v>209</v>
-      </c>
       <c r="R11" s="111" t="s">
+        <v>276</v>
+      </c>
+      <c r="S11" s="89"/>
+      <c r="T11" s="146" t="s">
         <v>277</v>
-      </c>
-      <c r="S11" s="89"/>
-      <c r="T11" s="147" t="s">
-        <v>278</v>
       </c>
       <c r="U11" s="91"/>
       <c r="V11" s="91"/>
       <c r="W11" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X11" s="89"/>
       <c r="Y11" s="111" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z11" s="91"/>
       <c r="AA11" s="70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB11" s="91"/>
       <c r="AC11" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="152" t="s">
         <v>281</v>
       </c>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="153" t="s">
+      <c r="AF11" s="152" t="s">
         <v>282</v>
       </c>
-      <c r="AF11" s="153" t="s">
+      <c r="AG11" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH11" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI11" s="154"/>
+      <c r="AJ11" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="156"/>
+      <c r="AM11" s="156"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="157" t="s">
         <v>283</v>
       </c>
-      <c r="AG11" s="154" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH11" s="155" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI11" s="155"/>
-      <c r="AJ11" s="156" t="s">
-        <v>265</v>
-      </c>
-      <c r="AK11" s="157"/>
-      <c r="AL11" s="157"/>
-      <c r="AM11" s="157"/>
-      <c r="AN11" s="157"/>
-      <c r="AO11" s="157"/>
-      <c r="AP11" s="158" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ11" s="159" t="s">
-        <v>222</v>
+      <c r="AQ11" s="158" t="s">
+        <v>221</v>
       </c>
       <c r="AR11" s="69" t="s">
         <v>178</v>
@@ -7168,142 +7312,168 @@
         <v>178</v>
       </c>
       <c r="AT11" s="96"/>
-      <c r="AU11" s="160" t="s">
+      <c r="AU11" s="159" t="s">
         <v>179</v>
       </c>
-      <c r="AV11" s="158" t="s">
+      <c r="AV11" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="AW11" s="158" t="s">
+      <c r="AW11" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="AX11" s="158" t="s">
+      <c r="AX11" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="AY11" s="161" t="s">
+      <c r="AY11" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="AZ11" s="158" t="s">
+      <c r="AZ11" s="157" t="s">
         <v>157</v>
       </c>
       <c r="BA11" s="139"/>
-      <c r="BB11" s="162" t="s">
+      <c r="BB11" s="161" t="s">
+        <v>284</v>
+      </c>
+      <c r="BC11" s="96"/>
+      <c r="BD11" s="162"/>
+      <c r="BE11" s="162"/>
+      <c r="BF11" s="134" t="s">
         <v>285</v>
       </c>
-      <c r="BC11" s="163"/>
-      <c r="BD11" s="163"/>
-      <c r="BE11" s="134" t="s">
-        <v>288</v>
-      </c>
-      <c r="BF11" s="134" t="s">
-        <v>289</v>
-      </c>
-      <c r="BG11" s="60" t="s">
-        <v>178</v>
+      <c r="BG11" s="134" t="s">
+        <v>286</v>
       </c>
       <c r="BH11" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="BI11" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="BJ11" s="85"/>
-      <c r="BK11" s="134" t="s">
+      <c r="BI11" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ11" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK11" s="85"/>
+      <c r="BL11" s="134" t="s">
+        <v>285</v>
+      </c>
+      <c r="BM11" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="BN11" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO11" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BP11" s="85"/>
+      <c r="BQ11" s="85"/>
+      <c r="BR11" s="184" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS11" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT11" s="178" t="s">
         <v>288</v>
       </c>
-      <c r="BL11" s="131" t="s">
+      <c r="BU11" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV11" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BW11" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX11" s="85"/>
+      <c r="BY11" s="126"/>
+      <c r="BZ11" s="157" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA11" s="161" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB11" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC11" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD11" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="CE11" s="157" t="s">
+        <v>283</v>
+      </c>
+      <c r="CF11" s="192" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG11" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="CH11" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="CI11" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ11" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="CK11" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="CL11" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM11" s="113"/>
+      <c r="CN11" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="CO11" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="CP11" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="CQ11" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="CR11" s="163" t="s">
+        <v>289</v>
+      </c>
+      <c r="CS11" s="164" t="s">
+        <v>158</v>
+      </c>
+      <c r="CT11" s="174" t="s">
         <v>290</v>
       </c>
-      <c r="BM11" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="BN11" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO11" s="85"/>
-      <c r="BP11" s="85"/>
-      <c r="BQ11" s="256" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR11" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS11" s="179" t="s">
+      <c r="CU11" s="81"/>
+      <c r="CV11" s="173" t="s">
+        <v>254</v>
+      </c>
+      <c r="CW11" s="177" t="s">
         <v>291</v>
       </c>
-      <c r="BT11" s="113" t="s">
-        <v>222</v>
-      </c>
-      <c r="BU11" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="BV11" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="BW11" s="85"/>
-      <c r="BX11" s="126"/>
-      <c r="BY11" s="85"/>
-      <c r="BZ11" s="85"/>
-      <c r="CA11" s="85"/>
-      <c r="CB11" s="85"/>
-      <c r="CC11" s="126"/>
-      <c r="CD11" s="134" t="s">
-        <v>280</v>
-      </c>
-      <c r="CE11" s="134" t="s">
-        <v>280</v>
-      </c>
-      <c r="CF11" s="134" t="s">
-        <v>280</v>
-      </c>
-      <c r="CG11" s="113"/>
-      <c r="CH11" s="179" t="s">
-        <v>291</v>
-      </c>
-      <c r="CI11" s="179" t="s">
-        <v>291</v>
-      </c>
-      <c r="CJ11" s="179" t="s">
-        <v>291</v>
-      </c>
-      <c r="CK11" s="179" t="s">
-        <v>291</v>
-      </c>
-      <c r="CL11" s="164" t="s">
-        <v>286</v>
-      </c>
-      <c r="CM11" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="CN11" s="175" t="s">
-        <v>287</v>
-      </c>
-      <c r="CO11" s="81"/>
-      <c r="CP11" s="174" t="s">
-        <v>255</v>
-      </c>
-      <c r="CQ11" s="178" t="s">
+      <c r="CX11" s="179" t="s">
         <v>292</v>
       </c>
-      <c r="CR11" s="180" t="s">
+      <c r="CY11" s="113"/>
+    </row>
+    <row r="12" spans="1:103" ht="96" x14ac:dyDescent="0.2">
+      <c r="A12" s="61" t="s">
         <v>293</v>
-      </c>
-      <c r="CS11" s="113"/>
-    </row>
-    <row r="12" spans="1:97" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>294</v>
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="91"/>
       <c r="D12" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="91"/>
@@ -7312,13 +7482,13 @@
         <v>161</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L12" s="56" t="s">
         <v>163</v>
       </c>
       <c r="M12" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N12" s="67" t="s">
         <v>165</v>
@@ -7327,19 +7497,19 @@
         <v>166</v>
       </c>
       <c r="P12" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q12" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="R12" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="R12" s="58" t="s">
+      <c r="S12" s="114" t="s">
         <v>298</v>
       </c>
-      <c r="S12" s="114" t="s">
-        <v>299</v>
-      </c>
-      <c r="T12" s="146" t="s">
-        <v>249</v>
+      <c r="T12" s="145" t="s">
+        <v>248</v>
       </c>
       <c r="U12" s="77" t="s">
         <v>169</v>
@@ -7348,26 +7518,26 @@
         <v>170</v>
       </c>
       <c r="W12" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X12" s="85"/>
       <c r="Y12" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z12" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA12" s="70" t="s">
         <v>301</v>
-      </c>
-      <c r="AA12" s="70" t="s">
-        <v>302</v>
       </c>
       <c r="AB12" s="91"/>
       <c r="AC12" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD12" s="91"/>
       <c r="AE12" s="113"/>
       <c r="AF12" s="112" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG12" s="57" t="s">
         <v>175</v>
@@ -7376,10 +7546,10 @@
         <v>149</v>
       </c>
       <c r="AI12" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ12" s="116" t="s">
         <v>305</v>
-      </c>
-      <c r="AJ12" s="116" t="s">
-        <v>306</v>
       </c>
       <c r="AK12" s="120"/>
       <c r="AL12" s="120"/>
@@ -7387,20 +7557,20 @@
       <c r="AN12" s="120"/>
       <c r="AO12" s="120"/>
       <c r="AP12" s="136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AQ12" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AR12" s="60" t="s">
         <v>178</v>
       </c>
       <c r="AT12" s="91"/>
-      <c r="AU12" s="144" t="s">
-        <v>219</v>
+      <c r="AU12" s="143" t="s">
+        <v>218</v>
       </c>
       <c r="AV12" s="86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AW12" s="86" t="s">
         <v>181</v>
@@ -7409,78 +7579,79 @@
         <v>182</v>
       </c>
       <c r="AY12" s="136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AZ12" s="91"/>
-      <c r="BA12" s="143" t="s">
-        <v>261</v>
+      <c r="BA12" s="142" t="s">
+        <v>260</v>
       </c>
       <c r="BB12" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="BC12" s="91"/>
+      <c r="BD12" s="91"/>
+      <c r="BE12" s="134" t="s">
+        <v>308</v>
+      </c>
+      <c r="CJ12" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="BC12" s="91"/>
-      <c r="BD12" s="134" t="s">
+      <c r="CK12" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="CD12" s="56" t="s">
+      <c r="CL12" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="CM12" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN12" s="85"/>
+      <c r="CO12" s="85"/>
+      <c r="CP12" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="CQ12" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="CR12" s="124" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS12" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="CT12" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="CU12" s="81"/>
+      <c r="CV12" s="176" t="s">
+        <v>311</v>
+      </c>
+      <c r="CW12" s="85"/>
+      <c r="CX12" s="85"/>
+      <c r="CY12" s="85"/>
+    </row>
+    <row r="13" spans="1:103" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="97" t="s">
         <v>312</v>
-      </c>
-      <c r="CE12" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="CF12" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="CG12" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="CH12" s="85"/>
-      <c r="CI12" s="85"/>
-      <c r="CJ12" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="CK12" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="CL12" s="124" t="s">
-        <v>310</v>
-      </c>
-      <c r="CM12" s="133" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN12" s="176" t="s">
-        <v>287</v>
-      </c>
-      <c r="CO12" s="81"/>
-      <c r="CP12" s="177" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ12" s="85"/>
-      <c r="CR12" s="85"/>
-      <c r="CS12" s="85"/>
-    </row>
-    <row r="13" spans="1:97" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="97" t="s">
-        <v>313</v>
       </c>
       <c r="B13" s="91"/>
       <c r="C13" s="91"/>
       <c r="D13" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="107" t="s">
         <v>149</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I13" s="91"/>
       <c r="J13" s="56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
@@ -7512,23 +7683,23 @@
       <c r="AD13" s="76"/>
       <c r="AE13" s="102"/>
       <c r="AF13" s="103" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG13" s="104"/>
       <c r="AH13" s="76" t="s">
         <v>149</v>
       </c>
       <c r="AI13" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="AJ13" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="AJ13" s="106" t="s">
-        <v>317</v>
-      </c>
-      <c r="AK13" s="141"/>
-      <c r="AL13" s="141"/>
-      <c r="AM13" s="141"/>
-      <c r="AN13" s="141"/>
-      <c r="AO13" s="141"/>
+      <c r="AK13" s="140"/>
+      <c r="AL13" s="140"/>
+      <c r="AM13" s="140"/>
+      <c r="AN13" s="140"/>
+      <c r="AO13" s="140"/>
       <c r="AP13" s="121"/>
       <c r="AQ13" s="121"/>
       <c r="AR13" s="91"/>
@@ -7536,50 +7707,51 @@
       <c r="AT13" s="91"/>
       <c r="AU13" s="85"/>
       <c r="AV13" s="86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AW13" s="86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX13" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AY13" s="60" t="s">
         <v>178</v>
       </c>
       <c r="AZ13" s="91"/>
-      <c r="BA13" s="143" t="s">
+      <c r="BA13" s="142" t="s">
         <v>179</v>
       </c>
       <c r="BB13" s="91"/>
       <c r="BC13" s="91"/>
       <c r="BD13" s="91"/>
-      <c r="CD13" s="85"/>
-      <c r="CE13" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="CF13" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="CG13" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="CH13" s="85"/>
-      <c r="CI13" s="85"/>
+      <c r="BE13" s="91"/>
       <c r="CJ13" s="85"/>
-      <c r="CK13" s="182" t="s">
-        <v>213</v>
-      </c>
-      <c r="CL13" s="85"/>
-      <c r="CN13" s="118"/>
-      <c r="CO13" s="81"/>
-      <c r="CP13" s="177" t="s">
+      <c r="CK13" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="CL13" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="CM13" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="CN13" s="85"/>
+      <c r="CO13" s="85"/>
+      <c r="CP13" s="85"/>
+      <c r="CQ13" s="181" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR13" s="85"/>
+      <c r="CT13" s="118"/>
+      <c r="CU13" s="81"/>
+      <c r="CV13" s="176" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:97" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
-        <v>320</v>
       </c>
       <c r="B14" s="91"/>
       <c r="C14" s="91"/>
@@ -7588,13 +7760,13 @@
       <c r="F14" s="91"/>
       <c r="G14" s="91"/>
       <c r="H14" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K14" s="91"/>
       <c r="L14" s="91"/>
@@ -7609,7 +7781,7 @@
         <v>163</v>
       </c>
       <c r="Q14" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R14" s="54"/>
       <c r="S14" s="91"/>
@@ -7628,16 +7800,16 @@
       <c r="AG14" s="92"/>
       <c r="AH14" s="62"/>
       <c r="AI14" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ14" s="79" t="s">
-        <v>322</v>
-      </c>
-      <c r="AK14" s="142"/>
-      <c r="AL14" s="142"/>
-      <c r="AM14" s="142"/>
-      <c r="AN14" s="142"/>
-      <c r="AO14" s="142"/>
+        <v>321</v>
+      </c>
+      <c r="AK14" s="141"/>
+      <c r="AL14" s="141"/>
+      <c r="AM14" s="141"/>
+      <c r="AN14" s="141"/>
+      <c r="AO14" s="141"/>
       <c r="AP14" s="121"/>
       <c r="AQ14" s="121"/>
       <c r="AR14" s="91"/>
@@ -7645,48 +7817,49 @@
       <c r="AT14" s="91"/>
       <c r="AU14" s="85"/>
       <c r="AV14" s="86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AW14" s="86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AX14" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AY14" s="60" t="s">
         <v>178</v>
       </c>
       <c r="AZ14" s="91"/>
-      <c r="BA14" s="144" t="s">
-        <v>219</v>
+      <c r="BA14" s="143" t="s">
+        <v>218</v>
       </c>
       <c r="BB14" s="91"/>
       <c r="BC14" s="91"/>
       <c r="BD14" s="91"/>
-      <c r="CD14" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CE14" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CF14" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CG14" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CH14" s="91"/>
-      <c r="CI14" s="91"/>
-      <c r="CJ14" s="91"/>
-      <c r="CK14" s="91"/>
-      <c r="CL14" s="85"/>
-      <c r="CN14" s="118"/>
-      <c r="CO14" s="81"/>
-      <c r="CP14" s="83"/>
+      <c r="BE14" s="91"/>
+      <c r="CJ14" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="CK14" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="CL14" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="CM14" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="CN14" s="91"/>
+      <c r="CO14" s="91"/>
+      <c r="CP14" s="91"/>
+      <c r="CQ14" s="91"/>
+      <c r="CR14" s="85"/>
+      <c r="CT14" s="118"/>
+      <c r="CU14" s="81"/>
+      <c r="CV14" s="83"/>
     </row>
-    <row r="15" spans="1:97" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B15" s="91"/>
       <c r="C15" s="91"/>
@@ -7695,21 +7868,21 @@
       <c r="F15" s="91"/>
       <c r="G15" s="91"/>
       <c r="H15" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I15" s="107" t="s">
         <v>149</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K15" s="91"/>
       <c r="L15" s="60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M15" s="91"/>
       <c r="N15" s="67" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O15" s="74"/>
       <c r="P15" s="74"/>
@@ -7744,10 +7917,10 @@
       <c r="AT15" s="91"/>
       <c r="AU15" s="85"/>
       <c r="AV15" s="86" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AW15" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AX15" s="60" t="s">
         <v>178</v>
@@ -7760,128 +7933,139 @@
       <c r="BB15" s="91"/>
       <c r="BC15" s="91"/>
       <c r="BD15" s="91"/>
-      <c r="CD15" s="179" t="s">
-        <v>291</v>
-      </c>
-      <c r="CE15" s="179" t="s">
-        <v>291</v>
-      </c>
-      <c r="CF15" s="179" t="s">
-        <v>291</v>
-      </c>
-      <c r="CG15" s="179" t="s">
-        <v>291</v>
-      </c>
-      <c r="CH15" s="181"/>
-      <c r="CI15" s="181"/>
-      <c r="CJ15" s="181"/>
-      <c r="CK15" s="181"/>
-      <c r="CL15" s="85"/>
-      <c r="CN15" s="119"/>
-      <c r="CO15" s="82"/>
-      <c r="CP15" s="84"/>
+      <c r="BE15" s="91"/>
+      <c r="CJ15" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="CK15" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="CL15" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="CM15" s="178" t="s">
+        <v>288</v>
+      </c>
+      <c r="CN15" s="180"/>
+      <c r="CO15" s="180"/>
+      <c r="CP15" s="180"/>
+      <c r="CQ15" s="180"/>
+      <c r="CR15" s="85"/>
+      <c r="CT15" s="119"/>
+      <c r="CU15" s="82"/>
+      <c r="CV15" s="84"/>
     </row>
-    <row r="16" spans="1:97" ht="85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
       <c r="L16" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M16" s="75" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N16" s="71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O16" s="74"/>
       <c r="P16" s="74"/>
       <c r="Q16" s="74"/>
-      <c r="CD16" s="85"/>
-      <c r="CE16" s="85"/>
-      <c r="CF16" s="134" t="s">
+      <c r="CJ16" s="85"/>
+      <c r="CK16" s="85"/>
+      <c r="CL16" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="CG16" s="134" t="s">
+      <c r="CM16" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="CH16" s="85"/>
-      <c r="CI16" s="85"/>
-      <c r="CJ16" s="91"/>
-      <c r="CK16" s="91"/>
+      <c r="CN16" s="85"/>
+      <c r="CO16" s="85"/>
+      <c r="CP16" s="91"/>
+      <c r="CQ16" s="91"/>
     </row>
-    <row r="17" spans="1:89" ht="85" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" ht="85" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
       <c r="L17" s="69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M17" s="76" t="s">
         <v>149</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O17" s="74"/>
       <c r="P17" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="74"/>
-      <c r="CD17" s="85"/>
-      <c r="CE17" s="85"/>
-      <c r="CF17" s="85"/>
-      <c r="CG17" s="182" t="s">
-        <v>213</v>
-      </c>
-      <c r="CH17" s="85"/>
-      <c r="CI17" s="85"/>
       <c r="CJ17" s="85"/>
-      <c r="CK17" s="90"/>
+      <c r="CK17" s="85"/>
+      <c r="CL17" s="85"/>
+      <c r="CM17" s="181" t="s">
+        <v>212</v>
+      </c>
+      <c r="CN17" s="85"/>
+      <c r="CO17" s="85"/>
+      <c r="CP17" s="85"/>
+      <c r="CQ17" s="90"/>
     </row>
-    <row r="18" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
       <c r="P18" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="75" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
       <c r="P19" s="69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="76" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CD5:CG5"/>
-    <mergeCell ref="CH5:CK5"/>
+  <mergeCells count="37">
+    <mergeCell ref="CE6:CI6"/>
+    <mergeCell ref="BF5:BK5"/>
+    <mergeCell ref="BT5:BY5"/>
+    <mergeCell ref="BZ5:CD5"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CE5:CI5"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CJ5:CM5"/>
+    <mergeCell ref="CN5:CQ5"/>
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="BY6:CC6"/>
-    <mergeCell ref="AP5:BC5"/>
+    <mergeCell ref="BZ6:CD6"/>
+    <mergeCell ref="AP5:BD5"/>
     <mergeCell ref="AP6:AU6"/>
     <mergeCell ref="AV6:BA6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BK5:BR5"/>
-    <mergeCell ref="BS6:BX6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="BE6:BJ6"/>
-    <mergeCell ref="BK6:BR6"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BL5:BS5"/>
+    <mergeCell ref="BT6:BY6"/>
+    <mergeCell ref="CT6:CU6"/>
+    <mergeCell ref="BF6:BK6"/>
+    <mergeCell ref="BL6:BS6"/>
     <mergeCell ref="AK6:AO6"/>
-    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="W3:AJ4"/>
+    <mergeCell ref="B4:V4"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J6:M6"/>
@@ -7892,19 +8076,23 @@
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="W2:AJ2"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="W3:AJ4"/>
-    <mergeCell ref="B4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="12" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="3" scale="24" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FE281A6E490164995812917410E5206" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8fcdc8cda6cd6c421b0036055ddb6ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60eed870-47b7-4398-bacb-923956a4e3c6" xmlns:ns3="6e788143-6890-4a14-a447-95e8858fb65c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfe6e9c76325de70081e1f21d7debdf" ns2:_="" ns3:_="">
     <xsd:import namespace="60eed870-47b7-4398-bacb-923956a4e3c6"/>
@@ -8081,22 +8269,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8115,27 +8302,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6e788143-6890-4a14-a447-95e8858fb65c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="60eed870-47b7-4398-bacb-923956a4e3c6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6e788143-6890-4a14-a447-95e8858fb65c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MAE_Planner_AY24.xlsx
+++ b/MAE_Planner_AY24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26424"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nps01.sharepoint.com/sites/MAECurricula/Shared Documents/General/CourseAndTeachingPlanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="535" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D57AB2C1-5627-A54B-890D-32EE2E7B7348}"/>
+  <xr:revisionPtr revIDLastSave="554" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6148F13F-A56A-4E81-B3A8-7AC93121BC4C}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="500" windowWidth="49260" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="49260" windowHeight="19400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="533 10 quarter (Summer)" sheetId="6" state="hidden" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="332">
   <si>
     <t>533 COMBAT SYSTEMS SCIENCE AND ENGINEERING</t>
   </si>
@@ -1498,7 +1498,19 @@
     <t>591 Aerospace Engineering</t>
   </si>
   <si>
+    <t>366 Core</t>
+  </si>
+  <si>
+    <t>570 Bowman 1-year</t>
+  </si>
+  <si>
     <t>525 Bowman 1-year</t>
+  </si>
+  <si>
+    <t>609 Shoemaker 1-year</t>
+  </si>
+  <si>
+    <t>591 Shoemaker 1-year</t>
   </si>
   <si>
     <t>613   
@@ -1511,89 +1523,6 @@
 DL</t>
   </si>
   <si>
-    <t>Academic Year/Qtr</t>
-  </si>
-  <si>
-    <t>Fall/Winter Start
-Core, Pre-planned core courses: This is the general recommended schedule for these courses, but they can be moved to accommodate individual plans of study.  Consult latest teaching plan for scheduling alternatives.</t>
-  </si>
-  <si>
-    <t>Spring/Summer Start
-Core, Pre-planned core courses: This is the general recommended schedule for these courses, but they can be moved to accommodate individual plans of study.  Consult latest teaching plan for scheduling alternatives.</t>
-  </si>
-  <si>
-    <t>Spring/Summer
-Core, Pre-planned core courses: This is the general recommended schedule for these courses, but they can be moved to accommodate individual plans of study.  Consult latest teaching plan for scheduling alternatives.</t>
-  </si>
-  <si>
-    <t>Core, To-Be-Planned Courses: These courses are required, but must be scheduled by the student.</t>
-  </si>
-  <si>
-    <t>Controls Track
-(Also see appropriate 591 electives)</t>
-  </si>
-  <si>
-    <t>Materials Track</t>
-  </si>
-  <si>
-    <t>Structures Track</t>
-  </si>
-  <si>
-    <t>Thermo/Fluids Track</t>
-  </si>
-  <si>
-    <t>TSSE</t>
-  </si>
-  <si>
-    <t>General Electives</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>JPME - URLs only
-(Offered every qtr)</t>
-  </si>
-  <si>
-    <t>591 Core
-Summer 21 Start</t>
-  </si>
-  <si>
-    <t>591 Core
-Summer 22 Start</t>
-  </si>
-  <si>
-    <t>591 Core
-Summer 23 Start</t>
-  </si>
-  <si>
-    <t>591 Electives</t>
-  </si>
-  <si>
-    <t>366 Core</t>
-  </si>
-  <si>
-    <t>570 Bowman 1-year</t>
-  </si>
-  <si>
-    <t>609 Shoemaker 1-year</t>
-  </si>
-  <si>
-    <t>591 Shoemaker 1-year</t>
-  </si>
-  <si>
-    <t>Fall Start</t>
-  </si>
-  <si>
-    <t>Winter Start</t>
-  </si>
-  <si>
-    <t>Spring Start</t>
-  </si>
-  <si>
-    <t>Summer Start</t>
-  </si>
-  <si>
     <t>299
 DL</t>
   </si>
@@ -1609,6 +1538,85 @@
     <t>572
 DL
 Async</t>
+  </si>
+  <si>
+    <t>Academic Year/Qtr</t>
+  </si>
+  <si>
+    <t>Fall/Winter Start
+Core, Pre-planned core courses: This is the general recommended schedule for these courses, but they can be moved to accommodate individual plans of study.  Consult latest teaching plan for scheduling alternatives.</t>
+  </si>
+  <si>
+    <t>Spring/Summer Start
+Core, Pre-planned core courses: This is the general recommended schedule for these courses, but they can be moved to accommodate individual plans of study.  Consult latest teaching plan for scheduling alternatives.</t>
+  </si>
+  <si>
+    <t>Spring/Summer
+Core, Pre-planned core courses: This is the general recommended schedule for these courses, but they can be moved to accommodate individual plans of study.  Consult latest teaching plan for scheduling alternatives.</t>
+  </si>
+  <si>
+    <t>Core, To-Be-Planned Courses: These courses are required, but must be scheduled by the student.</t>
+  </si>
+  <si>
+    <t>Controls Track
+(Also see appropriate 591 electives)</t>
+  </si>
+  <si>
+    <t>Materials Track</t>
+  </si>
+  <si>
+    <t>Structures Track</t>
+  </si>
+  <si>
+    <t>Thermo/Fluids Track</t>
+  </si>
+  <si>
+    <t>TSSE</t>
+  </si>
+  <si>
+    <t>General Electives</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>JPME - URLs only
+(Offered every qtr)</t>
+  </si>
+  <si>
+    <t>591 Core
+Summer 21 Start</t>
+  </si>
+  <si>
+    <t>591 Core
+Summer 22 Start</t>
+  </si>
+  <si>
+    <t>591 Core
+Summer 23 Start</t>
+  </si>
+  <si>
+    <t>591 Electives</t>
+  </si>
+  <si>
+    <t>591 Shoemaker 1-year
+BS in Astro</t>
+  </si>
+  <si>
+    <t>591 Shoemaker 1-year
+BS in Non-Astro</t>
+  </si>
+  <si>
+    <t>Fall Start</t>
+  </si>
+  <si>
+    <t>Winter Start</t>
+  </si>
+  <si>
+    <t>Spring Start</t>
+  </si>
+  <si>
+    <t>Summer Start</t>
   </si>
   <si>
     <t>MAE Folk Teaching for Other Departments</t>
@@ -1888,6 +1896,16 @@
 Physics of Space and Airborne Sensor Systems</t>
   </si>
   <si>
+    <t xml:space="preserve">MA4311
+Calculus of Variations
+</t>
+  </si>
+  <si>
+    <t>SS1810
+Thesis Proposal Preparation 
+(1 Credit)</t>
+  </si>
+  <si>
     <t>ME3420
 Computational Foundations of Robotics
 [Kragelund]</t>
@@ -1949,11 +1967,6 @@
 [Kragh]</t>
   </si>
   <si>
-    <t> ME4700
-Weaponeering
-[Gordis]</t>
-  </si>
-  <si>
     <t xml:space="preserve">MA/AE4824
 App. of DL for Mil. Sys.
 [Agrawal/Kim]
@@ -2005,6 +2018,11 @@
 [Ross]</t>
   </si>
   <si>
+    <t>AE4452
+Advanced Missile Propulsion
+[Brophy]</t>
+  </si>
+  <si>
     <t>AE4830
 Spacecraft Systems I
 [Lan]</t>
@@ -2036,17 +2054,12 @@
 ME4901 Additive Manufacturing</t>
   </si>
   <si>
+    <t xml:space="preserve">ME0810
+Thesis Research </t>
+  </si>
+  <si>
     <t>PH3002
 Non-Acoustic Sonar Systems</t>
-  </si>
-  <si>
-    <t>AE4452
-Advanced Missile Propulsion
-[Brophy]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME0810
-Thesis Research </t>
   </si>
   <si>
     <t>AE4850
@@ -2081,7 +2094,6 @@
   <si>
     <t>ME1810
 Thesis Proposal Preparation 
-(1 Credit)
 [MacDonald]</t>
   </si>
   <si>
@@ -2153,8 +2165,14 @@
 [TBD]</t>
   </si>
   <si>
+    <t> ME4700
+Weaponeering
+[Gordis]</t>
+  </si>
+  <si>
     <t>ME1000
-Professional Engineering Exam Prep.</t>
+Professional Engineering Exam Prep.
+[Seivwright]</t>
   </si>
   <si>
     <t>AE4871
@@ -2214,7 +2232,7 @@
   <si>
     <t>ME4703
 (Missile) Flight and Control
-[Dobrohkodov]</t>
+[Dobrokhodov]</t>
   </si>
   <si>
     <t>AE4881
@@ -2277,7 +2295,7 @@
   <si>
     <t>TS4000
 Naval Combat System Engineering
-[Hammerer]</t>
+[TBD]</t>
   </si>
   <si>
     <t>TS4001
@@ -2347,7 +2365,7 @@
   <si>
     <t>AE2440
 Intro to Scientific Programming
-[Dobrohkodov]</t>
+[Dobrokhodov]</t>
   </si>
   <si>
     <t>MS3304
@@ -2396,7 +2414,7 @@
     <t>AE3811
 Space Systems Laboratory
 (Req'd for Astro)
-[Agrawal[</t>
+[Agrawal]</t>
   </si>
   <si>
     <t>SS4861
@@ -2460,6 +2478,10 @@
 </t>
   </si>
   <si>
+    <t>ME1000
+Professional Engineering Exam Prep.</t>
+  </si>
+  <si>
     <t xml:space="preserve">NW3276 </t>
   </si>
   <si>
@@ -2508,31 +2530,13 @@
       </rPr>
       <t>Pre: ME3150, ME3450, ME3521</t>
     </r>
-  </si>
-  <si>
-    <t>SS1810
-Thesis Proposal Preparation 
-(1 Credit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA4311
-Calculus of Variations
-</t>
-  </si>
-  <si>
-    <t>591 Shoemaker 1-year
-BS in Astro</t>
-  </si>
-  <si>
-    <t>591 Shoemaker 1-year
-BS in Non-Astro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4695,34 +4699,34 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="12" width="1.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="16" width="1.6640625" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" customWidth="1"/>
-    <col min="19" max="20" width="1.6640625" customWidth="1"/>
-    <col min="21" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" customWidth="1"/>
-    <col min="24" max="25" width="1.6640625" customWidth="1"/>
-    <col min="26" max="27" width="14.5" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" customWidth="1"/>
-    <col min="29" max="29" width="1.6640625" customWidth="1"/>
-    <col min="30" max="30" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="14.5" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="2.33203125" customWidth="1"/>
-    <col min="34" max="35" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="16" width="1.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="19" max="20" width="1.7109375" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" customWidth="1"/>
+    <col min="24" max="25" width="1.7109375" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" customWidth="1"/>
+    <col min="29" max="29" width="1.7109375" customWidth="1"/>
+    <col min="30" max="30" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="2.28515625" customWidth="1"/>
+    <col min="34" max="35" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="15.95">
       <c r="B1" s="194" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1">
       <c r="B2" s="198" t="s">
         <v>5</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1">
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
@@ -4799,7 +4803,7 @@
       <c r="R3" s="36"/>
       <c r="U3" s="203"/>
     </row>
-    <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="15.95">
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4818,7 +4822,7 @@
       <c r="R4" s="37"/>
       <c r="U4" s="203"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1">
       <c r="B5" s="68"/>
       <c r="C5" s="29"/>
       <c r="D5" s="68"/>
@@ -4835,7 +4839,7 @@
       <c r="R5" s="53"/>
       <c r="U5" s="204"/>
     </row>
-    <row r="6" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="19.5" customHeight="1">
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -4850,7 +4854,7 @@
       <c r="Q6" s="216"/>
       <c r="R6" s="53"/>
     </row>
-    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="11.25" customHeight="1">
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -4869,7 +4873,7 @@
       <c r="Y7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="63" customHeight="1">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>17</v>
@@ -4947,7 +4951,7 @@
       </c>
       <c r="AI9" s="218"/>
     </row>
-    <row r="10" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="78.75" customHeight="1">
       <c r="B10" s="31" t="s">
         <v>25</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="78.75" customHeight="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5063,7 +5067,7 @@
       </c>
       <c r="AI11" s="27"/>
     </row>
-    <row r="12" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="78.75" customHeight="1">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5121,7 +5125,7 @@
       <c r="AH12" s="24"/>
       <c r="AI12" s="27"/>
     </row>
-    <row r="13" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="78.75" customHeight="1">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5181,7 +5185,7 @@
       <c r="AH13" s="24"/>
       <c r="AI13" s="27"/>
     </row>
-    <row r="14" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="78.75" customHeight="1">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5245,7 +5249,7 @@
       <c r="AH14" s="24"/>
       <c r="AI14" s="27"/>
     </row>
-    <row r="15" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="78.75" customHeight="1">
       <c r="A15">
         <v>5</v>
       </c>
@@ -5316,7 +5320,7 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="27"/>
     </row>
-    <row r="16" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="78.75" customHeight="1">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5390,7 +5394,7 @@
       <c r="AH16" s="24"/>
       <c r="AI16" s="27"/>
     </row>
-    <row r="17" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="78.75" customHeight="1">
       <c r="A17">
         <v>7</v>
       </c>
@@ -5461,7 +5465,7 @@
       <c r="AH17" s="24"/>
       <c r="AI17" s="27"/>
     </row>
-    <row r="18" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="78.75" customHeight="1">
       <c r="A18">
         <v>8</v>
       </c>
@@ -5523,7 +5527,7 @@
       <c r="AH18" s="24"/>
       <c r="AI18" s="27"/>
     </row>
-    <row r="19" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="78.75" customHeight="1">
       <c r="A19">
         <v>9</v>
       </c>
@@ -5595,7 +5599,7 @@
       </c>
       <c r="AI19" s="46"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="B20" s="1"/>
       <c r="H20" s="16"/>
       <c r="K20" s="16"/>
@@ -5608,7 +5612,7 @@
       <c r="Y20" s="16"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35">
       <c r="B21" s="1"/>
       <c r="H21" s="16"/>
       <c r="K21" s="16"/>
@@ -5621,7 +5625,7 @@
       <c r="Y21" s="16"/>
       <c r="AC21" s="15"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35">
       <c r="B22" s="1"/>
       <c r="H22" s="17"/>
       <c r="K22" s="17"/>
@@ -5634,7 +5638,7 @@
       <c r="Y22" s="17"/>
       <c r="AC22" s="16"/>
     </row>
-    <row r="23" spans="1:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="48.75" customHeight="1">
       <c r="B23" s="1"/>
       <c r="H23" s="17"/>
       <c r="K23" s="17"/>
@@ -5647,7 +5651,7 @@
       <c r="Y23" s="17"/>
       <c r="AC23" s="16"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35">
       <c r="B24" s="1"/>
       <c r="C24" s="23"/>
       <c r="E24" s="212"/>
@@ -5664,7 +5668,7 @@
       <c r="Y24" s="17"/>
       <c r="AC24" s="17"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="H25" s="17"/>
@@ -5678,7 +5682,7 @@
       <c r="Y25" s="17"/>
       <c r="AC25" s="17"/>
     </row>
-    <row r="26" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="16.5" customHeight="1">
       <c r="H26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -5690,14 +5694,14 @@
       <c r="Y26" s="18"/>
       <c r="AC26" s="17"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35">
       <c r="I27" s="12"/>
       <c r="AC27" s="17"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35">
       <c r="AC28" s="18"/>
     </row>
-    <row r="29" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="30" customHeight="1">
       <c r="I29" s="2"/>
     </row>
   </sheetData>
@@ -5846,22 +5850,19 @@
   </sheetPr>
   <dimension ref="A1:CY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10520" activePane="topRight"/>
+      <selection pane="topRight" activeCell="AP12" sqref="AP12"/>
       <selection activeCell="CO9" sqref="CO9"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:BY11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="32" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="15.83203125" customWidth="1"/>
-    <col min="35" max="57" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="58" max="112" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="112" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" ht="15.95" thickBot="1">
       <c r="A1" s="188" t="s">
         <v>98</v>
       </c>
@@ -5902,7 +5903,7 @@
       </c>
       <c r="AJ1" s="78">
         <f ca="1">TODAY()</f>
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="AK1" s="78"/>
       <c r="AL1" s="78"/>
@@ -5910,7 +5911,7 @@
       <c r="AN1" s="78"/>
       <c r="AO1" s="78"/>
     </row>
-    <row r="2" spans="1:103" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" ht="15" hidden="1" customHeight="1">
       <c r="B2" s="232" t="s">
         <v>100</v>
       </c>
@@ -5956,7 +5957,7 @@
       <c r="AN2" s="87"/>
       <c r="AO2" s="87"/>
     </row>
-    <row r="3" spans="1:103" ht="109" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:103" ht="108.95" hidden="1" customHeight="1">
       <c r="B3" s="237" t="s">
         <v>102</v>
       </c>
@@ -6002,7 +6003,7 @@
       <c r="AN3" s="88"/>
       <c r="AO3" s="88"/>
     </row>
-    <row r="4" spans="1:103" ht="65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:103" ht="65.099999999999994" hidden="1" customHeight="1">
       <c r="B4" s="246" t="s">
         <v>104</v>
       </c>
@@ -6046,7 +6047,7 @@
       <c r="AN4" s="88"/>
       <c r="AO4" s="88"/>
     </row>
-    <row r="5" spans="1:103" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="47.1" customHeight="1" thickBot="1">
       <c r="B5" s="224" t="s">
         <v>105</v>
       </c>
@@ -6107,10 +6108,10 @@
       <c r="BC5" s="249"/>
       <c r="BD5" s="249"/>
       <c r="BE5" s="149" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="BF5" s="253" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="BG5" s="253"/>
       <c r="BH5" s="253"/>
@@ -6118,7 +6119,7 @@
       <c r="BJ5" s="253"/>
       <c r="BK5" s="253"/>
       <c r="BL5" s="256" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BM5" s="226"/>
       <c r="BN5" s="226"/>
@@ -6128,7 +6129,7 @@
       <c r="BR5" s="226"/>
       <c r="BS5" s="257"/>
       <c r="BT5" s="253" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="BU5" s="253"/>
       <c r="BV5" s="253"/>
@@ -6136,119 +6137,119 @@
       <c r="BX5" s="253"/>
       <c r="BY5" s="253"/>
       <c r="BZ5" s="253" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="CA5" s="253"/>
       <c r="CB5" s="253"/>
       <c r="CC5" s="253"/>
       <c r="CD5" s="253"/>
       <c r="CE5" s="253" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="CF5" s="253"/>
       <c r="CG5" s="253"/>
       <c r="CH5" s="253"/>
       <c r="CI5" s="253"/>
       <c r="CJ5" s="250" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="CK5" s="251"/>
       <c r="CL5" s="251"/>
       <c r="CM5" s="251"/>
       <c r="CN5" s="250" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="CO5" s="251"/>
       <c r="CP5" s="251"/>
       <c r="CQ5" s="251"/>
       <c r="CR5" s="150" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="CS5" s="151" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="CT5" s="258" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="CU5" s="259"/>
       <c r="CV5" s="168" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:103" ht="77.25" customHeight="1">
       <c r="A6" s="117" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B6" s="221" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C6" s="221"/>
       <c r="D6" s="221"/>
       <c r="E6" s="221"/>
       <c r="F6" s="221" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G6" s="221"/>
       <c r="H6" s="221"/>
       <c r="I6" s="221"/>
       <c r="J6" s="221" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K6" s="221"/>
       <c r="L6" s="221"/>
       <c r="M6" s="221"/>
       <c r="N6" s="221" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O6" s="221"/>
       <c r="P6" s="221"/>
       <c r="Q6" s="221"/>
       <c r="R6" s="227" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="S6" s="227"/>
       <c r="T6" s="227"/>
       <c r="U6" s="227"/>
       <c r="V6" s="227"/>
       <c r="W6" s="228" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X6" s="229"/>
       <c r="Y6" s="229" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Z6" s="229"/>
       <c r="AA6" s="230" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AB6" s="231"/>
       <c r="AC6" s="222" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AD6" s="223"/>
       <c r="AE6" s="222" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AF6" s="223"/>
       <c r="AG6" s="222" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AH6" s="252"/>
       <c r="AI6" s="130" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AJ6" s="148" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AK6" s="254" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AL6" s="254"/>
       <c r="AM6" s="254"/>
       <c r="AN6" s="254"/>
       <c r="AO6" s="254"/>
       <c r="AP6" s="254" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AQ6" s="254"/>
       <c r="AR6" s="254"/>
@@ -6256,7 +6257,7 @@
       <c r="AT6" s="254"/>
       <c r="AU6" s="254"/>
       <c r="AV6" s="254" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AW6" s="254"/>
       <c r="AX6" s="254"/>
@@ -6264,13 +6265,13 @@
       <c r="AZ6" s="254"/>
       <c r="BA6" s="254"/>
       <c r="BB6" s="255" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="BC6" s="255"/>
       <c r="BD6" s="255"/>
       <c r="BE6" s="149"/>
       <c r="BF6" s="253" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="BG6" s="253"/>
       <c r="BH6" s="253"/>
@@ -6278,7 +6279,7 @@
       <c r="BJ6" s="253"/>
       <c r="BK6" s="253"/>
       <c r="BL6" s="256" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BM6" s="226"/>
       <c r="BN6" s="226"/>
@@ -6288,7 +6289,7 @@
       <c r="BR6" s="226"/>
       <c r="BS6" s="257"/>
       <c r="BT6" s="253" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="BU6" s="253"/>
       <c r="BV6" s="253"/>
@@ -6296,42 +6297,42 @@
       <c r="BX6" s="253"/>
       <c r="BY6" s="253"/>
       <c r="BZ6" s="253" t="s">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="CA6" s="253"/>
       <c r="CB6" s="253"/>
       <c r="CC6" s="253"/>
       <c r="CD6" s="253"/>
       <c r="CE6" s="253" t="s">
-        <v>330</v>
+        <v>136</v>
       </c>
       <c r="CF6" s="253"/>
       <c r="CG6" s="253"/>
       <c r="CH6" s="253"/>
       <c r="CI6" s="253"/>
       <c r="CJ6" s="144" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="CK6" s="144" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="CL6" s="144" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="CM6" s="144" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="CN6" s="144" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="CO6" s="144" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="CP6" s="144" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="CQ6" s="144" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="CR6" s="150"/>
       <c r="CS6" s="151"/>
@@ -6339,38 +6340,38 @@
       <c r="CU6" s="259"/>
       <c r="CV6" s="168"/>
       <c r="CW6" s="249" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="CX6" s="249"/>
       <c r="CY6" s="249"/>
     </row>
-    <row r="7" spans="1:103" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:103" ht="80.099999999999994" hidden="1">
       <c r="A7" s="91" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
@@ -6381,7 +6382,7 @@
       <c r="P7" s="91"/>
       <c r="Q7" s="91"/>
       <c r="R7" s="107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S7" s="107"/>
       <c r="T7" s="107"/>
@@ -6394,15 +6395,15 @@
       <c r="AA7" s="90"/>
       <c r="AB7" s="91"/>
       <c r="AC7" s="57" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AD7" s="57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AE7" s="91"/>
       <c r="AF7" s="91"/>
       <c r="AG7" s="122" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH7" s="85"/>
       <c r="AI7" s="85"/>
@@ -6413,19 +6414,19 @@
       <c r="AN7" s="108"/>
       <c r="AO7" s="108"/>
       <c r="AP7" s="86" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AQ7" s="86" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AR7" s="86" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AS7" s="134" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AT7" s="86" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AU7" s="85"/>
       <c r="AV7" s="85"/>
@@ -6478,46 +6479,46 @@
       <c r="CQ7" s="85"/>
       <c r="CR7" s="85"/>
       <c r="CS7" s="132" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CT7" s="115" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CU7" s="147"/>
       <c r="CV7" s="169" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="CW7" s="113"/>
       <c r="CX7" s="113"/>
       <c r="CY7" s="113"/>
     </row>
-    <row r="8" spans="1:103" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:103" ht="96">
       <c r="A8" s="61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J8" s="91"/>
       <c r="K8" s="91"/>
@@ -6531,73 +6532,73 @@
       <c r="S8" s="85"/>
       <c r="T8" s="85"/>
       <c r="U8" s="77" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V8" s="109" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W8" s="107"/>
       <c r="X8" s="107"/>
       <c r="Y8" s="57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z8" s="107"/>
       <c r="AA8" s="70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB8" s="57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AC8" s="57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AD8" s="85"/>
       <c r="AE8" s="107"/>
       <c r="AF8" s="107"/>
       <c r="AG8" s="57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AH8" s="85"/>
       <c r="AI8" s="85"/>
       <c r="AJ8" s="108"/>
       <c r="AK8" s="134" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL8" s="134" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM8" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN8" s="108"/>
       <c r="AO8" s="182" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AP8" s="86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AQ8" s="86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AR8" s="86" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AS8" s="86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AT8" s="121"/>
       <c r="AU8" s="85"/>
       <c r="AV8" s="56" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AW8" s="56" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AX8" s="56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AY8" s="56" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AZ8" s="56"/>
       <c r="BA8" s="85"/>
@@ -6606,92 +6607,92 @@
       <c r="BD8" s="91"/>
       <c r="BE8" s="91"/>
       <c r="BF8" s="134" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BG8" s="134" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BH8" s="134" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BI8" s="134" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BJ8" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BK8" s="127" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BL8" s="134" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BM8" s="56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BN8" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO8" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP8" s="186" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ8" s="186" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR8" s="184" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS8" s="137" t="s">
         <v>193</v>
       </c>
-      <c r="BO8" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="BP8" s="186" t="s">
-        <v>195</v>
-      </c>
-      <c r="BQ8" s="186" t="s">
-        <v>196</v>
-      </c>
-      <c r="BR8" s="184" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS8" s="137" t="s">
-        <v>191</v>
-      </c>
       <c r="BT8" s="67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BU8" s="56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BV8" s="56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BW8" s="124" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BX8" s="85"/>
       <c r="BY8" s="127" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BZ8" s="86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CA8" s="86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CB8" s="189" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CC8" s="189" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="CD8" s="127" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="CE8" s="86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CF8" s="86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="CG8" s="189" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CH8" s="189" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="CI8" s="127" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="CJ8" s="91"/>
       <c r="CK8" s="91"/>
@@ -6702,350 +6703,350 @@
       <c r="CP8" s="91"/>
       <c r="CQ8" s="91"/>
       <c r="CR8" s="124" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="CS8" s="133" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="CT8" s="115" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CU8" s="147"/>
       <c r="CV8" s="170" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="CW8" s="113"/>
       <c r="CX8" s="113"/>
       <c r="CY8" s="113"/>
     </row>
-    <row r="9" spans="1:103" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:103" ht="154.5" customHeight="1">
       <c r="A9" s="61" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C9" s="91"/>
       <c r="D9" s="91"/>
       <c r="E9" s="91"/>
       <c r="F9" s="56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N9" s="90"/>
       <c r="O9" s="91"/>
       <c r="P9" s="91"/>
       <c r="Q9" s="91"/>
       <c r="R9" s="111" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="S9" s="89"/>
       <c r="T9" s="85"/>
       <c r="U9" s="91"/>
       <c r="V9" s="91"/>
       <c r="W9" s="57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Y9" s="111" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Z9" s="57" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AA9" s="70" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AB9" s="85"/>
       <c r="AC9" s="57" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AD9" s="91"/>
       <c r="AE9" s="112" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AF9" s="113"/>
       <c r="AG9" s="110" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AI9" s="85"/>
       <c r="AJ9" s="108"/>
       <c r="AK9" s="165" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AL9" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AM9" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN9" s="166"/>
       <c r="AO9" s="183" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AP9" s="86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AQ9" s="86" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AR9" s="57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AS9" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AT9" s="91"/>
       <c r="AU9" s="85"/>
       <c r="AV9" s="56" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AW9" s="56" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AX9" s="86" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AY9" s="86" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AZ9" s="86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BA9" s="85"/>
       <c r="BB9" s="110" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="BC9" s="110" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BD9" s="193" t="s">
+        <v>231</v>
+      </c>
+      <c r="BE9" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF9" s="129" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG9" s="134" t="s">
+        <v>234</v>
+      </c>
+      <c r="BH9" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="BE9" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="BF9" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="BG9" s="134" t="s">
-        <v>230</v>
-      </c>
-      <c r="BH9" s="134" t="s">
-        <v>231</v>
-      </c>
       <c r="BI9" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ9" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BK9" s="126"/>
       <c r="BL9" s="134" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BM9" s="134" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="BN9" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BO9" s="187" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="BP9" s="85"/>
       <c r="BQ9" s="85"/>
       <c r="BR9" s="184" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BS9" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BT9" s="178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="BU9" s="113" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BV9" s="113" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BW9" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BX9" s="85"/>
       <c r="BY9" s="126"/>
       <c r="BZ9" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA9" s="190" t="s">
+        <v>231</v>
+      </c>
+      <c r="CB9" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="CC9" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="CA9" s="190" t="s">
-        <v>235</v>
-      </c>
-      <c r="CB9" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="CC9" s="110" t="s">
-        <v>216</v>
-      </c>
       <c r="CD9" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CE9" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="CF9" s="191" t="s">
+        <v>223</v>
+      </c>
+      <c r="CG9" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH9" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="CF9" s="191" t="s">
-        <v>220</v>
-      </c>
-      <c r="CG9" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="CH9" s="110" t="s">
-        <v>216</v>
-      </c>
       <c r="CI9" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CJ9" s="178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="CK9" s="113"/>
       <c r="CL9" s="180"/>
       <c r="CM9" s="180"/>
       <c r="CN9" s="85"/>
       <c r="CO9" s="178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="CP9" s="178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="CQ9" s="178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="CR9" s="123" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="CS9" s="115" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="CT9" s="115" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="CU9" s="167" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="CV9" s="171" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="CW9" s="113"/>
       <c r="CX9" s="179" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="CY9" s="113"/>
     </row>
-    <row r="10" spans="1:103" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:103" ht="171" customHeight="1">
       <c r="A10" s="61" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
       <c r="F10" s="56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N10" s="90"/>
       <c r="O10" s="91"/>
       <c r="P10" s="91"/>
       <c r="Q10" s="91"/>
       <c r="R10" s="58" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S10" s="114" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="T10" s="145" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="U10" s="77" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="V10" s="91"/>
       <c r="W10" s="57" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X10" s="57" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y10" s="58" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Z10" s="57" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AA10" s="70" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB10" s="85"/>
       <c r="AC10" s="57" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AD10" s="91"/>
       <c r="AE10" s="112" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AF10" s="112" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AG10" s="57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AH10" s="57" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AI10" s="115" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AJ10" s="108"/>
       <c r="AK10" s="108"/>
@@ -7054,245 +7055,245 @@
       <c r="AN10" s="108"/>
       <c r="AO10" s="108"/>
       <c r="AP10" s="86" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AQ10" s="86" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AR10" s="57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AS10" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AT10" s="91"/>
       <c r="AU10" s="142" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AV10" s="86" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AW10" s="86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AX10" s="86" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AY10" s="86" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AZ10" s="121"/>
       <c r="BA10" s="142" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BB10" s="110" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="BC10" s="110" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BE10" s="86" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BF10" s="134" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BG10" s="134" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="BH10" s="57" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="BI10" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ10" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BK10" s="85"/>
       <c r="BL10" s="134" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BM10" s="134" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="BN10" s="57" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="BO10" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BP10" s="85"/>
       <c r="BQ10" s="85"/>
       <c r="BR10" s="184" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BS10" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BT10" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="BU10" s="57" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="BV10" s="113" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BW10" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BX10" s="85"/>
       <c r="BY10" s="126"/>
       <c r="BZ10" s="86" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="CA10" s="191" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="CB10" s="110" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="CC10" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD10" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE10" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="CF10" s="191" t="s">
         <v>265</v>
       </c>
-      <c r="CD10" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE10" s="86" t="s">
-        <v>258</v>
-      </c>
-      <c r="CF10" s="191" t="s">
-        <v>261</v>
-      </c>
       <c r="CG10" s="110" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="CH10" s="110" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="CI10" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CJ10" s="134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CK10" s="134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CL10" s="113"/>
       <c r="CM10" s="113"/>
       <c r="CN10" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CO10" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CP10" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CQ10" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CR10" s="124" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="CS10" s="132" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="CT10" s="115" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="CU10" s="147"/>
       <c r="CV10" s="172" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CW10" s="113"/>
       <c r="CX10" s="113"/>
       <c r="CY10" s="113"/>
     </row>
-    <row r="11" spans="1:103" ht="144" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:103" ht="137.25">
       <c r="A11" s="61" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C11" s="91"/>
       <c r="D11" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="91"/>
       <c r="I11" s="91"/>
       <c r="J11" s="56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N11" s="67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O11" s="56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P11" s="56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="R11" s="111" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S11" s="89"/>
       <c r="T11" s="146" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="U11" s="91"/>
       <c r="V11" s="91"/>
       <c r="W11" s="57" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="X11" s="89"/>
       <c r="Y11" s="111" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Z11" s="91"/>
       <c r="AA11" s="70" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AB11" s="91"/>
       <c r="AC11" s="57" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AD11" s="96"/>
       <c r="AE11" s="152" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AF11" s="152" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AG11" s="153" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH11" s="154" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AI11" s="154"/>
       <c r="AJ11" s="155" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AK11" s="156"/>
       <c r="AL11" s="156"/>
@@ -7300,256 +7301,256 @@
       <c r="AN11" s="156"/>
       <c r="AO11" s="156"/>
       <c r="AP11" s="157" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AQ11" s="158" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AR11" s="69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AS11" s="69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AT11" s="96"/>
       <c r="AU11" s="159" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AV11" s="157" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AW11" s="157" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AX11" s="157" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AY11" s="160" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AZ11" s="157" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BA11" s="139"/>
       <c r="BB11" s="161" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="BC11" s="96"/>
       <c r="BD11" s="162"/>
       <c r="BE11" s="162"/>
       <c r="BF11" s="134" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="BG11" s="134" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="BH11" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BI11" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BJ11" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BK11" s="85"/>
       <c r="BL11" s="134" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="BM11" s="131" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="BN11" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BO11" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BP11" s="85"/>
       <c r="BQ11" s="85"/>
       <c r="BR11" s="184" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BS11" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BT11" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="BU11" s="113" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BV11" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BW11" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BX11" s="85"/>
       <c r="BY11" s="126"/>
       <c r="BZ11" s="157" t="s">
+        <v>287</v>
+      </c>
+      <c r="CA11" s="161" t="s">
+        <v>288</v>
+      </c>
+      <c r="CB11" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="CC11" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="CD11" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE11" s="157" t="s">
+        <v>287</v>
+      </c>
+      <c r="CF11" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG11" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="CH11" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="CI11" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="CJ11" s="134" t="s">
         <v>283</v>
       </c>
-      <c r="CA11" s="161" t="s">
-        <v>284</v>
-      </c>
-      <c r="CB11" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="CC11" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="CD11" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE11" s="157" t="s">
+      <c r="CK11" s="134" t="s">
         <v>283</v>
       </c>
-      <c r="CF11" s="192" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG11" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="CH11" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="CI11" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="CJ11" s="134" t="s">
-        <v>279</v>
-      </c>
-      <c r="CK11" s="134" t="s">
-        <v>279</v>
-      </c>
       <c r="CL11" s="134" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="CM11" s="113"/>
       <c r="CN11" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CO11" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CP11" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CQ11" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CR11" s="163" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="CS11" s="164" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CT11" s="174" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="CU11" s="81"/>
       <c r="CV11" s="173" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="CW11" s="177" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="CX11" s="179" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="CY11" s="113"/>
     </row>
-    <row r="12" spans="1:103" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:103" ht="91.5">
       <c r="A12" s="61" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="91"/>
       <c r="D12" s="60" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="91"/>
       <c r="I12" s="91"/>
       <c r="J12" s="56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L12" s="56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M12" s="56" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N12" s="67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O12" s="56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P12" s="56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q12" s="56" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="S12" s="114" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="T12" s="145" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="U12" s="77" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V12" s="109" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W12" s="57" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="X12" s="85"/>
       <c r="Y12" s="58" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Z12" s="57" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AA12" s="70" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AB12" s="91"/>
       <c r="AC12" s="57" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AD12" s="91"/>
       <c r="AE12" s="113"/>
       <c r="AF12" s="112" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG12" s="57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AH12" s="107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AI12" s="115" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AJ12" s="116" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AK12" s="120"/>
       <c r="AL12" s="120"/>
@@ -7557,116 +7558,116 @@
       <c r="AN12" s="120"/>
       <c r="AO12" s="120"/>
       <c r="AP12" s="136" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AQ12" s="57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AR12" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AT12" s="91"/>
       <c r="AU12" s="143" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AV12" s="86" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AW12" s="86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AX12" s="86" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AY12" s="136" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AZ12" s="91"/>
       <c r="BA12" s="142" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="BB12" s="110" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="BC12" s="91"/>
       <c r="BD12" s="91"/>
       <c r="BE12" s="134" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="CJ12" s="56" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="CK12" s="56" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="CL12" s="56" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="CM12" s="56" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="CN12" s="85"/>
       <c r="CO12" s="85"/>
       <c r="CP12" s="134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CQ12" s="134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CR12" s="124" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="CS12" s="133" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="CT12" s="175" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="CU12" s="81"/>
       <c r="CV12" s="176" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="CW12" s="85"/>
       <c r="CX12" s="85"/>
       <c r="CY12" s="85"/>
     </row>
-    <row r="13" spans="1:103" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:103" ht="63.95">
       <c r="A13" s="97" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B13" s="91"/>
       <c r="C13" s="91"/>
       <c r="D13" s="60" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I13" s="91"/>
       <c r="J13" s="56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
       <c r="M13" s="91"/>
       <c r="N13" s="55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O13" s="93" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="93" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="94" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R13" s="95"/>
       <c r="S13" s="96"/>
@@ -7683,17 +7684,17 @@
       <c r="AD13" s="76"/>
       <c r="AE13" s="102"/>
       <c r="AF13" s="103" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AG13" s="104"/>
       <c r="AH13" s="76" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AI13" s="105" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AJ13" s="106" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AK13" s="140"/>
       <c r="AL13" s="140"/>
@@ -7707,20 +7708,20 @@
       <c r="AT13" s="91"/>
       <c r="AU13" s="85"/>
       <c r="AV13" s="86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AW13" s="86" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AX13" s="57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AY13" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AZ13" s="91"/>
       <c r="BA13" s="142" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BB13" s="91"/>
       <c r="BC13" s="91"/>
@@ -7728,30 +7729,30 @@
       <c r="BE13" s="91"/>
       <c r="CJ13" s="85"/>
       <c r="CK13" s="178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="CL13" s="178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="CM13" s="178" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="CN13" s="85"/>
       <c r="CO13" s="85"/>
       <c r="CP13" s="85"/>
       <c r="CQ13" s="181" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="CR13" s="85"/>
       <c r="CT13" s="118"/>
       <c r="CU13" s="81"/>
       <c r="CV13" s="176" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:103" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:103" ht="76.5">
       <c r="A14" s="61" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B14" s="91"/>
       <c r="C14" s="91"/>
@@ -7760,28 +7761,28 @@
       <c r="F14" s="91"/>
       <c r="G14" s="91"/>
       <c r="H14" s="60" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K14" s="91"/>
       <c r="L14" s="91"/>
       <c r="M14" s="91"/>
       <c r="N14" s="67" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O14" s="56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P14" s="56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="56" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="R14" s="54"/>
       <c r="S14" s="91"/>
@@ -7800,10 +7801,10 @@
       <c r="AG14" s="92"/>
       <c r="AH14" s="62"/>
       <c r="AI14" s="65" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="AJ14" s="79" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AK14" s="141"/>
       <c r="AL14" s="141"/>
@@ -7817,36 +7818,36 @@
       <c r="AT14" s="91"/>
       <c r="AU14" s="85"/>
       <c r="AV14" s="86" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AW14" s="86" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AX14" s="57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AY14" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AZ14" s="91"/>
       <c r="BA14" s="143" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BB14" s="91"/>
       <c r="BC14" s="91"/>
       <c r="BD14" s="91"/>
       <c r="BE14" s="91"/>
       <c r="CJ14" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CK14" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CL14" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CM14" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CN14" s="91"/>
       <c r="CO14" s="91"/>
@@ -7857,9 +7858,9 @@
       <c r="CU14" s="81"/>
       <c r="CV14" s="83"/>
     </row>
-    <row r="15" spans="1:103" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" ht="81" thickBot="1">
       <c r="A15" s="61" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B15" s="91"/>
       <c r="C15" s="91"/>
@@ -7868,21 +7869,21 @@
       <c r="F15" s="91"/>
       <c r="G15" s="91"/>
       <c r="H15" s="60" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I15" s="107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K15" s="91"/>
       <c r="L15" s="60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M15" s="91"/>
       <c r="N15" s="67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O15" s="74"/>
       <c r="P15" s="74"/>
@@ -7917,16 +7918,16 @@
       <c r="AT15" s="91"/>
       <c r="AU15" s="85"/>
       <c r="AV15" s="86" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AW15" s="57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AX15" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AY15" s="60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AZ15" s="91"/>
       <c r="BA15" s="85"/>
@@ -7935,16 +7936,16 @@
       <c r="BD15" s="91"/>
       <c r="BE15" s="91"/>
       <c r="CJ15" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CK15" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CL15" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CM15" s="178" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="CN15" s="180"/>
       <c r="CO15" s="180"/>
@@ -7955,20 +7956,20 @@
       <c r="CU15" s="82"/>
       <c r="CV15" s="84"/>
     </row>
-    <row r="16" spans="1:103" ht="85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" ht="84.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="61" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
       <c r="L16" s="60" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M16" s="75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N16" s="71" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="O16" s="74"/>
       <c r="P16" s="74"/>
@@ -7976,65 +7977,65 @@
       <c r="CJ16" s="85"/>
       <c r="CK16" s="85"/>
       <c r="CL16" s="134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CM16" s="134" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CN16" s="85"/>
       <c r="CO16" s="85"/>
       <c r="CP16" s="91"/>
       <c r="CQ16" s="91"/>
     </row>
-    <row r="17" spans="1:95" ht="85" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" ht="84.95" customHeight="1" thickTop="1">
       <c r="A17" s="61" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
       <c r="L17" s="69" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M17" s="76" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O17" s="74"/>
       <c r="P17" s="59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="74"/>
       <c r="CJ17" s="85"/>
       <c r="CK17" s="85"/>
       <c r="CL17" s="85"/>
       <c r="CM17" s="181" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="CN17" s="85"/>
       <c r="CO17" s="85"/>
       <c r="CP17" s="85"/>
       <c r="CQ17" s="90"/>
     </row>
-    <row r="18" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" ht="15" customHeight="1">
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
       <c r="P18" s="60" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" ht="15" customHeight="1">
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
       <c r="P19" s="69" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="76" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -8084,15 +8085,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FE281A6E490164995812917410E5206" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8fcdc8cda6cd6c421b0036055ddb6ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60eed870-47b7-4398-bacb-923956a4e3c6" xmlns:ns3="6e788143-6890-4a14-a447-95e8858fb65c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfe6e9c76325de70081e1f21d7debdf" ns2:_="" ns3:_="">
     <xsd:import namespace="60eed870-47b7-4398-bacb-923956a4e3c6"/>
@@ -8269,52 +8261,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="60eed870-47b7-4398-bacb-923956a4e3c6"/>
-    <ds:schemaRef ds:uri="6e788143-6890-4a14-a447-95e8858fb65c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6e788143-6890-4a14-a447-95e8858fb65c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="60eed870-47b7-4398-bacb-923956a4e3c6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}"/>
 </file>
--- a/MAE_Planner_AY24.xlsx
+++ b/MAE_Planner_AY24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nps01.sharepoint.com/sites/MAECurricula/Shared Documents/General/CourseAndTeachingPlanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="554" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6148F13F-A56A-4E81-B3A8-7AC93121BC4C}"/>
+  <xr:revisionPtr revIDLastSave="618" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F76EB1-72FD-49E8-83A8-A4455BD3737E}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="500" windowWidth="49260" windowHeight="19400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="500" windowWidth="49260" windowHeight="19400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="533 10 quarter (Summer)" sheetId="6" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'533 10 quarter (Summer)'!$A$1:$AI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">AY23_SpringSummerStartsPLAN!$A$6:$CY$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">AY23_SpringSummerStartsPLAN!$A$5:$CU$12</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +46,7 @@
     <author>tc={C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}</author>
   </authors>
   <commentList>
-    <comment ref="AJ6" authorId="0" shapeId="0" xr:uid="{C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}">
+    <comment ref="AL6" authorId="0" shapeId="0" xr:uid="{C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="334">
   <si>
     <t>533 COMBAT SYSTEMS SCIENCE AND ENGINEERING</t>
   </si>
@@ -1562,6 +1562,9 @@
 (Also see appropriate 591 electives)</t>
   </si>
   <si>
+    <t>590 Controls Track</t>
+  </si>
+  <si>
     <t>Materials Track</t>
   </si>
   <si>
@@ -1597,6 +1600,12 @@
   </si>
   <si>
     <t>591 Electives</t>
+  </si>
+  <si>
+    <t>609 1-year Core</t>
+  </si>
+  <si>
+    <t>609 Electives</t>
   </si>
   <si>
     <t>591 Shoemaker 1-year
@@ -1776,12 +1785,7 @@
   </si>
   <si>
     <t xml:space="preserve">ME3450
-Comp. Method
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME3450
-Computational  Method
+Computational  Methods
 </t>
   </si>
   <si>
@@ -1872,9 +1876,11 @@
     <t>UW Seminar</t>
   </si>
   <si>
-    <t>MA3132 
+    <t xml:space="preserve">MA3132 
 Partial Diff Eqs
-Pre: MA2121</t>
+OR
+MA3232
+</t>
   </si>
   <si>
     <t xml:space="preserve">ME3205
@@ -1884,6 +1890,23 @@
   <si>
     <t>ME4751
 Survivability</t>
+  </si>
+  <si>
+    <t>Elective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA4311
+Calculus of Variations
+</t>
+  </si>
+  <si>
+    <t>PH3052
+Physics of Space and Airborne Sensor Systems</t>
+  </si>
+  <si>
+    <t>SS1810
+Thesis Proposal Preparation 
+(1 Credit)</t>
   </si>
   <si>
     <t xml:space="preserve">AE3820
@@ -1892,20 +1915,6 @@
 </t>
   </si>
   <si>
-    <t>PH3052
-Physics of Space and Airborne Sensor Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA4311
-Calculus of Variations
-</t>
-  </si>
-  <si>
-    <t>SS1810
-Thesis Proposal Preparation 
-(1 Credit)</t>
-  </si>
-  <si>
     <t>ME3420
 Computational Foundations of Robotics
 [Kragelund]</t>
@@ -1918,6 +1927,11 @@
   <si>
     <t>24/1
 Fall</t>
+  </si>
+  <si>
+    <t>MA3132 
+Partial Diff Eqs
+Pre: MA2121</t>
   </si>
   <si>
     <t xml:space="preserve">ME2801
@@ -1987,9 +2001,6 @@
     <t>AE3851
 Spacecraft Propulsion
 [Brophy]</t>
-  </si>
-  <si>
-    <t>Elective</t>
   </si>
   <si>
     <t>SS1100
@@ -2242,7 +2253,7 @@
   <si>
     <t>ME4828
  GNC for Autonomous Robotics
-[Dobrohkodov]</t>
+[Dobrokhodov]</t>
   </si>
   <si>
     <t>ME4220
@@ -2280,7 +2291,8 @@
   </si>
   <si>
     <t>ME3720 
-Unmanned Systems</t>
+Unmanned Systems
+[Horner]</t>
   </si>
   <si>
     <t>ME3611
@@ -2335,9 +2347,6 @@
     <t>AE3830
 Aero Guidance and Control
 [King]</t>
-  </si>
-  <si>
-    <t>?????</t>
   </si>
   <si>
     <t>SE2440
@@ -2946,7 +2955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -3210,9 +3219,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -3226,28 +3233,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -3379,17 +3364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -3410,51 +3384,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3581,19 +3510,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -3634,11 +3550,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3801,10 +3766,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3822,22 +3787,22 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3848,107 +3813,105 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3973,9 +3936,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3987,9 +3947,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4022,12 +3979,6 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4082,34 +4033,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="44" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="38" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="47" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4133,10 +4078,10 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4161,6 +4106,36 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4215,9 +4190,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4230,134 +4202,140 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4681,7 +4659,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AJ6" dT="2022-11-17T16:10:43.38" personId="{0AB1A481-67C1-48FA-AD82-64C389995DF6}" id="{C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}">
+  <threadedComment ref="AL6" dT="2022-11-17T16:10:43.38" personId="{0AB1A481-67C1-48FA-AD82-64C389995DF6}" id="{C74E7FDC-B58A-3041-ADD7-76CB3459BEA5}">
     <text>Courses listed only for reference and do not represent alignment of quarter in assigned course matrix.</text>
   </threadedComment>
 </ThreadedComments>
@@ -4727,23 +4705,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.95">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="M1" s="195" t="s">
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="M1" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="197"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="199"/>
       <c r="R1" s="34"/>
       <c r="U1" s="22" t="s">
         <v>2</v>
@@ -4756,25 +4734,25 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="M2" s="199" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="M2" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="203"/>
       <c r="R2" s="35"/>
-      <c r="U2" s="202" t="s">
+      <c r="U2" s="204" t="s">
         <v>7</v>
       </c>
       <c r="AF2" s="3" t="s">
@@ -4793,15 +4771,15 @@
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
-      <c r="M3" s="205" t="s">
+      <c r="M3" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="209"/>
       <c r="R3" s="36"/>
-      <c r="U3" s="203"/>
+      <c r="U3" s="205"/>
     </row>
     <row r="4" spans="1:35" ht="15.95">
       <c r="B4" s="68"/>
@@ -4812,15 +4790,15 @@
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
-      <c r="M4" s="208" t="s">
+      <c r="M4" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="210"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="212"/>
       <c r="R4" s="37"/>
-      <c r="U4" s="203"/>
+      <c r="U4" s="205"/>
     </row>
     <row r="5" spans="1:35" ht="15.75" customHeight="1">
       <c r="B5" s="68"/>
@@ -4829,15 +4807,15 @@
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
-      <c r="M5" s="211" t="s">
+      <c r="M5" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="212"/>
-      <c r="O5" s="212"/>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="213"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="214"/>
       <c r="R5" s="53"/>
-      <c r="U5" s="204"/>
+      <c r="U5" s="206"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1">
       <c r="B6" s="68"/>
@@ -4847,11 +4825,11 @@
       <c r="F6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
-      <c r="M6" s="214"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="215"/>
-      <c r="P6" s="215"/>
-      <c r="Q6" s="216"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="217"/>
       <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1">
@@ -4911,45 +4889,45 @@
         <v>18</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="217" t="s">
+      <c r="I9" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="219"/>
-      <c r="K9" s="220"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="217" t="s">
+      <c r="M9" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="219"/>
-      <c r="O9" s="220"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="195"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="217" t="s">
+      <c r="Q9" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="219"/>
-      <c r="S9" s="220"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="195"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="217" t="s">
+      <c r="U9" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="219"/>
-      <c r="W9" s="219"/>
-      <c r="X9" s="220"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="195"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="217" t="s">
+      <c r="Z9" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="219"/>
-      <c r="AB9" s="219"/>
-      <c r="AC9" s="218"/>
-      <c r="AE9" s="217" t="s">
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="192"/>
+      <c r="AE9" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="218"/>
-      <c r="AH9" s="217" t="s">
+      <c r="AF9" s="192"/>
+      <c r="AH9" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="218"/>
+      <c r="AI9" s="192"/>
     </row>
     <row r="10" spans="1:35" ht="78.75" customHeight="1">
       <c r="B10" s="31" t="s">
@@ -5654,9 +5632,9 @@
     <row r="24" spans="1:35">
       <c r="B24" s="1"/>
       <c r="C24" s="23"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="212"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="193"/>
       <c r="H24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -5706,6 +5684,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q6"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="I9:K9"/>
@@ -5714,14 +5700,6 @@
     <mergeCell ref="U9:X9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q6"/>
   </mergeCells>
   <conditionalFormatting sqref="K10:K19 O10:O19 S10:S19 X10:X19 AC10:AC19">
     <cfRule type="colorScale" priority="1">
@@ -5848,2243 +5826,2305 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CY19"/>
+  <dimension ref="A1:DB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10520" activePane="topRight"/>
-      <selection pane="topRight" activeCell="AP12" sqref="AP12"/>
-      <selection activeCell="CO9" sqref="CO9"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="12560" topLeftCell="BM1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="CX13" sqref="CX13"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="112" width="15.85546875" customWidth="1"/>
+    <col min="2" max="115" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="15.95" thickBot="1">
-      <c r="A1" s="188" t="s">
+    <row r="1" spans="1:106">
+      <c r="A1" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="180"/>
+      <c r="AJ1" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="78">
+      <c r="AL1" s="78">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
-      </c>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
+        <v>45054</v>
+      </c>
       <c r="AM1" s="78"/>
       <c r="AN1" s="78"/>
       <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
     </row>
-    <row r="2" spans="1:103" ht="15" hidden="1" customHeight="1">
-      <c r="B2" s="232" t="s">
+    <row r="2" spans="1:106" ht="15" hidden="1" customHeight="1">
+      <c r="B2" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="233"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="235" t="s">
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="240" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="235"/>
-      <c r="AC2" s="235"/>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="235"/>
-      <c r="AG2" s="235"/>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="235"/>
-      <c r="AJ2" s="236"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
+      <c r="X2" s="240"/>
+      <c r="Y2" s="240"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="240"/>
+      <c r="AB2" s="240"/>
+      <c r="AC2" s="240"/>
+      <c r="AD2" s="240"/>
+      <c r="AE2" s="240"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="240"/>
+      <c r="AH2" s="240"/>
+      <c r="AI2" s="240"/>
+      <c r="AJ2" s="240"/>
+      <c r="AK2" s="240"/>
+      <c r="AL2" s="241"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
     </row>
-    <row r="3" spans="1:103" ht="108.95" hidden="1" customHeight="1">
-      <c r="B3" s="237" t="s">
+    <row r="3" spans="1:106" ht="108.95" hidden="1" customHeight="1">
+      <c r="B3" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="238"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="238"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="239"/>
-      <c r="W3" s="240" t="s">
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="243"/>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="245" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="241"/>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="241"/>
-      <c r="AF3" s="241"/>
-      <c r="AG3" s="241"/>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="241"/>
-      <c r="AJ3" s="242"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="246"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="246"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="246"/>
+      <c r="AI3" s="246"/>
+      <c r="AJ3" s="246"/>
+      <c r="AK3" s="246"/>
+      <c r="AL3" s="247"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
     </row>
-    <row r="4" spans="1:103" ht="65.099999999999994" hidden="1" customHeight="1">
-      <c r="B4" s="246" t="s">
+    <row r="4" spans="1:106" ht="65.099999999999994" hidden="1" customHeight="1">
+      <c r="B4" s="251" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="247"/>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="248"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="244"/>
-      <c r="Y4" s="244"/>
-      <c r="Z4" s="244"/>
-      <c r="AA4" s="244"/>
-      <c r="AB4" s="244"/>
-      <c r="AC4" s="244"/>
-      <c r="AD4" s="244"/>
-      <c r="AE4" s="244"/>
-      <c r="AF4" s="244"/>
-      <c r="AG4" s="244"/>
-      <c r="AH4" s="244"/>
-      <c r="AI4" s="244"/>
-      <c r="AJ4" s="245"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="252"/>
+      <c r="N4" s="252"/>
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="252"/>
+      <c r="S4" s="252"/>
+      <c r="T4" s="252"/>
+      <c r="U4" s="252"/>
+      <c r="V4" s="253"/>
+      <c r="W4" s="248"/>
+      <c r="X4" s="249"/>
+      <c r="Y4" s="249"/>
+      <c r="Z4" s="249"/>
+      <c r="AA4" s="249"/>
+      <c r="AB4" s="249"/>
+      <c r="AC4" s="249"/>
+      <c r="AD4" s="249"/>
+      <c r="AE4" s="249"/>
+      <c r="AF4" s="249"/>
+      <c r="AG4" s="249"/>
+      <c r="AH4" s="249"/>
+      <c r="AI4" s="249"/>
+      <c r="AJ4" s="249"/>
+      <c r="AK4" s="249"/>
+      <c r="AL4" s="250"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
     </row>
-    <row r="5" spans="1:103" ht="47.1" customHeight="1" thickBot="1">
+    <row r="5" spans="1:106" ht="47.1" customHeight="1">
       <c r="B5" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="225"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="225"/>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="225"/>
-      <c r="Z5" s="225"/>
-      <c r="AA5" s="226"/>
-      <c r="AB5" s="226"/>
-      <c r="AC5" s="226"/>
-      <c r="AD5" s="226"/>
-      <c r="AE5" s="226"/>
-      <c r="AF5" s="226"/>
-      <c r="AG5" s="226"/>
-      <c r="AH5" s="226"/>
-      <c r="AI5" s="226"/>
-      <c r="AJ5" s="226"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="135"/>
-      <c r="AM5" s="135"/>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="249" t="s">
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="224"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="224"/>
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="224"/>
+      <c r="U5" s="224"/>
+      <c r="V5" s="224"/>
+      <c r="W5" s="224"/>
+      <c r="X5" s="224"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="224"/>
+      <c r="AF5" s="224"/>
+      <c r="AG5" s="224"/>
+      <c r="AH5" s="224"/>
+      <c r="AI5" s="224"/>
+      <c r="AJ5" s="224"/>
+      <c r="AK5" s="224"/>
+      <c r="AL5" s="224"/>
+      <c r="AM5" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="AQ5" s="249"/>
-      <c r="AR5" s="249"/>
-      <c r="AS5" s="249"/>
-      <c r="AT5" s="249"/>
-      <c r="AU5" s="249"/>
-      <c r="AV5" s="249"/>
-      <c r="AW5" s="249"/>
-      <c r="AX5" s="249"/>
-      <c r="AY5" s="249"/>
-      <c r="AZ5" s="249"/>
-      <c r="BA5" s="249"/>
-      <c r="BB5" s="249"/>
-      <c r="BC5" s="249"/>
-      <c r="BD5" s="249"/>
-      <c r="BE5" s="149" t="s">
+      <c r="AN5" s="255"/>
+      <c r="AO5" s="255"/>
+      <c r="AP5" s="255"/>
+      <c r="AQ5" s="255"/>
+      <c r="AR5" s="255"/>
+      <c r="AS5" s="255"/>
+      <c r="AT5" s="255"/>
+      <c r="AU5" s="255"/>
+      <c r="AV5" s="255"/>
+      <c r="AW5" s="255"/>
+      <c r="AX5" s="255"/>
+      <c r="AY5" s="255"/>
+      <c r="AZ5" s="255"/>
+      <c r="BA5" s="255"/>
+      <c r="BB5" s="255"/>
+      <c r="BC5" s="255"/>
+      <c r="BD5" s="255"/>
+      <c r="BE5" s="255"/>
+      <c r="BF5" s="256"/>
+      <c r="BG5" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="BF5" s="253" t="s">
+      <c r="BH5" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="BG5" s="253"/>
-      <c r="BH5" s="253"/>
-      <c r="BI5" s="253"/>
-      <c r="BJ5" s="253"/>
-      <c r="BK5" s="253"/>
-      <c r="BL5" s="256" t="s">
+      <c r="BI5" s="224"/>
+      <c r="BJ5" s="224"/>
+      <c r="BK5" s="224"/>
+      <c r="BL5" s="224"/>
+      <c r="BM5" s="224"/>
+      <c r="BN5" s="218" t="s">
         <v>109</v>
       </c>
-      <c r="BM5" s="226"/>
-      <c r="BN5" s="226"/>
-      <c r="BO5" s="226"/>
-      <c r="BP5" s="226"/>
-      <c r="BQ5" s="226"/>
-      <c r="BR5" s="226"/>
-      <c r="BS5" s="257"/>
-      <c r="BT5" s="253" t="s">
+      <c r="BO5" s="219"/>
+      <c r="BP5" s="219"/>
+      <c r="BQ5" s="219"/>
+      <c r="BR5" s="219"/>
+      <c r="BS5" s="219"/>
+      <c r="BT5" s="219"/>
+      <c r="BU5" s="220"/>
+      <c r="BV5" s="224" t="s">
         <v>110</v>
       </c>
-      <c r="BU5" s="253"/>
-      <c r="BV5" s="253"/>
-      <c r="BW5" s="253"/>
-      <c r="BX5" s="253"/>
-      <c r="BY5" s="253"/>
-      <c r="BZ5" s="253" t="s">
+      <c r="BW5" s="224"/>
+      <c r="BX5" s="224"/>
+      <c r="BY5" s="224"/>
+      <c r="BZ5" s="224"/>
+      <c r="CA5" s="224"/>
+      <c r="CB5" s="224"/>
+      <c r="CC5" s="224"/>
+      <c r="CD5" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="CA5" s="253"/>
-      <c r="CB5" s="253"/>
-      <c r="CC5" s="253"/>
-      <c r="CD5" s="253"/>
-      <c r="CE5" s="253" t="s">
+      <c r="CE5" s="224"/>
+      <c r="CF5" s="224"/>
+      <c r="CG5" s="224"/>
+      <c r="CH5" s="224"/>
+      <c r="CI5" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="CF5" s="253"/>
-      <c r="CG5" s="253"/>
-      <c r="CH5" s="253"/>
-      <c r="CI5" s="253"/>
-      <c r="CJ5" s="250" t="s">
+      <c r="CJ5" s="224"/>
+      <c r="CK5" s="224"/>
+      <c r="CL5" s="224"/>
+      <c r="CM5" s="224"/>
+      <c r="CN5" s="226" t="s">
         <v>112</v>
       </c>
-      <c r="CK5" s="251"/>
-      <c r="CL5" s="251"/>
-      <c r="CM5" s="251"/>
-      <c r="CN5" s="250" t="s">
+      <c r="CO5" s="227"/>
+      <c r="CP5" s="227"/>
+      <c r="CQ5" s="227"/>
+      <c r="CR5" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="CO5" s="251"/>
-      <c r="CP5" s="251"/>
-      <c r="CQ5" s="251"/>
-      <c r="CR5" s="150" t="s">
+      <c r="CS5" s="227"/>
+      <c r="CT5" s="227"/>
+      <c r="CU5" s="227"/>
+      <c r="CV5" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="CS5" s="151" t="s">
+      <c r="CW5" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="CT5" s="258" t="s">
+      <c r="CX5" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="CU5" s="259"/>
-      <c r="CV5" s="168" t="s">
+      <c r="CY5" s="162" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="77.25" customHeight="1">
-      <c r="A6" s="117" t="s">
+    <row r="6" spans="1:106" ht="77.25" customHeight="1">
+      <c r="A6" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221" t="s">
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221" t="s">
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221" t="s">
+      <c r="K6" s="228"/>
+      <c r="L6" s="228"/>
+      <c r="M6" s="228"/>
+      <c r="N6" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="227" t="s">
+      <c r="O6" s="228"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="231" t="s">
         <v>122</v>
       </c>
-      <c r="S6" s="227"/>
-      <c r="T6" s="227"/>
-      <c r="U6" s="227"/>
-      <c r="V6" s="227"/>
-      <c r="W6" s="228" t="s">
+      <c r="S6" s="231"/>
+      <c r="T6" s="231"/>
+      <c r="U6" s="231"/>
+      <c r="V6" s="231"/>
+      <c r="W6" s="236" t="s">
         <v>123</v>
       </c>
-      <c r="X6" s="229"/>
-      <c r="Y6" s="229" t="s">
+      <c r="X6" s="235"/>
+      <c r="Y6" s="232" t="s">
         <v>124</v>
       </c>
-      <c r="Z6" s="229"/>
-      <c r="AA6" s="230" t="s">
+      <c r="Z6" s="233"/>
+      <c r="AA6" s="235" t="s">
         <v>125</v>
       </c>
-      <c r="AB6" s="231"/>
-      <c r="AC6" s="222" t="s">
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="257" t="s">
         <v>126</v>
       </c>
-      <c r="AD6" s="223"/>
-      <c r="AE6" s="222" t="s">
+      <c r="AD6" s="258"/>
+      <c r="AE6" s="229" t="s">
         <v>127</v>
       </c>
-      <c r="AF6" s="223"/>
-      <c r="AG6" s="222" t="s">
+      <c r="AF6" s="230"/>
+      <c r="AG6" s="229" t="s">
         <v>128</v>
       </c>
-      <c r="AH6" s="252"/>
-      <c r="AI6" s="130" t="s">
+      <c r="AH6" s="230"/>
+      <c r="AI6" s="229" t="s">
         <v>129</v>
       </c>
-      <c r="AJ6" s="148" t="s">
+      <c r="AJ6" s="234"/>
+      <c r="AK6" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="AK6" s="254" t="s">
+      <c r="AL6" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="AL6" s="254"/>
-      <c r="AM6" s="254"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254" t="s">
+      <c r="AM6" s="259" t="s">
         <v>132</v>
       </c>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254" t="s">
+      <c r="AN6" s="259"/>
+      <c r="AO6" s="259"/>
+      <c r="AP6" s="259"/>
+      <c r="AQ6" s="259"/>
+      <c r="AR6" s="259" t="s">
         <v>133</v>
       </c>
-      <c r="AW6" s="254"/>
-      <c r="AX6" s="254"/>
-      <c r="AY6" s="254"/>
-      <c r="AZ6" s="254"/>
-      <c r="BA6" s="254"/>
-      <c r="BB6" s="255" t="s">
+      <c r="AS6" s="259"/>
+      <c r="AT6" s="259"/>
+      <c r="AU6" s="259"/>
+      <c r="AV6" s="259"/>
+      <c r="AW6" s="259"/>
+      <c r="AX6" s="259" t="s">
         <v>134</v>
       </c>
-      <c r="BC6" s="255"/>
-      <c r="BD6" s="255"/>
-      <c r="BE6" s="149"/>
-      <c r="BF6" s="253" t="s">
+      <c r="AY6" s="259"/>
+      <c r="AZ6" s="259"/>
+      <c r="BA6" s="259"/>
+      <c r="BB6" s="259"/>
+      <c r="BC6" s="259"/>
+      <c r="BD6" s="260" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE6" s="260"/>
+      <c r="BF6" s="260"/>
+      <c r="BG6" s="143"/>
+      <c r="BH6" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="BG6" s="253"/>
-      <c r="BH6" s="253"/>
-      <c r="BI6" s="253"/>
-      <c r="BJ6" s="253"/>
-      <c r="BK6" s="253"/>
-      <c r="BL6" s="256" t="s">
+      <c r="BI6" s="224"/>
+      <c r="BJ6" s="224"/>
+      <c r="BK6" s="224"/>
+      <c r="BL6" s="224"/>
+      <c r="BM6" s="224"/>
+      <c r="BN6" s="218" t="s">
         <v>109</v>
       </c>
-      <c r="BM6" s="226"/>
-      <c r="BN6" s="226"/>
-      <c r="BO6" s="226"/>
-      <c r="BP6" s="226"/>
-      <c r="BQ6" s="226"/>
-      <c r="BR6" s="226"/>
-      <c r="BS6" s="257"/>
-      <c r="BT6" s="253" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU6" s="253"/>
-      <c r="BV6" s="253"/>
-      <c r="BW6" s="253"/>
-      <c r="BX6" s="253"/>
-      <c r="BY6" s="253"/>
-      <c r="BZ6" s="253" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA6" s="253"/>
-      <c r="CB6" s="253"/>
-      <c r="CC6" s="253"/>
-      <c r="CD6" s="253"/>
-      <c r="CE6" s="253" t="s">
+      <c r="BO6" s="219"/>
+      <c r="BP6" s="219"/>
+      <c r="BQ6" s="219"/>
+      <c r="BR6" s="219"/>
+      <c r="BS6" s="219"/>
+      <c r="BT6" s="219"/>
+      <c r="BU6" s="220"/>
+      <c r="BV6" s="218" t="s">
         <v>136</v>
       </c>
-      <c r="CF6" s="253"/>
-      <c r="CG6" s="253"/>
-      <c r="CH6" s="253"/>
-      <c r="CI6" s="253"/>
-      <c r="CJ6" s="144" t="s">
+      <c r="BW6" s="219"/>
+      <c r="BX6" s="219"/>
+      <c r="BY6" s="219"/>
+      <c r="BZ6" s="220"/>
+      <c r="CA6" s="221" t="s">
         <v>137</v>
       </c>
-      <c r="CK6" s="144" t="s">
+      <c r="CB6" s="222"/>
+      <c r="CC6" s="223"/>
+      <c r="CD6" s="224" t="s">
         <v>138</v>
       </c>
-      <c r="CL6" s="144" t="s">
+      <c r="CE6" s="224"/>
+      <c r="CF6" s="224"/>
+      <c r="CG6" s="224"/>
+      <c r="CH6" s="224"/>
+      <c r="CI6" s="224" t="s">
         <v>139</v>
       </c>
-      <c r="CM6" s="144" t="s">
+      <c r="CJ6" s="224"/>
+      <c r="CK6" s="224"/>
+      <c r="CL6" s="224"/>
+      <c r="CM6" s="224"/>
+      <c r="CN6" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="CN6" s="144" t="s">
-        <v>137</v>
-      </c>
-      <c r="CO6" s="144" t="s">
-        <v>138</v>
-      </c>
-      <c r="CP6" s="144" t="s">
-        <v>139</v>
-      </c>
-      <c r="CQ6" s="144" t="s">
+      <c r="CO6" s="140" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP6" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="CQ6" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="CR6" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="CR6" s="150"/>
-      <c r="CS6" s="151"/>
-      <c r="CT6" s="258"/>
-      <c r="CU6" s="259"/>
-      <c r="CV6" s="168"/>
-      <c r="CW6" s="249" t="s">
+      <c r="CS6" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="CX6" s="249"/>
-      <c r="CY6" s="249"/>
+      <c r="CT6" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU6" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="CV6" s="144"/>
+      <c r="CW6" s="145"/>
+      <c r="CX6" s="190"/>
+      <c r="CY6" s="162"/>
+      <c r="CZ6" s="225" t="s">
+        <v>144</v>
+      </c>
+      <c r="DA6" s="225"/>
+      <c r="DB6" s="225"/>
     </row>
-    <row r="7" spans="1:103" ht="80.099999999999994" hidden="1">
-      <c r="A7" s="91" t="s">
-        <v>142</v>
+    <row r="7" spans="1:106" ht="91.5" hidden="1">
+      <c r="A7" s="89" t="s">
+        <v>145</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD7" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="122" t="s">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="108"/>
-      <c r="AK7" s="108"/>
-      <c r="AL7" s="108"/>
-      <c r="AM7" s="108"/>
-      <c r="AN7" s="108"/>
-      <c r="AO7" s="108"/>
-      <c r="AP7" s="86" t="s">
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="AQ7" s="86" t="s">
+      <c r="AF7" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AR7" s="86" t="s">
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="AS7" s="134" t="s">
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="AT7" s="86" t="s">
+      <c r="AS7" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="85"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="85"/>
-      <c r="BG7" s="85"/>
-      <c r="BH7" s="85"/>
-      <c r="BI7" s="85"/>
-      <c r="BJ7" s="85"/>
-      <c r="BK7" s="126"/>
-      <c r="BL7" s="125"/>
-      <c r="BM7" s="185"/>
-      <c r="BN7" s="185"/>
-      <c r="BO7" s="185"/>
-      <c r="BP7" s="185"/>
-      <c r="BQ7" s="185"/>
-      <c r="BR7" s="125"/>
-      <c r="BS7" s="125"/>
-      <c r="BT7" s="128"/>
-      <c r="BU7" s="85"/>
-      <c r="BV7" s="85"/>
-      <c r="BW7" s="85"/>
-      <c r="BX7" s="85"/>
-      <c r="BY7" s="126"/>
-      <c r="BZ7" s="85"/>
-      <c r="CA7" s="85"/>
-      <c r="CB7" s="85"/>
-      <c r="CC7" s="85"/>
-      <c r="CD7" s="85"/>
-      <c r="CE7" s="85"/>
-      <c r="CF7" s="85"/>
-      <c r="CG7" s="85"/>
-      <c r="CH7" s="85"/>
-      <c r="CI7" s="85"/>
-      <c r="CJ7" s="85"/>
-      <c r="CK7" s="85"/>
-      <c r="CL7" s="85"/>
-      <c r="CM7" s="85"/>
-      <c r="CN7" s="85"/>
-      <c r="CO7" s="85"/>
-      <c r="CP7" s="85"/>
-      <c r="CQ7" s="85"/>
-      <c r="CR7" s="85"/>
-      <c r="CS7" s="132" t="s">
+      <c r="AT7" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="CT7" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="CU7" s="147"/>
-      <c r="CV7" s="169" t="s">
+      <c r="AU7" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="CW7" s="113"/>
-      <c r="CX7" s="113"/>
-      <c r="CY7" s="113"/>
+      <c r="AV7" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="89"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="124"/>
+      <c r="BN7" s="123"/>
+      <c r="BO7" s="177"/>
+      <c r="BP7" s="177"/>
+      <c r="BQ7" s="177"/>
+      <c r="BR7" s="177"/>
+      <c r="BS7" s="177"/>
+      <c r="BT7" s="123"/>
+      <c r="BU7" s="123"/>
+      <c r="BV7" s="126"/>
+      <c r="BW7" s="83"/>
+      <c r="BX7" s="83"/>
+      <c r="BY7" s="83"/>
+      <c r="BZ7" s="83"/>
+      <c r="CA7" s="124"/>
+      <c r="CB7" s="124"/>
+      <c r="CC7" s="124"/>
+      <c r="CD7" s="83"/>
+      <c r="CE7" s="83"/>
+      <c r="CF7" s="83"/>
+      <c r="CG7" s="83"/>
+      <c r="CH7" s="83"/>
+      <c r="CI7" s="83"/>
+      <c r="CJ7" s="83"/>
+      <c r="CK7" s="83"/>
+      <c r="CL7" s="83"/>
+      <c r="CM7" s="83"/>
+      <c r="CN7" s="83"/>
+      <c r="CO7" s="83"/>
+      <c r="CP7" s="83"/>
+      <c r="CQ7" s="83"/>
+      <c r="CR7" s="83"/>
+      <c r="CS7" s="83"/>
+      <c r="CT7" s="83"/>
+      <c r="CU7" s="83"/>
+      <c r="CV7" s="83"/>
+      <c r="CW7" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="CX7" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="CY7" s="163" t="s">
+        <v>164</v>
+      </c>
+      <c r="CZ7" s="111"/>
+      <c r="DA7" s="111"/>
+      <c r="DB7" s="111"/>
     </row>
-    <row r="8" spans="1:103" ht="96">
+    <row r="8" spans="1:106" ht="108.75" customHeight="1">
       <c r="A8" s="61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
+        <v>173</v>
+      </c>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
       <c r="U8" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="V8" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="AB8" s="57" t="s">
+      <c r="V8" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="AC8" s="57" t="s">
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="57" t="s">
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="108"/>
-      <c r="AK8" s="134" t="s">
+      <c r="AD8" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="AL8" s="134" t="s">
+      <c r="AE8" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AM8" s="60" t="s">
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="AN8" s="108"/>
-      <c r="AO8" s="182" t="s">
+      <c r="AN8" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="AP8" s="86" t="s">
+      <c r="AO8" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="AQ8" s="86" t="s">
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="AR8" s="86" t="s">
+      <c r="AR8" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="AS8" s="86" t="s">
+      <c r="AS8" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="56" t="s">
+      <c r="AT8" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="AW8" s="56" t="s">
+      <c r="AU8" s="84" t="s">
         <v>187</v>
       </c>
+      <c r="AV8" s="119"/>
+      <c r="AW8" s="83"/>
       <c r="AX8" s="56" t="s">
         <v>188</v>
       </c>
       <c r="AY8" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="85"/>
-      <c r="BB8" s="91"/>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="134" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG8" s="134" t="s">
+      <c r="AZ8" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="BH8" s="134" t="s">
+      <c r="BA8" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="BI8" s="134" t="s">
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI8" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="BJ8" s="137" t="s">
+      <c r="BJ8" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="BK8" s="127" t="s">
+      <c r="BK8" s="131" t="s">
+        <v>194</v>
+      </c>
+      <c r="BL8" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="BM8" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN8" s="131" t="s">
         <v>166</v>
-      </c>
-      <c r="BL8" s="134" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM8" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="BN8" s="56" t="s">
-        <v>195</v>
       </c>
       <c r="BO8" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="BP8" s="186" t="s">
+      <c r="BP8" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="BQ8" s="186" t="s">
+      <c r="BQ8" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="BR8" s="184" t="s">
+      <c r="BR8" s="178" t="s">
         <v>199</v>
       </c>
-      <c r="BS8" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="BT8" s="67" t="s">
+      <c r="BS8" s="178" t="s">
         <v>200</v>
       </c>
-      <c r="BU8" s="56" t="s">
+      <c r="BT8" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="BV8" s="56" t="s">
+      <c r="BU8" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV8" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="BW8" s="124" t="s">
+      <c r="BW8" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="BX8" s="85"/>
-      <c r="BY8" s="127" t="s">
+      <c r="BX8" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY8" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="BZ8" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA8" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="CB8" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD8" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE8" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="CF8" s="181" t="s">
+        <v>203</v>
+      </c>
+      <c r="CG8" s="181" t="s">
+        <v>206</v>
+      </c>
+      <c r="CH8" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="CI8" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ8" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="CK8" s="181" t="s">
+        <v>203</v>
+      </c>
+      <c r="CL8" s="181" t="s">
+        <v>206</v>
+      </c>
+      <c r="CM8" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="CN8" s="89"/>
+      <c r="CO8" s="89"/>
+      <c r="CP8" s="89"/>
+      <c r="CQ8" s="89"/>
+      <c r="CR8" s="89"/>
+      <c r="CS8" s="89"/>
+      <c r="CT8" s="89"/>
+      <c r="CU8" s="89"/>
+      <c r="CV8" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW8" s="130" t="s">
+        <v>210</v>
+      </c>
+      <c r="CX8" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY8" s="164" t="s">
+        <v>211</v>
+      </c>
+      <c r="CZ8" s="111"/>
+      <c r="DA8" s="111"/>
+      <c r="DB8" s="111"/>
+    </row>
+    <row r="9" spans="1:106" ht="154.5" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="M9" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="N9" s="88"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="S9" s="87"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB9" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC9" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="159" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN9" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO9" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP9" s="160"/>
+      <c r="AQ9" s="175" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR9" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS9" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT9" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU9" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY9" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ9" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA9" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB9" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE9" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="BF9" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="BG9" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH9" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI9" s="131" t="s">
+        <v>237</v>
+      </c>
+      <c r="BJ9" s="131" t="s">
+        <v>238</v>
+      </c>
+      <c r="BK9" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL9" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="BM9" s="124"/>
+      <c r="BN9" s="131" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO9" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP9" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ9" s="179" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR9" s="83"/>
+      <c r="BS9" s="83"/>
+      <c r="BT9" s="176" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU9" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV9" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW9" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="BX9" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY9" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ9" s="83"/>
+      <c r="CA9" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="CB9" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="CC9" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="CD9" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="CE9" s="182" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF9" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="CG9" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="CH9" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI9" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="CJ9" s="183" t="s">
+        <v>227</v>
+      </c>
+      <c r="CK9" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="CL9" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="CM9" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN9" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO9" s="111"/>
+      <c r="CP9" s="172"/>
+      <c r="CQ9" s="172"/>
+      <c r="CR9" s="83"/>
+      <c r="CS9" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT9" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="CU9" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="CV9" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="CW9" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="CX9" s="161" t="s">
+        <v>221</v>
+      </c>
+      <c r="CY9" s="165" t="s">
+        <v>244</v>
+      </c>
+      <c r="CZ9" s="111"/>
+      <c r="DA9" s="171" t="s">
+        <v>245</v>
+      </c>
+      <c r="DB9" s="111"/>
+    </row>
+    <row r="10" spans="1:106" ht="171" customHeight="1">
+      <c r="A10" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="BZ8" s="86" t="s">
+      <c r="G10" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="N10" s="88"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="S10" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="T10" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="U10" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="V10" s="89"/>
+      <c r="W10" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="X10" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB10" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC10" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="110" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH10" s="110" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI10" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ10" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK10" s="113" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="106"/>
+      <c r="AO10" s="106"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="106"/>
+      <c r="AR10" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="AS10" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="AT10" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU10" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="CA8" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB8" s="189" t="s">
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX10" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY10" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ10" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA10" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="BB10" s="119"/>
+      <c r="BC10" s="138" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD10" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="BE10" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG10" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="BH10" s="131" t="s">
+        <v>275</v>
+      </c>
+      <c r="BI10" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="BJ10" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="BK10" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL10" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="BM10" s="83"/>
+      <c r="BN10" s="131" t="s">
+        <v>275</v>
+      </c>
+      <c r="BO10" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP10" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ10" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR10" s="83"/>
+      <c r="BS10" s="83"/>
+      <c r="BT10" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="CC8" s="189" t="s">
+      <c r="BU10" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV10" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="BW10" s="132" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX10" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="CD8" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="CE8" s="86" t="s">
+      <c r="BY10" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ10" s="83"/>
+      <c r="CA10" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="CB10" s="108" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC10" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="CD10" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="CE10" s="183" t="s">
+        <v>270</v>
+      </c>
+      <c r="CF10" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG10" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="CH10" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="CF8" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="CG8" s="189" t="s">
+      <c r="CI10" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="CJ10" s="183" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK10" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="CL10" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="CM10" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN10" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="CO10" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP10" s="111"/>
+      <c r="CQ10" s="111"/>
+      <c r="CR10" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="CS10" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="CT10" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="CU10" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="CV10" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="CW10" s="129" t="s">
+        <v>279</v>
+      </c>
+      <c r="CX10" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="CY10" s="166" t="s">
+        <v>280</v>
+      </c>
+      <c r="CZ10" s="111"/>
+      <c r="DA10" s="111"/>
+      <c r="DB10" s="111"/>
+    </row>
+    <row r="11" spans="1:106" ht="137.25">
+      <c r="A11" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="89"/>
+      <c r="F11" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="R11" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="S11" s="87"/>
+      <c r="T11" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="89"/>
+      <c r="AA11" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="146" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH11" s="146" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI11" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ11" s="148" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK11" s="148"/>
+      <c r="AL11" s="149" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM11" s="150"/>
+      <c r="AN11" s="150"/>
+      <c r="AO11" s="150"/>
+      <c r="AP11" s="150"/>
+      <c r="AQ11" s="150"/>
+      <c r="AR11" s="151" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS11" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT11" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU11" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX11" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY11" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ11" s="151" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA11" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB11" s="151" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC11" s="135"/>
+      <c r="BD11" s="155" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE11" s="94"/>
+      <c r="BF11" s="156"/>
+      <c r="BG11" s="156"/>
+      <c r="BH11" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="BI11" s="131" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ11" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK11" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL11" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="BM11" s="83"/>
+      <c r="BN11" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="BO11" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP11" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ11" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR11" s="83"/>
+      <c r="BS11" s="83"/>
+      <c r="BT11" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="CH8" s="189" t="s">
+      <c r="BU11" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV11" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="BW11" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="CI8" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="CJ8" s="91"/>
-      <c r="CK8" s="91"/>
-      <c r="CL8" s="91"/>
-      <c r="CM8" s="91"/>
-      <c r="CN8" s="91"/>
-      <c r="CO8" s="91"/>
-      <c r="CP8" s="91"/>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="CS8" s="133" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT8" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="CU8" s="147"/>
-      <c r="CV8" s="170" t="s">
-        <v>208</v>
-      </c>
-      <c r="CW8" s="113"/>
-      <c r="CX8" s="113"/>
-      <c r="CY8" s="113"/>
+      <c r="BX11" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY11" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ11" s="83"/>
+      <c r="CA11" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB11" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="CC11" s="124"/>
+      <c r="CD11" s="151" t="s">
+        <v>290</v>
+      </c>
+      <c r="CE11" s="155" t="s">
+        <v>291</v>
+      </c>
+      <c r="CF11" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG11" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH11" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI11" s="151" t="s">
+        <v>290</v>
+      </c>
+      <c r="CJ11" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="CK11" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="CL11" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM11" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN11" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="CO11" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="CP11" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ11" s="111"/>
+      <c r="CR11" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="CS11" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="CT11" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="CU11" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="CV11" s="157" t="s">
+        <v>296</v>
+      </c>
+      <c r="CW11" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="CX11" s="261" t="s">
+        <v>287</v>
+      </c>
+      <c r="CY11" s="167" t="s">
+        <v>260</v>
+      </c>
+      <c r="CZ11" s="169" t="s">
+        <v>297</v>
+      </c>
+      <c r="DA11" s="171" t="s">
+        <v>298</v>
+      </c>
+      <c r="DB11" s="111"/>
     </row>
-    <row r="9" spans="1:103" ht="154.5" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="56" t="s">
+    <row r="12" spans="1:106" ht="91.5">
+      <c r="A12" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="S12" s="112" t="s">
+        <v>304</v>
+      </c>
+      <c r="T12" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="U12" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="V12" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="W12" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB12" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC12" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI12" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ12" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK12" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL12" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM12" s="118"/>
+      <c r="AN12" s="118"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="118"/>
+      <c r="AQ12" s="118"/>
+      <c r="AR12" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS12" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT12" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="139" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX12" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY12" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ12" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA12" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="BD12" s="108" t="s">
+        <v>314</v>
+      </c>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="131" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN12" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="CO12" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="CP12" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="CQ12" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="CR12" s="83"/>
+      <c r="CS12" s="83"/>
+      <c r="CT12" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="CU12" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="CV12" s="122" t="s">
+        <v>316</v>
+      </c>
+      <c r="CW12" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="CX12" s="262" t="s">
+        <v>307</v>
+      </c>
+      <c r="CY12" s="168" t="s">
+        <v>317</v>
+      </c>
+      <c r="CZ12" s="83"/>
+      <c r="DA12" s="83"/>
+      <c r="DB12" s="83"/>
+    </row>
+    <row r="13" spans="1:106" ht="76.5">
+      <c r="A13" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="89"/>
+      <c r="J13" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="O13" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="P13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="N9" s="90"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="S9" s="89"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y9" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z9" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA9" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="110" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="165" t="s">
+      <c r="Q13" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="R13" s="93"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK13" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL13" s="104" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM13" s="136"/>
+      <c r="AN13" s="136"/>
+      <c r="AO13" s="136"/>
+      <c r="AP13" s="136"/>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="119"/>
+      <c r="AS13" s="119"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY13" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="AZ13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA13" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB13" s="89"/>
+      <c r="BC13" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="89"/>
+      <c r="BF13" s="89"/>
+      <c r="BG13" s="89"/>
+      <c r="CN13" s="83"/>
+      <c r="CO13" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="CP13" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="CQ13" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR13" s="83"/>
+      <c r="CS13" s="83"/>
+      <c r="CT13" s="83"/>
+      <c r="CU13" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="AL9" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM9" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AN9" s="166"/>
-      <c r="AO9" s="183" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP9" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="AQ9" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR9" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS9" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="AW9" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="AX9" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY9" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ9" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA9" s="85"/>
-      <c r="BB9" s="110" t="s">
-        <v>219</v>
-      </c>
-      <c r="BC9" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="BD9" s="193" t="s">
-        <v>231</v>
-      </c>
-      <c r="BE9" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="BF9" s="129" t="s">
-        <v>233</v>
-      </c>
-      <c r="BG9" s="134" t="s">
-        <v>234</v>
-      </c>
-      <c r="BH9" s="134" t="s">
-        <v>235</v>
-      </c>
-      <c r="BI9" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="BJ9" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK9" s="126"/>
-      <c r="BL9" s="134" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM9" s="134" t="s">
-        <v>237</v>
-      </c>
-      <c r="BN9" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="BO9" s="187" t="s">
-        <v>239</v>
-      </c>
-      <c r="BP9" s="85"/>
-      <c r="BQ9" s="85"/>
-      <c r="BR9" s="184" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS9" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="BT9" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="BU9" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="BV9" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="BW9" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="BX9" s="85"/>
-      <c r="BY9" s="126"/>
-      <c r="BZ9" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="CA9" s="190" t="s">
-        <v>231</v>
-      </c>
-      <c r="CB9" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="CC9" s="110" t="s">
-        <v>219</v>
-      </c>
-      <c r="CD9" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="CE9" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="CF9" s="191" t="s">
-        <v>223</v>
-      </c>
-      <c r="CG9" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="CH9" s="110" t="s">
-        <v>219</v>
-      </c>
-      <c r="CI9" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="CJ9" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="CK9" s="113"/>
-      <c r="CL9" s="180"/>
-      <c r="CM9" s="180"/>
-      <c r="CN9" s="85"/>
-      <c r="CO9" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="CP9" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="CQ9" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="CR9" s="123" t="s">
-        <v>240</v>
-      </c>
-      <c r="CS9" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="CT9" s="115" t="s">
-        <v>216</v>
-      </c>
-      <c r="CU9" s="167" t="s">
-        <v>217</v>
-      </c>
-      <c r="CV9" s="171" t="s">
+      <c r="CV13" s="83"/>
+      <c r="CX13" s="116"/>
+      <c r="CY13" s="168" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106" ht="76.5">
+      <c r="A14" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="I14" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="CW9" s="113"/>
-      <c r="CX9" s="179" t="s">
-        <v>242</v>
-      </c>
-      <c r="CY9" s="113"/>
-    </row>
-    <row r="10" spans="1:103" ht="171" customHeight="1">
-      <c r="A10" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" s="56" t="s">
+      <c r="J14" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="O14" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="P14" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="L10" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="N10" s="90"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="58" t="s">
+      <c r="Q14" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="S10" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="T10" s="145" t="s">
-        <v>251</v>
-      </c>
-      <c r="U10" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="V10" s="91"/>
-      <c r="W10" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="X10" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y10" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z10" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA10" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF10" s="112" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG10" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH10" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI10" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ10" s="108"/>
-      <c r="AK10" s="108"/>
-      <c r="AL10" s="108"/>
-      <c r="AM10" s="108"/>
-      <c r="AN10" s="108"/>
-      <c r="AO10" s="108"/>
-      <c r="AP10" s="86" t="s">
-        <v>262</v>
-      </c>
-      <c r="AQ10" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="AR10" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS10" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="142" t="s">
-        <v>264</v>
-      </c>
-      <c r="AV10" s="86" t="s">
-        <v>265</v>
-      </c>
-      <c r="AW10" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX10" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="AY10" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ10" s="121"/>
-      <c r="BA10" s="142" t="s">
-        <v>268</v>
-      </c>
-      <c r="BB10" s="110" t="s">
-        <v>269</v>
-      </c>
-      <c r="BC10" s="110" t="s">
-        <v>270</v>
-      </c>
-      <c r="BE10" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF10" s="134" t="s">
-        <v>272</v>
-      </c>
-      <c r="BG10" s="134" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH10" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="BI10" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="BJ10" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK10" s="85"/>
-      <c r="BL10" s="134" t="s">
-        <v>272</v>
-      </c>
-      <c r="BM10" s="134" t="s">
-        <v>273</v>
-      </c>
-      <c r="BN10" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="BO10" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="BP10" s="85"/>
-      <c r="BQ10" s="85"/>
-      <c r="BR10" s="184" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS10" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="BT10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="BU10" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="BV10" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="BW10" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="BX10" s="85"/>
-      <c r="BY10" s="126"/>
-      <c r="BZ10" s="86" t="s">
-        <v>262</v>
-      </c>
-      <c r="CA10" s="191" t="s">
-        <v>267</v>
-      </c>
-      <c r="CB10" s="110" t="s">
-        <v>270</v>
-      </c>
-      <c r="CC10" s="110" t="s">
-        <v>269</v>
-      </c>
-      <c r="CD10" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="CE10" s="86" t="s">
-        <v>262</v>
-      </c>
-      <c r="CF10" s="191" t="s">
-        <v>265</v>
-      </c>
-      <c r="CG10" s="110" t="s">
-        <v>270</v>
-      </c>
-      <c r="CH10" s="110" t="s">
-        <v>269</v>
-      </c>
-      <c r="CI10" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="CJ10" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="CK10" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="CL10" s="113"/>
-      <c r="CM10" s="113"/>
-      <c r="CN10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CO10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CP10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CQ10" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CR10" s="124" t="s">
-        <v>275</v>
-      </c>
-      <c r="CS10" s="132" t="s">
-        <v>276</v>
-      </c>
-      <c r="CT10" s="115" t="s">
-        <v>256</v>
-      </c>
-      <c r="CU10" s="147"/>
-      <c r="CV10" s="172" t="s">
-        <v>277</v>
-      </c>
-      <c r="CW10" s="113"/>
-      <c r="CX10" s="113"/>
-      <c r="CY10" s="113"/>
-    </row>
-    <row r="11" spans="1:103" ht="137.25">
-      <c r="A11" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="O11" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q11" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="R11" s="111" t="s">
-        <v>280</v>
-      </c>
-      <c r="S11" s="89"/>
-      <c r="T11" s="146" t="s">
-        <v>281</v>
-      </c>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="111" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="152" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF11" s="152" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG11" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH11" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI11" s="154"/>
-      <c r="AJ11" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK11" s="156"/>
-      <c r="AL11" s="156"/>
-      <c r="AM11" s="156"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="157" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ11" s="158" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR11" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS11" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT11" s="96"/>
-      <c r="AU11" s="159" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV11" s="157" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW11" s="157" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX11" s="157" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY11" s="160" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ11" s="157" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA11" s="139"/>
-      <c r="BB11" s="161" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC11" s="96"/>
-      <c r="BD11" s="162"/>
-      <c r="BE11" s="162"/>
-      <c r="BF11" s="134" t="s">
-        <v>289</v>
-      </c>
-      <c r="BG11" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="BH11" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="BI11" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="BJ11" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK11" s="85"/>
-      <c r="BL11" s="134" t="s">
-        <v>289</v>
-      </c>
-      <c r="BM11" s="131" t="s">
-        <v>291</v>
-      </c>
-      <c r="BN11" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="BO11" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="BP11" s="85"/>
-      <c r="BQ11" s="85"/>
-      <c r="BR11" s="184" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS11" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="BT11" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="BU11" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="BV11" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="BW11" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="BX11" s="85"/>
-      <c r="BY11" s="126"/>
-      <c r="BZ11" s="157" t="s">
-        <v>287</v>
-      </c>
-      <c r="CA11" s="161" t="s">
-        <v>288</v>
-      </c>
-      <c r="CB11" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="CC11" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="CD11" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="CE11" s="157" t="s">
-        <v>287</v>
-      </c>
-      <c r="CF11" s="192" t="s">
-        <v>157</v>
-      </c>
-      <c r="CG11" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="CH11" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="CI11" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="CJ11" s="134" t="s">
-        <v>283</v>
-      </c>
-      <c r="CK11" s="134" t="s">
-        <v>283</v>
-      </c>
-      <c r="CL11" s="134" t="s">
-        <v>283</v>
-      </c>
-      <c r="CM11" s="113"/>
-      <c r="CN11" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="CO11" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="CP11" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="CQ11" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="CR11" s="163" t="s">
-        <v>293</v>
-      </c>
-      <c r="CS11" s="164" t="s">
-        <v>160</v>
-      </c>
-      <c r="CT11" s="174" t="s">
-        <v>294</v>
-      </c>
-      <c r="CU11" s="81"/>
-      <c r="CV11" s="173" t="s">
-        <v>257</v>
-      </c>
-      <c r="CW11" s="177" t="s">
-        <v>295</v>
-      </c>
-      <c r="CX11" s="179" t="s">
-        <v>296</v>
-      </c>
-      <c r="CY11" s="113"/>
-    </row>
-    <row r="12" spans="1:103" ht="91.5">
-      <c r="A12" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="N12" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="S12" s="114" t="s">
-        <v>302</v>
-      </c>
-      <c r="T12" s="145" t="s">
-        <v>251</v>
-      </c>
-      <c r="U12" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="V12" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="W12" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z12" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA12" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD12" s="91"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="112" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG12" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH12" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI12" s="115" t="s">
-        <v>308</v>
-      </c>
-      <c r="AJ12" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK12" s="120"/>
-      <c r="AL12" s="120"/>
-      <c r="AM12" s="120"/>
-      <c r="AN12" s="120"/>
-      <c r="AO12" s="120"/>
-      <c r="AP12" s="136" t="s">
-        <v>310</v>
-      </c>
-      <c r="AQ12" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR12" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT12" s="91"/>
-      <c r="AU12" s="143" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV12" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="AW12" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX12" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY12" s="136" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ12" s="91"/>
-      <c r="BA12" s="142" t="s">
-        <v>264</v>
-      </c>
-      <c r="BB12" s="110" t="s">
-        <v>312</v>
-      </c>
-      <c r="BC12" s="91"/>
-      <c r="BD12" s="91"/>
-      <c r="BE12" s="134" t="s">
-        <v>312</v>
-      </c>
-      <c r="CJ12" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="CK12" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="CL12" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="CM12" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="CN12" s="85"/>
-      <c r="CO12" s="85"/>
-      <c r="CP12" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="CQ12" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="CR12" s="124" t="s">
-        <v>314</v>
-      </c>
-      <c r="CS12" s="133" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT12" s="175" t="s">
-        <v>294</v>
-      </c>
-      <c r="CU12" s="81"/>
-      <c r="CV12" s="176" t="s">
-        <v>315</v>
-      </c>
-      <c r="CW12" s="85"/>
-      <c r="CX12" s="85"/>
-      <c r="CY12" s="85"/>
-    </row>
-    <row r="13" spans="1:103" ht="63.95">
-      <c r="A13" s="97" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" s="93" t="s">
-        <v>144</v>
-      </c>
-      <c r="P13" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="R13" s="95"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="103" t="s">
-        <v>318</v>
-      </c>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI13" s="105" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ13" s="106" t="s">
-        <v>320</v>
-      </c>
-      <c r="AK13" s="140"/>
-      <c r="AL13" s="140"/>
-      <c r="AM13" s="140"/>
-      <c r="AN13" s="140"/>
-      <c r="AO13" s="140"/>
-      <c r="AP13" s="121"/>
-      <c r="AQ13" s="121"/>
-      <c r="AR13" s="91"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="AW13" s="86" t="s">
-        <v>321</v>
-      </c>
-      <c r="AX13" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="AY13" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB13" s="91"/>
-      <c r="BC13" s="91"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="91"/>
-      <c r="CJ13" s="85"/>
-      <c r="CK13" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL13" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="CM13" s="178" t="s">
-        <v>231</v>
-      </c>
-      <c r="CN13" s="85"/>
-      <c r="CO13" s="85"/>
-      <c r="CP13" s="85"/>
-      <c r="CQ13" s="181" t="s">
-        <v>216</v>
-      </c>
-      <c r="CR13" s="85"/>
-      <c r="CT13" s="118"/>
-      <c r="CU13" s="81"/>
-      <c r="CV13" s="176" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:103" ht="76.5">
-      <c r="A14" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="J14" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="O14" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="P14" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q14" s="56" t="s">
-        <v>246</v>
-      </c>
       <c r="R14" s="54"/>
-      <c r="S14" s="91"/>
+      <c r="S14" s="89"/>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
       <c r="V14" s="73"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="91"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="92"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="188"/>
+      <c r="Z14" s="188"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="90"/>
       <c r="AD14" s="63"/>
-      <c r="AE14" s="64"/>
+      <c r="AE14" s="90"/>
       <c r="AF14" s="63"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ14" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="AK14" s="141"/>
-      <c r="AL14" s="141"/>
-      <c r="AM14" s="141"/>
-      <c r="AN14" s="141"/>
-      <c r="AO14" s="141"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="91"/>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="86" t="s">
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="AW14" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX14" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="AY14" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ14" s="91"/>
-      <c r="BA14" s="143" t="s">
-        <v>221</v>
-      </c>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="91"/>
-      <c r="BD14" s="91"/>
-      <c r="BE14" s="91"/>
-      <c r="CJ14" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CK14" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CL14" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CM14" s="134" t="s">
-        <v>274</v>
-      </c>
-      <c r="CN14" s="91"/>
-      <c r="CO14" s="91"/>
-      <c r="CP14" s="91"/>
-      <c r="CQ14" s="91"/>
-      <c r="CR14" s="85"/>
-      <c r="CT14" s="118"/>
-      <c r="CU14" s="81"/>
+      <c r="AL14" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM14" s="137"/>
+      <c r="AN14" s="137"/>
+      <c r="AO14" s="137"/>
+      <c r="AP14" s="137"/>
+      <c r="AQ14" s="137"/>
+      <c r="AR14" s="119"/>
+      <c r="AS14" s="119"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="89"/>
+      <c r="AV14" s="89"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="AY14" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="AZ14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA14" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB14" s="89"/>
+      <c r="BC14" s="139" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD14" s="89"/>
+      <c r="BE14" s="89"/>
+      <c r="BF14" s="89"/>
+      <c r="BG14" s="89"/>
+      <c r="CN14" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="CO14" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="CP14" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="CQ14" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="CR14" s="89"/>
+      <c r="CS14" s="89"/>
+      <c r="CT14" s="89"/>
+      <c r="CU14" s="89"/>
       <c r="CV14" s="83"/>
+      <c r="CX14" s="116"/>
+      <c r="CY14" s="81"/>
     </row>
-    <row r="15" spans="1:103" ht="81" thickBot="1">
+    <row r="15" spans="1:106" ht="91.5">
       <c r="A15" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
+        <v>330</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="I15" s="107" t="s">
-        <v>151</v>
+        <v>300</v>
+      </c>
+      <c r="I15" s="105" t="s">
+        <v>154</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="K15" s="91"/>
+        <v>282</v>
+      </c>
+      <c r="K15" s="89"/>
       <c r="L15" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="M15" s="91"/>
+        <v>241</v>
+      </c>
+      <c r="M15" s="89"/>
       <c r="N15" s="67" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="O15" s="74"/>
       <c r="P15" s="74"/>
       <c r="Q15" s="74"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="91"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="89"/>
       <c r="T15" s="61"/>
       <c r="U15" s="61"/>
       <c r="V15" s="73"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="89"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="63"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="189"/>
+      <c r="Z15" s="189"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="62"/>
       <c r="AG15" s="64"/>
       <c r="AH15" s="63"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="80"/>
-      <c r="AK15" s="138"/>
-      <c r="AL15" s="138"/>
-      <c r="AM15" s="138"/>
-      <c r="AN15" s="138"/>
-      <c r="AO15" s="138"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="91"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="AW15" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX15" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY15" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="85"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="CJ15" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="CK15" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="CL15" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="CM15" s="178" t="s">
-        <v>292</v>
-      </c>
-      <c r="CN15" s="180"/>
-      <c r="CO15" s="180"/>
-      <c r="CP15" s="180"/>
-      <c r="CQ15" s="180"/>
-      <c r="CR15" s="85"/>
-      <c r="CT15" s="119"/>
-      <c r="CU15" s="82"/>
-      <c r="CV15" s="84"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="134"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="134"/>
+      <c r="AP15" s="134"/>
+      <c r="AQ15" s="134"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="83"/>
+      <c r="AX15" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ15" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA15" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB15" s="89"/>
+      <c r="BC15" s="83"/>
+      <c r="BD15" s="89"/>
+      <c r="BE15" s="89"/>
+      <c r="BF15" s="89"/>
+      <c r="BG15" s="89"/>
+      <c r="CN15" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="CO15" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="CP15" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="CQ15" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="CR15" s="172"/>
+      <c r="CS15" s="172"/>
+      <c r="CT15" s="172"/>
+      <c r="CU15" s="172"/>
+      <c r="CV15" s="83"/>
+      <c r="CX15" s="117"/>
+      <c r="CY15" s="82"/>
     </row>
-    <row r="16" spans="1:103" ht="84.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:106" ht="84.95" customHeight="1">
       <c r="A16" s="61" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
       <c r="L16" s="60" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M16" s="75" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N16" s="71" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O16" s="74"/>
       <c r="P16" s="74"/>
       <c r="Q16" s="74"/>
-      <c r="CJ16" s="85"/>
-      <c r="CK16" s="85"/>
-      <c r="CL16" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="CM16" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="CN16" s="85"/>
-      <c r="CO16" s="85"/>
-      <c r="CP16" s="91"/>
-      <c r="CQ16" s="91"/>
+      <c r="CN16" s="83"/>
+      <c r="CO16" s="83"/>
+      <c r="CP16" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="CQ16" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="CR16" s="83"/>
+      <c r="CS16" s="83"/>
+      <c r="CT16" s="89"/>
+      <c r="CU16" s="89"/>
     </row>
-    <row r="17" spans="1:95" ht="84.95" customHeight="1" thickTop="1">
+    <row r="17" spans="1:99" ht="84.95" customHeight="1">
       <c r="A17" s="61" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
       <c r="L17" s="69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M17" s="76" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O17" s="74"/>
       <c r="P17" s="59" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="74"/>
-      <c r="CJ17" s="85"/>
-      <c r="CK17" s="85"/>
-      <c r="CL17" s="85"/>
-      <c r="CM17" s="181" t="s">
-        <v>216</v>
-      </c>
-      <c r="CN17" s="85"/>
-      <c r="CO17" s="85"/>
-      <c r="CP17" s="85"/>
-      <c r="CQ17" s="90"/>
+      <c r="CN17" s="83"/>
+      <c r="CO17" s="83"/>
+      <c r="CP17" s="83"/>
+      <c r="CQ17" s="173" t="s">
+        <v>220</v>
+      </c>
+      <c r="CR17" s="83"/>
+      <c r="CS17" s="83"/>
+      <c r="CT17" s="83"/>
+      <c r="CU17" s="88"/>
     </row>
-    <row r="18" spans="1:95" ht="15" customHeight="1">
+    <row r="18" spans="1:99" ht="15" customHeight="1">
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
       <c r="P18" s="60" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="75" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:95" ht="15" customHeight="1">
+    <row r="19" spans="1:99" ht="15" customHeight="1">
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
       <c r="P19" s="69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="76" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="CE6:CI6"/>
-    <mergeCell ref="BF5:BK5"/>
-    <mergeCell ref="BT5:BY5"/>
-    <mergeCell ref="BZ5:CD5"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CE5:CI5"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CJ5:CM5"/>
-    <mergeCell ref="CN5:CQ5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="BZ6:CD6"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="AP6:AU6"/>
-    <mergeCell ref="AV6:BA6"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="BL5:BS5"/>
-    <mergeCell ref="BT6:BY6"/>
-    <mergeCell ref="CT6:CU6"/>
-    <mergeCell ref="BF6:BK6"/>
-    <mergeCell ref="BL6:BS6"/>
-    <mergeCell ref="AK6:AO6"/>
+    <mergeCell ref="AM5:BF5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="BN6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AW6"/>
+    <mergeCell ref="AX6:BC6"/>
+    <mergeCell ref="BD6:BF6"/>
     <mergeCell ref="B2:V2"/>
-    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="W2:AL2"/>
     <mergeCell ref="B3:V3"/>
-    <mergeCell ref="W3:AJ4"/>
+    <mergeCell ref="W3:AL4"/>
     <mergeCell ref="B4:V4"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J6:M6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="B5:AJ5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="B5:AL5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="R6:V6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="CI5:CM5"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="CN5:CQ5"/>
+    <mergeCell ref="CR5:CU5"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CC6"/>
+    <mergeCell ref="CI6:CM6"/>
+    <mergeCell ref="BH5:BM5"/>
+    <mergeCell ref="BV5:CC5"/>
+    <mergeCell ref="CD5:CH5"/>
+    <mergeCell ref="CD6:CH6"/>
+    <mergeCell ref="BN5:BU5"/>
+    <mergeCell ref="BH6:BM6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="24" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="3" scale="63" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FE281A6E490164995812917410E5206" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8fcdc8cda6cd6c421b0036055ddb6ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60eed870-47b7-4398-bacb-923956a4e3c6" xmlns:ns3="6e788143-6890-4a14-a447-95e8858fb65c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfe6e9c76325de70081e1f21d7debdf" ns2:_="" ns3:_="">
     <xsd:import namespace="60eed870-47b7-4398-bacb-923956a4e3c6"/>
@@ -8261,12 +8301,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8277,11 +8311,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/MAE_Planner_AY24.xlsx
+++ b/MAE_Planner_AY24.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nps01.sharepoint.com/sites/MAECurricula/Shared Documents/General/CourseAndTeachingPlanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="618" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F76EB1-72FD-49E8-83A8-A4455BD3737E}"/>
+  <xr:revisionPtr revIDLastSave="738" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43ADBE56-4930-4026-A7B6-60F6694964BF}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="500" windowWidth="49260" windowHeight="19400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30400" yWindow="500" windowWidth="49260" windowHeight="19400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="533 10 quarter (Summer)" sheetId="6" state="hidden" r:id="rId1"/>
-    <sheet name="AY23_SpringSummerStartsPLAN" sheetId="26" r:id="rId2"/>
+    <sheet name="AY24" sheetId="26" r:id="rId2"/>
+    <sheet name="POs_AAs" sheetId="27" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'533 10 quarter (Summer)'!$A$1:$AI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">AY23_SpringSummerStartsPLAN!$A$5:$CU$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'AY24'!$A$1:$DE$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="356">
   <si>
     <t>533 COMBAT SYSTEMS SCIENCE AND ENGINEERING</t>
   </si>
@@ -1495,10 +1496,10 @@
     <t>570 Naval/Mechanical Engineering</t>
   </si>
   <si>
-    <t>591 Aerospace Engineering</t>
-  </si>
-  <si>
-    <t>366 Core</t>
+    <t>591 Space Systems Engineering</t>
+  </si>
+  <si>
+    <t>366 Space Systems Operations</t>
   </si>
   <si>
     <t>570 Bowman 1-year</t>
@@ -1523,15 +1524,23 @@
 DL</t>
   </si>
   <si>
-    <t>299
+    <t>118
+Aerospace Cert for SNA
 DL</t>
   </si>
   <si>
-    <t>223
+    <t>299 
+ATO
 DL</t>
   </si>
   <si>
+    <t>223 
+Robotics
+DL</t>
+  </si>
+  <si>
     <t>571
+Naval Reactors
 DL</t>
   </si>
   <si>
@@ -1602,6 +1611,9 @@
     <t>591 Electives</t>
   </si>
   <si>
+    <t>366 Core</t>
+  </si>
+  <si>
     <t>609 1-year Core</t>
   </si>
   <si>
@@ -1626,6 +1638,9 @@
   </si>
   <si>
     <t>Summer Start</t>
+  </si>
+  <si>
+    <t>Applied Trajectory Optimization</t>
   </si>
   <si>
     <t>MAE Folk Teaching for Other Departments</t>
@@ -1794,6 +1809,9 @@
 [Adams]</t>
   </si>
   <si>
+    <t>NW3230</t>
+  </si>
+  <si>
     <t>AE4871
 [Lan]</t>
   </si>
@@ -1878,8 +1896,6 @@
   <si>
     <t xml:space="preserve">MA3132 
 Partial Diff Eqs
-OR
-MA3232
 </t>
   </si>
   <si>
@@ -1892,7 +1908,8 @@
 Survivability</t>
   </si>
   <si>
-    <t>Elective</t>
+    <t>PH3052
+Physics of Space and Airborne Sensor Systems</t>
   </si>
   <si>
     <t xml:space="preserve">MA4311
@@ -1900,13 +1917,19 @@
 </t>
   </si>
   <si>
-    <t>PH3052
-Physics of Space and Airborne Sensor Systems</t>
-  </si>
-  <si>
     <t>SS1810
 Thesis Proposal Preparation 
 (1 Credit)</t>
+  </si>
+  <si>
+    <t>ME3205
+Missile Aerodynamics
+[Jones]</t>
+  </si>
+  <si>
+    <t>ME3420
+Computational Foundations of Robotics
+[Kragelund]</t>
   </si>
   <si>
     <t xml:space="preserve">AE3820
@@ -1915,14 +1938,14 @@
 </t>
   </si>
   <si>
-    <t>ME3420
-Computational Foundations of Robotics
-[Kragelund]</t>
-  </si>
-  <si>
     <t>ME4731
 Engineering Design Optimization
 [Gordis]</t>
+  </si>
+  <si>
+    <t>ME4101
+Advanced Thermo
+[Gannon]</t>
   </si>
   <si>
     <t>24/1
@@ -1987,6 +2010,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">NW3285 </t>
+  </si>
+  <si>
     <t>MN3331</t>
   </si>
   <si>
@@ -2001,6 +2027,9 @@
     <t>AE3851
 Spacecraft Propulsion
 [Brophy]</t>
+  </si>
+  <si>
+    <t>Elective</t>
   </si>
   <si>
     <t>SS1100
@@ -2186,6 +2215,9 @@
 [Seivwright]</t>
   </si>
   <si>
+    <t xml:space="preserve">NW3275 </t>
+  </si>
+  <si>
     <t>AE4871
 Spacecraft Design and Integration II
 [Lan]</t>
@@ -2209,9 +2241,6 @@
     <t>AE3804
 Thermal Control of Spacecraft
 [Agrawal]</t>
-  </si>
-  <si>
-    <t>NW3230</t>
   </si>
   <si>
     <t>AE4818
@@ -2315,6 +2344,9 @@
 [TBD]</t>
   </si>
   <si>
+    <t xml:space="preserve">NW3276 </t>
+  </si>
+  <si>
     <t>SS3051
 Military Applications of DoD &amp; Commercial Space Systems</t>
   </si>
@@ -2417,9 +2449,6 @@
 DAU Equiv.: Principles of Acquisition and Contract Management</t>
   </si>
   <si>
-    <t xml:space="preserve">NW3285 </t>
-  </si>
-  <si>
     <t>AE3811
 Space Systems Laboratory
 (Req'd for Astro)
@@ -2435,11 +2464,6 @@
 [Thomason]</t>
   </si>
   <si>
-    <t>ME3205
-Missile Aerodynamics
-[Jones]</t>
-  </si>
-  <si>
     <t>AE3820
 Adv. Mech. &amp; Orb. Robotics
 [King]</t>
@@ -2466,9 +2490,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">NW3275 </t>
-  </si>
-  <si>
     <t>AE3851
 Spacecraft Propulsion</t>
   </si>
@@ -2491,9 +2512,6 @@
 Professional Engineering Exam Prep.</t>
   </si>
   <si>
-    <t xml:space="preserve">NW3276 </t>
-  </si>
-  <si>
     <t>AE4871
 Spacecraft Design and Integration II</t>
   </si>
@@ -2539,6 +2557,60 @@
       </rPr>
       <t>Pre: ME3150, ME3450, ME3521</t>
     </r>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>EdTech</t>
+  </si>
+  <si>
+    <t>MacDonald</t>
+  </si>
+  <si>
+    <t>Gordis</t>
+  </si>
+  <si>
+    <t>Lichtenwalter</t>
+  </si>
+  <si>
+    <t>Chapman</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Tellado</t>
+  </si>
+  <si>
+    <t>Smithtro</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Benson</t>
+  </si>
+  <si>
+    <t>Karpenko</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>118 (SNA)</t>
+  </si>
+  <si>
+    <t>Minik</t>
+  </si>
+  <si>
+    <t>Hahn</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +3027,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -3148,66 +3220,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -3230,82 +3244,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3341,21 +3284,6 @@
       <left style="double">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -3364,34 +3292,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -3400,141 +3302,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3603,7 +3370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3742,12 +3509,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3757,64 +3518,25 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3834,49 +3556,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3910,8 +3592,6 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3939,12 +3619,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3954,22 +3628,9 @@
     <xf numFmtId="0" fontId="23" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3985,81 +3646,24 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="38" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4078,10 +3682,10 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4106,20 +3710,87 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4202,13 +3873,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4220,122 +4002,11 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4705,23 +4376,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.95">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="M1" s="197" t="s">
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="M1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="199"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="161"/>
       <c r="R1" s="34"/>
       <c r="U1" s="22" t="s">
         <v>2</v>
@@ -4734,25 +4405,25 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="M2" s="201" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="M2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="165"/>
       <c r="R2" s="35"/>
-      <c r="U2" s="204" t="s">
+      <c r="U2" s="166" t="s">
         <v>7</v>
       </c>
       <c r="AF2" s="3" t="s">
@@ -4763,93 +4434,93 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.75" customHeight="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="M3" s="207" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="M3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="209"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="171"/>
       <c r="R3" s="36"/>
-      <c r="U3" s="205"/>
+      <c r="U3" s="167"/>
     </row>
     <row r="4" spans="1:35" ht="15.95">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="M4" s="210" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="M4" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="212"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="174"/>
       <c r="R4" s="37"/>
-      <c r="U4" s="205"/>
+      <c r="U4" s="167"/>
     </row>
     <row r="5" spans="1:35" ht="15.75" customHeight="1">
-      <c r="B5" s="68"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="M5" s="213" t="s">
+      <c r="D5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="M5" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="193"/>
-      <c r="O5" s="193"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="214"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="176"/>
       <c r="R5" s="53"/>
-      <c r="U5" s="206"/>
+      <c r="U5" s="168"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="M6" s="215"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="217"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="179"/>
       <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="AC7" s="68"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="AC7" s="60"/>
     </row>
     <row r="8" spans="1:35">
       <c r="C8" t="s">
@@ -4889,45 +4560,45 @@
         <v>18</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="191" t="s">
+      <c r="I9" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="157"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="191" t="s">
+      <c r="M9" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="194"/>
-      <c r="O9" s="195"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="157"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="191" t="s">
+      <c r="Q9" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="194"/>
-      <c r="S9" s="195"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="157"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="191" t="s">
+      <c r="U9" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="194"/>
-      <c r="W9" s="194"/>
-      <c r="X9" s="195"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="157"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="191" t="s">
+      <c r="Z9" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="194"/>
-      <c r="AC9" s="192"/>
-      <c r="AE9" s="191" t="s">
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="154"/>
+      <c r="AE9" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="192"/>
-      <c r="AH9" s="191" t="s">
+      <c r="AF9" s="154"/>
+      <c r="AH9" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="192"/>
+      <c r="AI9" s="154"/>
     </row>
     <row r="10" spans="1:35" ht="78.75" customHeight="1">
       <c r="B10" s="31" t="s">
@@ -5632,9 +5303,9 @@
     <row r="24" spans="1:35">
       <c r="B24" s="1"/>
       <c r="C24" s="23"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
       <c r="H24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -5826,2266 +5497,2344 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DB19"/>
+  <dimension ref="A1:DE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12560" topLeftCell="BM1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="CX13" sqref="CX13"/>
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="33840" topLeftCell="CT1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="CU8" sqref="CU8"/>
+      <selection activeCell="CV9" sqref="CV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="115" width="15.85546875" customWidth="1"/>
+    <col min="2" max="118" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106">
-      <c r="A1" s="180" t="s">
+    <row r="1" spans="1:109">
+      <c r="A1" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="180"/>
-      <c r="AH1" s="180"/>
-      <c r="AI1" s="180"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
       <c r="AJ1" t="s">
         <v>99</v>
       </c>
-      <c r="AL1" s="78">
+      <c r="AL1" s="63">
         <f ca="1">TODAY()</f>
-        <v>45054</v>
-      </c>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
+        <v>45056</v>
+      </c>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
     </row>
-    <row r="2" spans="1:106" ht="15" hidden="1" customHeight="1">
-      <c r="B2" s="237" t="s">
+    <row r="2" spans="1:109" ht="15" hidden="1" customHeight="1">
+      <c r="B2" s="196" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="240" t="s">
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="240"/>
-      <c r="AD2" s="240"/>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="240"/>
-      <c r="AH2" s="240"/>
-      <c r="AI2" s="240"/>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="240"/>
-      <c r="AL2" s="241"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
     </row>
-    <row r="3" spans="1:106" ht="108.95" hidden="1" customHeight="1">
-      <c r="B3" s="242" t="s">
+    <row r="3" spans="1:109" ht="108.95" hidden="1" customHeight="1">
+      <c r="B3" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="245" t="s">
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="246"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="246"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="246"/>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="246"/>
-      <c r="AG3" s="246"/>
-      <c r="AH3" s="246"/>
-      <c r="AI3" s="246"/>
-      <c r="AJ3" s="246"/>
-      <c r="AK3" s="246"/>
-      <c r="AL3" s="247"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="205"/>
+      <c r="AE3" s="205"/>
+      <c r="AF3" s="205"/>
+      <c r="AG3" s="205"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="205"/>
+      <c r="AJ3" s="205"/>
+      <c r="AK3" s="205"/>
+      <c r="AL3" s="206"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
     </row>
-    <row r="4" spans="1:106" ht="65.099999999999994" hidden="1" customHeight="1">
-      <c r="B4" s="251" t="s">
+    <row r="4" spans="1:109" ht="65.099999999999994" hidden="1" customHeight="1">
+      <c r="B4" s="210" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="252"/>
-      <c r="M4" s="252"/>
-      <c r="N4" s="252"/>
-      <c r="O4" s="252"/>
-      <c r="P4" s="252"/>
-      <c r="Q4" s="252"/>
-      <c r="R4" s="252"/>
-      <c r="S4" s="252"/>
-      <c r="T4" s="252"/>
-      <c r="U4" s="252"/>
-      <c r="V4" s="253"/>
-      <c r="W4" s="248"/>
-      <c r="X4" s="249"/>
-      <c r="Y4" s="249"/>
-      <c r="Z4" s="249"/>
-      <c r="AA4" s="249"/>
-      <c r="AB4" s="249"/>
-      <c r="AC4" s="249"/>
-      <c r="AD4" s="249"/>
-      <c r="AE4" s="249"/>
-      <c r="AF4" s="249"/>
-      <c r="AG4" s="249"/>
-      <c r="AH4" s="249"/>
-      <c r="AI4" s="249"/>
-      <c r="AJ4" s="249"/>
-      <c r="AK4" s="249"/>
-      <c r="AL4" s="250"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="211"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="212"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="208"/>
+      <c r="AG4" s="208"/>
+      <c r="AH4" s="208"/>
+      <c r="AI4" s="208"/>
+      <c r="AJ4" s="208"/>
+      <c r="AK4" s="208"/>
+      <c r="AL4" s="209"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="67"/>
     </row>
-    <row r="5" spans="1:106" ht="47.1" customHeight="1">
-      <c r="B5" s="224" t="s">
+    <row r="5" spans="1:109" ht="47.1" customHeight="1">
+      <c r="B5" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="224"/>
-      <c r="R5" s="224"/>
-      <c r="S5" s="224"/>
-      <c r="T5" s="224"/>
-      <c r="U5" s="224"/>
-      <c r="V5" s="224"/>
-      <c r="W5" s="224"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="224"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="224"/>
-      <c r="AB5" s="224"/>
-      <c r="AC5" s="224"/>
-      <c r="AD5" s="224"/>
-      <c r="AE5" s="224"/>
-      <c r="AF5" s="224"/>
-      <c r="AG5" s="224"/>
-      <c r="AH5" s="224"/>
-      <c r="AI5" s="224"/>
-      <c r="AJ5" s="224"/>
-      <c r="AK5" s="224"/>
-      <c r="AL5" s="224"/>
-      <c r="AM5" s="254" t="s">
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="180"/>
+      <c r="Y5" s="180"/>
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="180"/>
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="180"/>
+      <c r="AL5" s="180"/>
+      <c r="AM5" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="AN5" s="255"/>
-      <c r="AO5" s="255"/>
-      <c r="AP5" s="255"/>
-      <c r="AQ5" s="255"/>
-      <c r="AR5" s="255"/>
-      <c r="AS5" s="255"/>
-      <c r="AT5" s="255"/>
-      <c r="AU5" s="255"/>
-      <c r="AV5" s="255"/>
-      <c r="AW5" s="255"/>
-      <c r="AX5" s="255"/>
-      <c r="AY5" s="255"/>
-      <c r="AZ5" s="255"/>
-      <c r="BA5" s="255"/>
-      <c r="BB5" s="255"/>
-      <c r="BC5" s="255"/>
-      <c r="BD5" s="255"/>
-      <c r="BE5" s="255"/>
-      <c r="BF5" s="256"/>
-      <c r="BG5" s="143" t="s">
+      <c r="AN5" s="195"/>
+      <c r="AO5" s="195"/>
+      <c r="AP5" s="195"/>
+      <c r="AQ5" s="195"/>
+      <c r="AR5" s="195"/>
+      <c r="AS5" s="195"/>
+      <c r="AT5" s="195"/>
+      <c r="AU5" s="195"/>
+      <c r="AV5" s="195"/>
+      <c r="AW5" s="195"/>
+      <c r="AX5" s="195"/>
+      <c r="AY5" s="195"/>
+      <c r="AZ5" s="195"/>
+      <c r="BA5" s="195"/>
+      <c r="BB5" s="195"/>
+      <c r="BC5" s="195"/>
+      <c r="BD5" s="195"/>
+      <c r="BE5" s="195"/>
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="BH5" s="224" t="s">
+      <c r="BH5" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="BI5" s="224"/>
-      <c r="BJ5" s="224"/>
-      <c r="BK5" s="224"/>
-      <c r="BL5" s="224"/>
-      <c r="BM5" s="224"/>
-      <c r="BN5" s="218" t="s">
+      <c r="BI5" s="180"/>
+      <c r="BJ5" s="180"/>
+      <c r="BK5" s="180"/>
+      <c r="BL5" s="180"/>
+      <c r="BM5" s="180"/>
+      <c r="BN5" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="BO5" s="219"/>
-      <c r="BP5" s="219"/>
-      <c r="BQ5" s="219"/>
-      <c r="BR5" s="219"/>
-      <c r="BS5" s="219"/>
-      <c r="BT5" s="219"/>
-      <c r="BU5" s="220"/>
-      <c r="BV5" s="224" t="s">
+      <c r="BO5" s="217"/>
+      <c r="BP5" s="217"/>
+      <c r="BQ5" s="217"/>
+      <c r="BR5" s="217"/>
+      <c r="BS5" s="217"/>
+      <c r="BT5" s="217"/>
+      <c r="BU5" s="214"/>
+      <c r="BV5" s="180" t="s">
         <v>110</v>
       </c>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="224" t="s">
+      <c r="BW5" s="180"/>
+      <c r="BX5" s="180"/>
+      <c r="BY5" s="180"/>
+      <c r="BZ5" s="180"/>
+      <c r="CA5" s="180"/>
+      <c r="CB5" s="180"/>
+      <c r="CC5" s="180"/>
+      <c r="CD5" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="CE5" s="224"/>
-      <c r="CF5" s="224"/>
-      <c r="CG5" s="224"/>
-      <c r="CH5" s="224"/>
-      <c r="CI5" s="224" t="s">
+      <c r="CE5" s="180"/>
+      <c r="CF5" s="180"/>
+      <c r="CG5" s="180"/>
+      <c r="CH5" s="180"/>
+      <c r="CI5" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="CJ5" s="224"/>
-      <c r="CK5" s="224"/>
-      <c r="CL5" s="224"/>
-      <c r="CM5" s="224"/>
-      <c r="CN5" s="226" t="s">
+      <c r="CJ5" s="180"/>
+      <c r="CK5" s="180"/>
+      <c r="CL5" s="180"/>
+      <c r="CM5" s="180"/>
+      <c r="CN5" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="CO5" s="227"/>
-      <c r="CP5" s="227"/>
-      <c r="CQ5" s="227"/>
-      <c r="CR5" s="226" t="s">
+      <c r="CO5" s="184"/>
+      <c r="CP5" s="184"/>
+      <c r="CQ5" s="184"/>
+      <c r="CR5" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="CS5" s="227"/>
-      <c r="CT5" s="227"/>
-      <c r="CU5" s="227"/>
-      <c r="CV5" s="144" t="s">
+      <c r="CS5" s="184"/>
+      <c r="CT5" s="184"/>
+      <c r="CU5" s="184"/>
+      <c r="CV5" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="CW5" s="145" t="s">
+      <c r="CW5" s="214"/>
+      <c r="CX5" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="CX5" s="190" t="s">
+      <c r="CY5" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="CY5" s="162" t="s">
+      <c r="CZ5" s="139" t="s">
         <v>117</v>
       </c>
+      <c r="DA5" s="223" t="s">
+        <v>118</v>
+      </c>
+      <c r="DB5" s="224"/>
     </row>
-    <row r="6" spans="1:106" ht="77.25" customHeight="1">
-      <c r="A6" s="115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="228" t="s">
+    <row r="6" spans="1:109" ht="77.25" customHeight="1">
+      <c r="A6" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228" t="s">
+      <c r="B6" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="228"/>
-      <c r="L6" s="228"/>
-      <c r="M6" s="228"/>
-      <c r="N6" s="228" t="s">
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="228"/>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="231" t="s">
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="185"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="S6" s="231"/>
-      <c r="T6" s="231"/>
-      <c r="U6" s="231"/>
-      <c r="V6" s="231"/>
-      <c r="W6" s="236" t="s">
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="X6" s="235"/>
-      <c r="Y6" s="232" t="s">
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="Z6" s="233"/>
-      <c r="AA6" s="235" t="s">
+      <c r="X6" s="192"/>
+      <c r="Y6" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="AB6" s="235"/>
-      <c r="AC6" s="257" t="s">
+      <c r="Z6" s="190"/>
+      <c r="AA6" s="192" t="s">
         <v>126</v>
       </c>
-      <c r="AD6" s="258"/>
-      <c r="AE6" s="229" t="s">
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="AF6" s="230"/>
-      <c r="AG6" s="229" t="s">
+      <c r="AD6" s="216"/>
+      <c r="AE6" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="AH6" s="230"/>
-      <c r="AI6" s="229" t="s">
+      <c r="AF6" s="187"/>
+      <c r="AG6" s="186" t="s">
         <v>129</v>
       </c>
-      <c r="AJ6" s="234"/>
-      <c r="AK6" s="186" t="s">
+      <c r="AH6" s="187"/>
+      <c r="AI6" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="AL6" s="187" t="s">
+      <c r="AJ6" s="191"/>
+      <c r="AK6" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="AM6" s="259" t="s">
+      <c r="AL6" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="259"/>
-      <c r="AO6" s="259"/>
-      <c r="AP6" s="259"/>
-      <c r="AQ6" s="259"/>
-      <c r="AR6" s="259" t="s">
+      <c r="AM6" s="218" t="s">
         <v>133</v>
       </c>
-      <c r="AS6" s="259"/>
-      <c r="AT6" s="259"/>
-      <c r="AU6" s="259"/>
-      <c r="AV6" s="259"/>
-      <c r="AW6" s="259"/>
-      <c r="AX6" s="259" t="s">
+      <c r="AN6" s="218"/>
+      <c r="AO6" s="218"/>
+      <c r="AP6" s="218"/>
+      <c r="AQ6" s="218"/>
+      <c r="AR6" s="218" t="s">
         <v>134</v>
       </c>
-      <c r="AY6" s="259"/>
-      <c r="AZ6" s="259"/>
-      <c r="BA6" s="259"/>
-      <c r="BB6" s="259"/>
-      <c r="BC6" s="259"/>
-      <c r="BD6" s="260" t="s">
+      <c r="AS6" s="218"/>
+      <c r="AT6" s="218"/>
+      <c r="AU6" s="218"/>
+      <c r="AV6" s="218"/>
+      <c r="AW6" s="218"/>
+      <c r="AX6" s="218" t="s">
         <v>135</v>
       </c>
-      <c r="BE6" s="260"/>
-      <c r="BF6" s="260"/>
-      <c r="BG6" s="143"/>
-      <c r="BH6" s="224" t="s">
+      <c r="AY6" s="218"/>
+      <c r="AZ6" s="218"/>
+      <c r="BA6" s="218"/>
+      <c r="BB6" s="218"/>
+      <c r="BC6" s="218"/>
+      <c r="BD6" s="219" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE6" s="219"/>
+      <c r="BF6" s="219"/>
+      <c r="BG6" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH6" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="BI6" s="224"/>
-      <c r="BJ6" s="224"/>
-      <c r="BK6" s="224"/>
-      <c r="BL6" s="224"/>
-      <c r="BM6" s="224"/>
-      <c r="BN6" s="218" t="s">
+      <c r="BI6" s="180"/>
+      <c r="BJ6" s="180"/>
+      <c r="BK6" s="180"/>
+      <c r="BL6" s="180"/>
+      <c r="BM6" s="180"/>
+      <c r="BN6" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="BO6" s="219"/>
-      <c r="BP6" s="219"/>
-      <c r="BQ6" s="219"/>
-      <c r="BR6" s="219"/>
-      <c r="BS6" s="219"/>
-      <c r="BT6" s="219"/>
-      <c r="BU6" s="220"/>
-      <c r="BV6" s="218" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW6" s="219"/>
-      <c r="BX6" s="219"/>
-      <c r="BY6" s="219"/>
-      <c r="BZ6" s="220"/>
-      <c r="CA6" s="221" t="s">
-        <v>137</v>
-      </c>
-      <c r="CB6" s="222"/>
-      <c r="CC6" s="223"/>
-      <c r="CD6" s="224" t="s">
+      <c r="BO6" s="217"/>
+      <c r="BP6" s="217"/>
+      <c r="BQ6" s="217"/>
+      <c r="BR6" s="217"/>
+      <c r="BS6" s="217"/>
+      <c r="BT6" s="217"/>
+      <c r="BU6" s="214"/>
+      <c r="BV6" s="213" t="s">
         <v>138</v>
       </c>
-      <c r="CE6" s="224"/>
-      <c r="CF6" s="224"/>
-      <c r="CG6" s="224"/>
-      <c r="CH6" s="224"/>
-      <c r="CI6" s="224" t="s">
+      <c r="BW6" s="217"/>
+      <c r="BX6" s="217"/>
+      <c r="BY6" s="217"/>
+      <c r="BZ6" s="214"/>
+      <c r="CA6" s="220" t="s">
         <v>139</v>
       </c>
-      <c r="CJ6" s="224"/>
-      <c r="CK6" s="224"/>
-      <c r="CL6" s="224"/>
-      <c r="CM6" s="224"/>
-      <c r="CN6" s="140" t="s">
+      <c r="CB6" s="221"/>
+      <c r="CC6" s="222"/>
+      <c r="CD6" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="CO6" s="140" t="s">
+      <c r="CE6" s="180"/>
+      <c r="CF6" s="180"/>
+      <c r="CG6" s="180"/>
+      <c r="CH6" s="180"/>
+      <c r="CI6" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="CP6" s="140" t="s">
+      <c r="CJ6" s="180"/>
+      <c r="CK6" s="180"/>
+      <c r="CL6" s="180"/>
+      <c r="CM6" s="180"/>
+      <c r="CN6" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="CQ6" s="140" t="s">
+      <c r="CO6" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="CR6" s="140" t="s">
-        <v>140</v>
-      </c>
-      <c r="CS6" s="140" t="s">
-        <v>141</v>
-      </c>
-      <c r="CT6" s="140" t="s">
+      <c r="CP6" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="CQ6" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="CR6" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="CU6" s="140" t="s">
+      <c r="CS6" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="CV6" s="144"/>
-      <c r="CW6" s="145"/>
-      <c r="CX6" s="190"/>
-      <c r="CY6" s="162"/>
-      <c r="CZ6" s="225" t="s">
+      <c r="CT6" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="DA6" s="225"/>
-      <c r="DB6" s="225"/>
+      <c r="CU6" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="CV6" s="130"/>
+      <c r="CW6" s="130"/>
+      <c r="CX6" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY6" s="132"/>
+      <c r="CZ6" s="139"/>
+      <c r="DA6" s="140"/>
+      <c r="DB6" s="148"/>
+      <c r="DC6" s="181" t="s">
+        <v>147</v>
+      </c>
+      <c r="DD6" s="182"/>
+      <c r="DE6" s="182"/>
     </row>
-    <row r="7" spans="1:106" ht="91.5" hidden="1">
-      <c r="A7" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="56" t="s">
+    <row r="7" spans="1:109" ht="91.5" hidden="1">
+      <c r="A7" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="B7" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="C7" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="E7" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="F7" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="105" t="s">
+      <c r="G7" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="57" t="s">
+      <c r="H7" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AF7" s="57" t="s">
+      <c r="I7" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="120" t="s">
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="106"/>
-      <c r="AM7" s="106"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="84" t="s">
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="AS7" s="84" t="s">
+      <c r="AF7" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="AT7" s="84" t="s">
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="AU7" s="131" t="s">
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="AV7" s="84" t="s">
+      <c r="AS7" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="83"/>
-      <c r="BA7" s="83"/>
-      <c r="BB7" s="83"/>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="89"/>
-      <c r="BE7" s="89"/>
-      <c r="BF7" s="89"/>
-      <c r="BG7" s="89"/>
-      <c r="BH7" s="83"/>
-      <c r="BI7" s="83"/>
-      <c r="BJ7" s="83"/>
-      <c r="BK7" s="83"/>
-      <c r="BL7" s="83"/>
-      <c r="BM7" s="124"/>
-      <c r="BN7" s="123"/>
-      <c r="BO7" s="177"/>
-      <c r="BP7" s="177"/>
-      <c r="BQ7" s="177"/>
-      <c r="BR7" s="177"/>
-      <c r="BS7" s="177"/>
-      <c r="BT7" s="123"/>
-      <c r="BU7" s="123"/>
-      <c r="BV7" s="126"/>
-      <c r="BW7" s="83"/>
-      <c r="BX7" s="83"/>
-      <c r="BY7" s="83"/>
-      <c r="BZ7" s="83"/>
-      <c r="CA7" s="124"/>
-      <c r="CB7" s="124"/>
-      <c r="CC7" s="124"/>
-      <c r="CD7" s="83"/>
-      <c r="CE7" s="83"/>
-      <c r="CF7" s="83"/>
-      <c r="CG7" s="83"/>
-      <c r="CH7" s="83"/>
-      <c r="CI7" s="83"/>
-      <c r="CJ7" s="83"/>
-      <c r="CK7" s="83"/>
-      <c r="CL7" s="83"/>
-      <c r="CM7" s="83"/>
-      <c r="CN7" s="83"/>
-      <c r="CO7" s="83"/>
-      <c r="CP7" s="83"/>
-      <c r="CQ7" s="83"/>
-      <c r="CR7" s="83"/>
-      <c r="CS7" s="83"/>
-      <c r="CT7" s="83"/>
-      <c r="CU7" s="83"/>
-      <c r="CV7" s="83"/>
-      <c r="CW7" s="129" t="s">
+      <c r="AT7" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="CX7" s="113" t="s">
-        <v>156</v>
-      </c>
-      <c r="CY7" s="163" t="s">
+      <c r="AU7" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="CZ7" s="111"/>
-      <c r="DA7" s="111"/>
-      <c r="DB7" s="111"/>
+      <c r="AV7" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="64"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="70"/>
+      <c r="BF7" s="70"/>
+      <c r="BG7" s="70"/>
+      <c r="BH7" s="64"/>
+      <c r="BI7" s="64"/>
+      <c r="BJ7" s="64"/>
+      <c r="BK7" s="64"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="89"/>
+      <c r="BN7" s="88"/>
+      <c r="BO7" s="116"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="116"/>
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="88"/>
+      <c r="BU7" s="88"/>
+      <c r="BV7" s="91"/>
+      <c r="BW7" s="64"/>
+      <c r="BX7" s="64"/>
+      <c r="BY7" s="64"/>
+      <c r="BZ7" s="64"/>
+      <c r="CA7" s="89"/>
+      <c r="CB7" s="89"/>
+      <c r="CC7" s="89"/>
+      <c r="CD7" s="64"/>
+      <c r="CE7" s="64"/>
+      <c r="CF7" s="64"/>
+      <c r="CG7" s="64"/>
+      <c r="CH7" s="64"/>
+      <c r="CI7" s="64"/>
+      <c r="CJ7" s="64"/>
+      <c r="CK7" s="64"/>
+      <c r="CL7" s="64"/>
+      <c r="CM7" s="64"/>
+      <c r="CN7" s="64"/>
+      <c r="CO7" s="64"/>
+      <c r="CP7" s="64"/>
+      <c r="CQ7" s="64"/>
+      <c r="CR7" s="64"/>
+      <c r="CS7" s="64"/>
+      <c r="CT7" s="64"/>
+      <c r="CU7" s="64"/>
+      <c r="CV7" s="64"/>
+      <c r="CW7" s="64"/>
+      <c r="CX7" s="64"/>
+      <c r="CY7" s="133" t="s">
+        <v>166</v>
+      </c>
+      <c r="CZ7" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="DA7" s="141" t="s">
+        <v>167</v>
+      </c>
+      <c r="DB7" s="149"/>
+      <c r="DC7" s="137"/>
+      <c r="DD7" s="78"/>
+      <c r="DE7" s="78"/>
     </row>
-    <row r="8" spans="1:106" ht="108.75" customHeight="1">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:109" ht="108.75" customHeight="1">
+      <c r="A8" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="V8" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD8" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE8" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM8" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN8" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO8" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR8" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS8" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT8" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU8" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV8" s="84"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY8" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ8" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA8" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="70"/>
+      <c r="BH8" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI8" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ8" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK8" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL8" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM8" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN8" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO8" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP8" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ8" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR8" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS8" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT8" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU8" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV8" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="BW8" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="BX8" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="BY8" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ8" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA8" s="84"/>
+      <c r="CB8" s="70"/>
+      <c r="CD8" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="CE8" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="CF8" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="CG8" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="CH8" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI8" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ8" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="CK8" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="CL8" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="CM8" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="CN8" s="70"/>
+      <c r="CO8" s="70"/>
+      <c r="CP8" s="70"/>
+      <c r="CQ8" s="70"/>
+      <c r="CR8" s="70"/>
+      <c r="CS8" s="70"/>
+      <c r="CT8" s="70"/>
+      <c r="CU8" s="70"/>
+      <c r="CV8" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="CW8" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="CX8" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="CY8" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="CZ8" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="DA8" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="DB8" s="69"/>
+      <c r="DC8" s="137"/>
+      <c r="DD8" s="78"/>
+      <c r="DE8" s="78"/>
+    </row>
+    <row r="9" spans="1:109" ht="154.5" customHeight="1">
+      <c r="A9" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="S9" s="68"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB9" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC9" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM9" s="107" t="s">
+        <v>230</v>
+      </c>
+      <c r="AN9" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO9" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR9" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS9" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT9" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU9" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="AY9" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ9" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="BA9" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="BB9" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE9" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="BF9" s="124" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG9" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH9" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI9" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="BJ9" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="BK9" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL9" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM9" s="89"/>
+      <c r="BN9" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO9" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP9" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ9" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="BR9" s="64"/>
+      <c r="BS9" s="64"/>
+      <c r="BT9" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU9" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV9" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="BW9" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="BX9" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="BY9" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="BZ9" s="64"/>
+      <c r="CA9" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="CB9" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="CC9" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="CD9" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="CE9" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="CF9" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="CG9" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="CH9" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI9" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ9" s="122" t="s">
+        <v>233</v>
+      </c>
+      <c r="CK9" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="CL9" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="CM9" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="CN9" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CO9" s="78"/>
+      <c r="CP9" s="111"/>
+      <c r="CQ9" s="111"/>
+      <c r="CR9" s="64"/>
+      <c r="CS9" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CT9" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CU9" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CV9" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CW9" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="CX9" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="CY9" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="CZ9" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="DA9" s="142" t="s">
+        <v>251</v>
+      </c>
+      <c r="DB9" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="DC9" s="137"/>
+      <c r="DD9" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="DE9" s="78"/>
+    </row>
+    <row r="10" spans="1:109" ht="171" customHeight="1">
+      <c r="A10" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="S10" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="T10" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="U10" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="V10" s="70"/>
+      <c r="W10" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="X10" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB10" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC10" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH10" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI10" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ10" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK10" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL10" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="AS10" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="AT10" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU10" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX10" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY10" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ10" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="BA10" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD10" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE10" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="BH10" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="BI10" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="BJ10" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK10" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL10" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM10" s="64"/>
+      <c r="BN10" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO10" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP10" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ10" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="BR10" s="64"/>
+      <c r="BS10" s="64"/>
+      <c r="BT10" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU10" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV10" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="BW10" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="BX10" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="BY10" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="BZ10" s="64"/>
+      <c r="CA10" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="CB10" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="CC10" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="CD10" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="CE10" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="CF10" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="CG10" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="CH10" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI10" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="CJ10" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="CK10" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="CL10" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="CM10" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="CN10" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO10" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="CP10" s="78"/>
+      <c r="CQ10" s="78"/>
+      <c r="CR10" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="CS10" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="CT10" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="CU10" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="CV10" s="70"/>
+      <c r="CW10" s="70"/>
+      <c r="CX10" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="CY10" s="133" t="s">
+        <v>286</v>
+      </c>
+      <c r="CZ10" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="DA10" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="DB10" s="69"/>
+      <c r="DC10" s="137"/>
+      <c r="DD10" s="78"/>
+      <c r="DE10" s="78"/>
+    </row>
+    <row r="11" spans="1:109" ht="137.25">
+      <c r="A11" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="R11" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="S11" s="68"/>
+      <c r="T11" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z11" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA11" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH11" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI11" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ11" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS11" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT11" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU11" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX11" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY11" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ11" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA11" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB11" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="BC11" s="78"/>
+      <c r="BD11" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE11" s="70"/>
+      <c r="BF11" s="84"/>
+      <c r="BG11" s="84"/>
+      <c r="BH11" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI11" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="BJ11" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK11" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL11" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM11" s="64"/>
+      <c r="BN11" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="BO11" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP11" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ11" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="BR11" s="64"/>
+      <c r="BS11" s="64"/>
+      <c r="BT11" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU11" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV11" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW11" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="BX11" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="BY11" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="BZ11" s="64"/>
+      <c r="CA11" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB11" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="CC11" s="89"/>
+      <c r="CD11" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="CE11" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="CF11" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG11" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH11" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI11" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="CJ11" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="CK11" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL11" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="CM11" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="CN11" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="CO11" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="CP11" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="CQ11" s="78"/>
+      <c r="CR11" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="CS11" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="CT11" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="CU11" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="CV11" s="145"/>
+      <c r="CW11" s="145"/>
+      <c r="CX11" s="106" t="s">
+        <v>304</v>
+      </c>
+      <c r="CY11" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="56" t="s">
+      <c r="CZ11" s="143" t="s">
+        <v>294</v>
+      </c>
+      <c r="DA11" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB11" s="150"/>
+      <c r="DC11" s="138" t="s">
+        <v>305</v>
+      </c>
+      <c r="DD11" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="DE11" s="78"/>
+    </row>
+    <row r="12" spans="1:109" ht="91.5">
+      <c r="A12" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="K12" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q12" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="S12" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="T12" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="U12" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="V12" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="W12" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB12" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC12" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI12" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ12" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK12" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="AS12" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT12" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX12" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="AY12" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ12" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA12" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="BD12" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="94" t="s">
+        <v>321</v>
+      </c>
+      <c r="CN12" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO12" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP12" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ12" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR12" s="64"/>
+      <c r="CS12" s="64"/>
+      <c r="CT12" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="CU12" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="CV12" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="CW12" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="CX12" s="87" t="s">
+        <v>322</v>
+      </c>
+      <c r="CY12" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="CZ12" s="143" t="s">
+        <v>315</v>
+      </c>
+      <c r="DA12" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="DB12" s="151"/>
+      <c r="DC12" s="91"/>
+      <c r="DD12" s="64"/>
+      <c r="DE12" s="64"/>
+    </row>
+    <row r="13" spans="1:109" ht="76.5">
+      <c r="A13" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="I13" s="70"/>
+      <c r="J13" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="R13" s="68"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK13" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="84"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY13" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ13" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA13" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="CN13" s="64"/>
+      <c r="CO13" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CP13" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CQ13" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CR13" s="64"/>
+      <c r="CS13" s="64"/>
+      <c r="CT13" s="64"/>
+      <c r="CU13" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="CV13" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="CW13" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="CX13" s="64"/>
+      <c r="CZ13" s="64"/>
+      <c r="DA13" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="DB13" s="152"/>
+    </row>
+    <row r="14" spans="1:109" ht="76.5">
+      <c r="A14" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="O14" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="P14" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="V8" s="107" t="s">
-        <v>175</v>
-      </c>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD8" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE8" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="AN8" s="131" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO8" s="60" t="s">
+      <c r="Q14" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="108"/>
+      <c r="AN14" s="108"/>
+      <c r="AO14" s="108"/>
+      <c r="AP14" s="108"/>
+      <c r="AQ14" s="108"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="AY14" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ14" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA14" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="70"/>
+      <c r="BF14" s="70"/>
+      <c r="BG14" s="70"/>
+      <c r="CN14" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="CO14" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="CP14" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="CQ14" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR14" s="70"/>
+      <c r="CS14" s="70"/>
+      <c r="CT14" s="70"/>
+      <c r="CU14" s="70"/>
+      <c r="CV14" s="70"/>
+      <c r="CW14" s="70"/>
+      <c r="CX14" s="64"/>
+    </row>
+    <row r="15" spans="1:109" ht="91.5">
+      <c r="A15" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="K15" s="70"/>
+      <c r="L15" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="84"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY15" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ15" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA15" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB15" s="70"/>
+      <c r="BC15" s="64"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="70"/>
+      <c r="BF15" s="70"/>
+      <c r="BG15" s="70"/>
+      <c r="CN15" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="CO15" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="CP15" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="CQ15" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="CR15" s="111"/>
+      <c r="CS15" s="111"/>
+      <c r="CT15" s="111"/>
+      <c r="CU15" s="111"/>
+      <c r="CV15" s="111"/>
+      <c r="CW15" s="111"/>
+      <c r="CX15" s="64"/>
+    </row>
+    <row r="16" spans="1:109" ht="84.95" customHeight="1">
+      <c r="A16" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="CN16" s="64"/>
+      <c r="CO16" s="64"/>
+      <c r="CP16" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="174" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR8" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS8" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT8" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU8" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY8" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ8" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA8" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="83"/>
-      <c r="BD8" s="89"/>
-      <c r="BE8" s="89"/>
-      <c r="BF8" s="89"/>
-      <c r="BG8" s="89"/>
-      <c r="BH8" s="131" t="s">
-        <v>166</v>
-      </c>
-      <c r="BI8" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="BJ8" s="131" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK8" s="131" t="s">
-        <v>194</v>
-      </c>
-      <c r="BL8" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM8" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="BN8" s="131" t="s">
-        <v>166</v>
-      </c>
-      <c r="BO8" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="BP8" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="BQ8" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="BR8" s="178" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS8" s="178" t="s">
-        <v>200</v>
-      </c>
-      <c r="BT8" s="176" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU8" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="BV8" s="67" t="s">
-        <v>202</v>
-      </c>
-      <c r="BW8" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="BX8" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="BY8" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="BZ8" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA8" s="120" t="s">
-        <v>206</v>
-      </c>
-      <c r="CB8" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="CD8" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="CE8" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="CF8" s="181" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG8" s="181" t="s">
-        <v>206</v>
-      </c>
-      <c r="CH8" s="125" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI8" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ8" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="CK8" s="181" t="s">
-        <v>203</v>
-      </c>
-      <c r="CL8" s="181" t="s">
-        <v>206</v>
-      </c>
-      <c r="CM8" s="125" t="s">
-        <v>208</v>
-      </c>
-      <c r="CN8" s="89"/>
-      <c r="CO8" s="89"/>
-      <c r="CP8" s="89"/>
-      <c r="CQ8" s="89"/>
-      <c r="CR8" s="89"/>
-      <c r="CS8" s="89"/>
-      <c r="CT8" s="89"/>
-      <c r="CU8" s="89"/>
-      <c r="CV8" s="122" t="s">
-        <v>209</v>
-      </c>
-      <c r="CW8" s="130" t="s">
-        <v>210</v>
-      </c>
-      <c r="CX8" s="113" t="s">
-        <v>211</v>
-      </c>
-      <c r="CY8" s="164" t="s">
-        <v>211</v>
-      </c>
-      <c r="CZ8" s="111"/>
-      <c r="DA8" s="111"/>
-      <c r="DB8" s="111"/>
+      <c r="CQ16" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="CR16" s="64"/>
+      <c r="CS16" s="64"/>
+      <c r="CT16" s="70"/>
+      <c r="CU16" s="70"/>
+      <c r="CV16" s="131"/>
+      <c r="CW16" s="131"/>
     </row>
-    <row r="9" spans="1:106" ht="154.5" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="N9" s="88"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="S9" s="87"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB9" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC9" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="110" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="159" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN9" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO9" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP9" s="160"/>
-      <c r="AQ9" s="175" t="s">
+    <row r="17" spans="1:101" ht="84.95" customHeight="1">
+      <c r="A17" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="M17" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="O17" s="70"/>
+      <c r="P17" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q17" s="70"/>
+      <c r="CN17" s="64"/>
+      <c r="CO17" s="64"/>
+      <c r="CP17" s="64"/>
+      <c r="CQ17" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="AR9" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="AS9" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="AT9" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU9" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY9" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="AZ9" s="84" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA9" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="BB9" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE9" s="108" t="s">
-        <v>233</v>
-      </c>
-      <c r="BF9" s="185" t="s">
-        <v>234</v>
-      </c>
-      <c r="BG9" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH9" s="127" t="s">
-        <v>236</v>
-      </c>
-      <c r="BI9" s="131" t="s">
-        <v>237</v>
-      </c>
-      <c r="BJ9" s="131" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK9" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL9" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM9" s="124"/>
-      <c r="BN9" s="131" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO9" s="131" t="s">
-        <v>240</v>
-      </c>
-      <c r="BP9" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BQ9" s="179" t="s">
-        <v>242</v>
-      </c>
-      <c r="BR9" s="83"/>
-      <c r="BS9" s="83"/>
-      <c r="BT9" s="176" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU9" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="BV9" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="BW9" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX9" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="BY9" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BZ9" s="83"/>
-      <c r="CA9" s="108" t="s">
-        <v>233</v>
-      </c>
-      <c r="CB9" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="CC9" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="CD9" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="CE9" s="182" t="s">
-        <v>234</v>
-      </c>
-      <c r="CF9" s="108" t="s">
-        <v>233</v>
-      </c>
-      <c r="CG9" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="CH9" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="CI9" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="CJ9" s="183" t="s">
-        <v>227</v>
-      </c>
-      <c r="CK9" s="108" t="s">
-        <v>233</v>
-      </c>
-      <c r="CL9" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="CM9" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="CN9" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="CO9" s="111"/>
-      <c r="CP9" s="172"/>
-      <c r="CQ9" s="172"/>
-      <c r="CR9" s="83"/>
-      <c r="CS9" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="CT9" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="CU9" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="CV9" s="121" t="s">
-        <v>243</v>
-      </c>
-      <c r="CW9" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="CX9" s="161" t="s">
-        <v>221</v>
-      </c>
-      <c r="CY9" s="165" t="s">
-        <v>244</v>
-      </c>
-      <c r="CZ9" s="111"/>
-      <c r="DA9" s="171" t="s">
-        <v>245</v>
-      </c>
-      <c r="DB9" s="111"/>
+      <c r="CR17" s="64"/>
+      <c r="CS17" s="64"/>
+      <c r="CT17" s="64"/>
+      <c r="CU17" s="69"/>
+      <c r="CV17" s="131"/>
+      <c r="CW17" s="131"/>
     </row>
-    <row r="10" spans="1:106" ht="171" customHeight="1">
-      <c r="A10" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="56" t="s">
+    <row r="18" spans="1:101" ht="15" customHeight="1">
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q18" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="H10" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="L10" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="N10" s="88"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="S10" s="112" t="s">
-        <v>253</v>
-      </c>
-      <c r="T10" s="141" t="s">
-        <v>254</v>
-      </c>
-      <c r="U10" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="V10" s="89"/>
-      <c r="W10" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="X10" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB10" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC10" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH10" s="110" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI10" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ10" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK10" s="113" t="s">
-        <v>264</v>
-      </c>
-      <c r="AL10" s="106"/>
-      <c r="AM10" s="106"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="84" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS10" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="AT10" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU10" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="138" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX10" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="AY10" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ10" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="BA10" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="BB10" s="119"/>
-      <c r="BC10" s="138" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD10" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="BE10" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG10" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="BH10" s="131" t="s">
-        <v>275</v>
-      </c>
-      <c r="BI10" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="BJ10" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="BK10" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL10" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM10" s="83"/>
-      <c r="BN10" s="131" t="s">
-        <v>275</v>
-      </c>
-      <c r="BO10" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="BP10" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="BQ10" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR10" s="83"/>
-      <c r="BS10" s="83"/>
-      <c r="BT10" s="176" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU10" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="BV10" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="BW10" s="132" t="s">
-        <v>263</v>
-      </c>
-      <c r="BX10" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="BY10" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BZ10" s="83"/>
-      <c r="CA10" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="CB10" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="CC10" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="CD10" s="84" t="s">
-        <v>265</v>
-      </c>
-      <c r="CE10" s="183" t="s">
-        <v>270</v>
-      </c>
-      <c r="CF10" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="CG10" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="CH10" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="CI10" s="84" t="s">
-        <v>265</v>
-      </c>
-      <c r="CJ10" s="183" t="s">
-        <v>268</v>
-      </c>
-      <c r="CK10" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="CL10" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="CM10" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="CN10" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="CO10" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="CP10" s="111"/>
-      <c r="CQ10" s="111"/>
-      <c r="CR10" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="CS10" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="CT10" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="CU10" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="CV10" s="122" t="s">
-        <v>278</v>
-      </c>
-      <c r="CW10" s="129" t="s">
-        <v>279</v>
-      </c>
-      <c r="CX10" s="113" t="s">
-        <v>259</v>
-      </c>
-      <c r="CY10" s="166" t="s">
-        <v>280</v>
-      </c>
-      <c r="CZ10" s="111"/>
-      <c r="DA10" s="111"/>
-      <c r="DB10" s="111"/>
     </row>
-    <row r="11" spans="1:106" ht="137.25">
-      <c r="A11" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="O11" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="P11" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="R11" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="S11" s="87"/>
-      <c r="T11" s="142" t="s">
-        <v>284</v>
-      </c>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="89"/>
-      <c r="AA11" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="146" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH11" s="146" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI11" s="147" t="s">
+    <row r="19" spans="1:101" ht="15" customHeight="1">
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q19" s="72" t="s">
         <v>157</v>
-      </c>
-      <c r="AJ11" s="148" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK11" s="148"/>
-      <c r="AL11" s="149" t="s">
-        <v>271</v>
-      </c>
-      <c r="AM11" s="150"/>
-      <c r="AN11" s="150"/>
-      <c r="AO11" s="150"/>
-      <c r="AP11" s="150"/>
-      <c r="AQ11" s="150"/>
-      <c r="AR11" s="151" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS11" s="152" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT11" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU11" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV11" s="94"/>
-      <c r="AW11" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX11" s="151" t="s">
-        <v>158</v>
-      </c>
-      <c r="AY11" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ11" s="151" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA11" s="154" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB11" s="151" t="s">
-        <v>162</v>
-      </c>
-      <c r="BC11" s="135"/>
-      <c r="BD11" s="155" t="s">
-        <v>291</v>
-      </c>
-      <c r="BE11" s="94"/>
-      <c r="BF11" s="156"/>
-      <c r="BG11" s="156"/>
-      <c r="BH11" s="131" t="s">
-        <v>292</v>
-      </c>
-      <c r="BI11" s="131" t="s">
-        <v>293</v>
-      </c>
-      <c r="BJ11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL11" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM11" s="83"/>
-      <c r="BN11" s="131" t="s">
-        <v>292</v>
-      </c>
-      <c r="BO11" s="128" t="s">
-        <v>294</v>
-      </c>
-      <c r="BP11" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BQ11" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR11" s="83"/>
-      <c r="BS11" s="83"/>
-      <c r="BT11" s="176" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU11" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="BV11" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="BW11" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX11" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BY11" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BZ11" s="83"/>
-      <c r="CA11" s="147" t="s">
-        <v>157</v>
-      </c>
-      <c r="CB11" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="CC11" s="124"/>
-      <c r="CD11" s="151" t="s">
-        <v>290</v>
-      </c>
-      <c r="CE11" s="155" t="s">
-        <v>291</v>
-      </c>
-      <c r="CF11" s="147" t="s">
-        <v>157</v>
-      </c>
-      <c r="CG11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="CH11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="CI11" s="151" t="s">
-        <v>290</v>
-      </c>
-      <c r="CJ11" s="184" t="s">
-        <v>160</v>
-      </c>
-      <c r="CK11" s="147" t="s">
-        <v>157</v>
-      </c>
-      <c r="CL11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="CM11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="CN11" s="131" t="s">
-        <v>286</v>
-      </c>
-      <c r="CO11" s="131" t="s">
-        <v>286</v>
-      </c>
-      <c r="CP11" s="131" t="s">
-        <v>286</v>
-      </c>
-      <c r="CQ11" s="111"/>
-      <c r="CR11" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="CS11" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="CT11" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="CU11" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="CV11" s="157" t="s">
-        <v>296</v>
-      </c>
-      <c r="CW11" s="158" t="s">
-        <v>163</v>
-      </c>
-      <c r="CX11" s="261" t="s">
-        <v>287</v>
-      </c>
-      <c r="CY11" s="167" t="s">
-        <v>260</v>
-      </c>
-      <c r="CZ11" s="169" t="s">
-        <v>297</v>
-      </c>
-      <c r="DA11" s="171" t="s">
-        <v>298</v>
-      </c>
-      <c r="DB11" s="111"/>
-    </row>
-    <row r="12" spans="1:106" ht="91.5">
-      <c r="A12" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="N12" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="S12" s="112" t="s">
-        <v>304</v>
-      </c>
-      <c r="T12" s="141" t="s">
-        <v>254</v>
-      </c>
-      <c r="U12" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="V12" s="107" t="s">
-        <v>175</v>
-      </c>
-      <c r="W12" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB12" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC12" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="110" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI12" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ12" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK12" s="113" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL12" s="114" t="s">
-        <v>311</v>
-      </c>
-      <c r="AM12" s="118"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="118"/>
-      <c r="AQ12" s="118"/>
-      <c r="AR12" s="132" t="s">
-        <v>312</v>
-      </c>
-      <c r="AS12" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT12" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX12" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="AY12" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ12" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA12" s="132" t="s">
-        <v>312</v>
-      </c>
-      <c r="BB12" s="89"/>
-      <c r="BC12" s="138" t="s">
-        <v>267</v>
-      </c>
-      <c r="BD12" s="108" t="s">
-        <v>314</v>
-      </c>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="89"/>
-      <c r="BG12" s="131" t="s">
-        <v>314</v>
-      </c>
-      <c r="CN12" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="CO12" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="CP12" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="CQ12" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="CR12" s="83"/>
-      <c r="CS12" s="83"/>
-      <c r="CT12" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="CU12" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="CV12" s="122" t="s">
-        <v>316</v>
-      </c>
-      <c r="CW12" s="130" t="s">
-        <v>210</v>
-      </c>
-      <c r="CX12" s="262" t="s">
-        <v>307</v>
-      </c>
-      <c r="CY12" s="168" t="s">
-        <v>317</v>
-      </c>
-      <c r="CZ12" s="83"/>
-      <c r="DA12" s="83"/>
-      <c r="DB12" s="83"/>
-    </row>
-    <row r="13" spans="1:106" ht="76.5">
-      <c r="A13" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="O13" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="P13" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="R13" s="93"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="101" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK13" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="AL13" s="104" t="s">
-        <v>322</v>
-      </c>
-      <c r="AM13" s="136"/>
-      <c r="AN13" s="136"/>
-      <c r="AO13" s="136"/>
-      <c r="AP13" s="136"/>
-      <c r="AQ13" s="136"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="89"/>
-      <c r="AW13" s="83"/>
-      <c r="AX13" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="AY13" s="84" t="s">
-        <v>323</v>
-      </c>
-      <c r="AZ13" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA13" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB13" s="89"/>
-      <c r="BC13" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD13" s="89"/>
-      <c r="BE13" s="89"/>
-      <c r="BF13" s="89"/>
-      <c r="BG13" s="89"/>
-      <c r="CN13" s="83"/>
-      <c r="CO13" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="CP13" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="CQ13" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="CR13" s="83"/>
-      <c r="CS13" s="83"/>
-      <c r="CT13" s="83"/>
-      <c r="CU13" s="173" t="s">
-        <v>220</v>
-      </c>
-      <c r="CV13" s="83"/>
-      <c r="CX13" s="116"/>
-      <c r="CY13" s="168" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:106" ht="76.5">
-      <c r="A14" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="J14" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="O14" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="P14" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="R14" s="54"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="188"/>
-      <c r="Z14" s="188"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="63"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="AL14" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM14" s="137"/>
-      <c r="AN14" s="137"/>
-      <c r="AO14" s="137"/>
-      <c r="AP14" s="137"/>
-      <c r="AQ14" s="137"/>
-      <c r="AR14" s="119"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="89"/>
-      <c r="AV14" s="89"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="AY14" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="AZ14" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA14" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB14" s="89"/>
-      <c r="BC14" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="BD14" s="89"/>
-      <c r="BE14" s="89"/>
-      <c r="BF14" s="89"/>
-      <c r="BG14" s="89"/>
-      <c r="CN14" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="CO14" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="CP14" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="CQ14" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="CR14" s="89"/>
-      <c r="CS14" s="89"/>
-      <c r="CT14" s="89"/>
-      <c r="CU14" s="89"/>
-      <c r="CV14" s="83"/>
-      <c r="CX14" s="116"/>
-      <c r="CY14" s="81"/>
-    </row>
-    <row r="15" spans="1:106" ht="91.5">
-      <c r="A15" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="I15" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="M15" s="89"/>
-      <c r="N15" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="189"/>
-      <c r="Z15" s="189"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="134"/>
-      <c r="AN15" s="134"/>
-      <c r="AO15" s="134"/>
-      <c r="AP15" s="134"/>
-      <c r="AQ15" s="134"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="83"/>
-      <c r="AX15" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="AY15" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="AZ15" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA15" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB15" s="89"/>
-      <c r="BC15" s="83"/>
-      <c r="BD15" s="89"/>
-      <c r="BE15" s="89"/>
-      <c r="BF15" s="89"/>
-      <c r="BG15" s="89"/>
-      <c r="CN15" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="CO15" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="CP15" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="CQ15" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="CR15" s="172"/>
-      <c r="CS15" s="172"/>
-      <c r="CT15" s="172"/>
-      <c r="CU15" s="172"/>
-      <c r="CV15" s="83"/>
-      <c r="CX15" s="117"/>
-      <c r="CY15" s="82"/>
-    </row>
-    <row r="16" spans="1:106" ht="84.95" customHeight="1">
-      <c r="A16" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="M16" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="N16" s="71" t="s">
-        <v>332</v>
-      </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="CN16" s="83"/>
-      <c r="CO16" s="83"/>
-      <c r="CP16" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="CQ16" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="CR16" s="83"/>
-      <c r="CS16" s="83"/>
-      <c r="CT16" s="89"/>
-      <c r="CU16" s="89"/>
-    </row>
-    <row r="17" spans="1:99" ht="84.95" customHeight="1">
-      <c r="A17" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="M17" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="N17" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="O17" s="74"/>
-      <c r="P17" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q17" s="74"/>
-      <c r="CN17" s="83"/>
-      <c r="CO17" s="83"/>
-      <c r="CP17" s="83"/>
-      <c r="CQ17" s="173" t="s">
-        <v>220</v>
-      </c>
-      <c r="CR17" s="83"/>
-      <c r="CS17" s="83"/>
-      <c r="CT17" s="83"/>
-      <c r="CU17" s="88"/>
-    </row>
-    <row r="18" spans="1:99" ht="15" customHeight="1">
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q18" s="75" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:99" ht="15" customHeight="1">
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q19" s="76" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="AM5:BF5"/>
+  <mergeCells count="39">
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="CV5:CW5"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="BN6:BU6"/>
     <mergeCell ref="AM6:AQ6"/>
     <mergeCell ref="AR6:AW6"/>
     <mergeCell ref="AX6:BC6"/>
     <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CC6"/>
+    <mergeCell ref="CI6:CM6"/>
+    <mergeCell ref="BH5:BM5"/>
+    <mergeCell ref="BV5:CC5"/>
+    <mergeCell ref="CD5:CH5"/>
+    <mergeCell ref="CD6:CH6"/>
+    <mergeCell ref="BN5:BU5"/>
+    <mergeCell ref="BH6:BM6"/>
+    <mergeCell ref="AM5:BF5"/>
     <mergeCell ref="B2:V2"/>
     <mergeCell ref="W2:AL2"/>
     <mergeCell ref="B3:V3"/>
     <mergeCell ref="W3:AL4"/>
     <mergeCell ref="B4:V4"/>
+    <mergeCell ref="CI5:CM5"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="CN5:CQ5"/>
+    <mergeCell ref="CR5:CU5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J6:M6"/>
@@ -8098,33 +7847,183 @@
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="W6:X6"/>
-    <mergeCell ref="CI5:CM5"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="CN5:CQ5"/>
-    <mergeCell ref="CR5:CU5"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CC6"/>
-    <mergeCell ref="CI6:CM6"/>
-    <mergeCell ref="BH5:BM5"/>
-    <mergeCell ref="BV5:CC5"/>
-    <mergeCell ref="CD5:CH5"/>
-    <mergeCell ref="CD6:CH6"/>
-    <mergeCell ref="BN5:BU5"/>
-    <mergeCell ref="BH6:BM6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="63" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="3" scale="10" fitToHeight="6" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C397771-1A2A-5F4D-B3F6-F4CEA4DED347}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="147"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="146"/>
+      <c r="B1" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="146">
+        <v>570</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="146">
+        <v>591</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="146">
+        <v>525</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="146">
+        <v>609</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="146">
+        <v>613</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="146">
+        <v>299</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="146">
+        <v>223</v>
+      </c>
+      <c r="B8" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="146">
+        <v>571</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="146">
+        <v>572</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="146" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FE281A6E490164995812917410E5206" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8fcdc8cda6cd6c421b0036055ddb6ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60eed870-47b7-4398-bacb-923956a4e3c6" xmlns:ns3="6e788143-6890-4a14-a447-95e8858fb65c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfe6e9c76325de70081e1f21d7debdf" ns2:_="" ns3:_="">
     <xsd:import namespace="60eed870-47b7-4398-bacb-923956a4e3c6"/>
@@ -8301,7 +8200,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8310,14 +8209,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}"/>
 </file>
--- a/MAE_Planner_AY24.xlsx
+++ b/MAE_Planner_AY24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nps01.sharepoint.com/sites/MAECurricula/Shared Documents/General/CourseAndTeachingPlanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="738" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43ADBE56-4930-4026-A7B6-60F6694964BF}"/>
+  <xr:revisionPtr revIDLastSave="739" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5234AB-424B-4399-8EFE-86B8CF6E2018}"/>
   <bookViews>
     <workbookView xWindow="30400" yWindow="500" windowWidth="49260" windowHeight="19400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3750,24 +3750,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3777,21 +3759,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3972,6 +3975,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4001,12 +4007,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4376,23 +4376,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.95">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="M1" s="159" t="s">
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="M1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="162"/>
       <c r="R1" s="34"/>
       <c r="U1" s="22" t="s">
         <v>2</v>
@@ -4405,25 +4405,25 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="M2" s="163" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="M2" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="166"/>
       <c r="R2" s="35"/>
-      <c r="U2" s="166" t="s">
+      <c r="U2" s="167" t="s">
         <v>7</v>
       </c>
       <c r="AF2" s="3" t="s">
@@ -4442,15 +4442,15 @@
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
-      <c r="M3" s="169" t="s">
+      <c r="M3" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="172"/>
       <c r="R3" s="36"/>
-      <c r="U3" s="167"/>
+      <c r="U3" s="168"/>
     </row>
     <row r="4" spans="1:35" ht="15.95">
       <c r="B4" s="60"/>
@@ -4461,15 +4461,15 @@
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
-      <c r="M4" s="172" t="s">
+      <c r="M4" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="175"/>
       <c r="R4" s="37"/>
-      <c r="U4" s="167"/>
+      <c r="U4" s="168"/>
     </row>
     <row r="5" spans="1:35" ht="15.75" customHeight="1">
       <c r="B5" s="60"/>
@@ -4478,15 +4478,15 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="60"/>
-      <c r="M5" s="175" t="s">
+      <c r="M5" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="176"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="177"/>
       <c r="R5" s="53"/>
-      <c r="U5" s="168"/>
+      <c r="U5" s="169"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1">
       <c r="B6" s="60"/>
@@ -4496,11 +4496,11 @@
       <c r="F6" s="60"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="179"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="180"/>
       <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1">
@@ -4560,45 +4560,45 @@
         <v>18</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="153" t="s">
+      <c r="I9" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="156"/>
-      <c r="K9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="158"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="153" t="s">
+      <c r="M9" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="156"/>
-      <c r="O9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="158"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="153" t="s">
+      <c r="Q9" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="156"/>
-      <c r="S9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="158"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="153" t="s">
+      <c r="U9" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="156"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="158"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="153" t="s">
+      <c r="Z9" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="154"/>
-      <c r="AE9" s="153" t="s">
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="155"/>
+      <c r="AE9" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="154"/>
-      <c r="AH9" s="153" t="s">
+      <c r="AF9" s="155"/>
+      <c r="AH9" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="154"/>
+      <c r="AI9" s="155"/>
     </row>
     <row r="10" spans="1:35" ht="78.75" customHeight="1">
       <c r="B10" s="31" t="s">
@@ -5303,9 +5303,9 @@
     <row r="24" spans="1:35">
       <c r="B24" s="1"/>
       <c r="C24" s="23"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
       <c r="H24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -5499,9 +5499,9 @@
   </sheetPr>
   <dimension ref="A1:DE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="33840" topLeftCell="CT1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="CU8" sqref="CU8"/>
+      <selection pane="topRight" activeCell="DC11" sqref="DC11"/>
       <selection activeCell="CV9" sqref="CV9"/>
     </sheetView>
   </sheetViews>
@@ -5563,47 +5563,47 @@
       <c r="AQ1" s="63"/>
     </row>
     <row r="2" spans="1:109" ht="15" hidden="1" customHeight="1">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199" t="s">
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="200"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="201"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
       <c r="AO2" s="66"/>
@@ -5611,47 +5611,47 @@
       <c r="AQ2" s="66"/>
     </row>
     <row r="3" spans="1:109" ht="108.95" hidden="1" customHeight="1">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="204" t="s">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="205"/>
-      <c r="AD3" s="205"/>
-      <c r="AE3" s="205"/>
-      <c r="AF3" s="205"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="205"/>
-      <c r="AJ3" s="205"/>
-      <c r="AK3" s="205"/>
-      <c r="AL3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="206"/>
+      <c r="AJ3" s="206"/>
+      <c r="AK3" s="206"/>
+      <c r="AL3" s="207"/>
       <c r="AM3" s="67"/>
       <c r="AN3" s="67"/>
       <c r="AO3" s="67"/>
@@ -5659,45 +5659,45 @@
       <c r="AQ3" s="67"/>
     </row>
     <row r="4" spans="1:109" ht="65.099999999999994" hidden="1" customHeight="1">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="211"/>
-      <c r="S4" s="211"/>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="208"/>
-      <c r="AG4" s="208"/>
-      <c r="AH4" s="208"/>
-      <c r="AI4" s="208"/>
-      <c r="AJ4" s="208"/>
-      <c r="AK4" s="208"/>
-      <c r="AL4" s="209"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="212"/>
+      <c r="T4" s="212"/>
+      <c r="U4" s="212"/>
+      <c r="V4" s="213"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="209"/>
+      <c r="Z4" s="209"/>
+      <c r="AA4" s="209"/>
+      <c r="AB4" s="209"/>
+      <c r="AC4" s="209"/>
+      <c r="AD4" s="209"/>
+      <c r="AE4" s="209"/>
+      <c r="AF4" s="209"/>
+      <c r="AG4" s="209"/>
+      <c r="AH4" s="209"/>
+      <c r="AI4" s="209"/>
+      <c r="AJ4" s="209"/>
+      <c r="AK4" s="209"/>
+      <c r="AL4" s="210"/>
       <c r="AM4" s="67"/>
       <c r="AN4" s="67"/>
       <c r="AO4" s="67"/>
@@ -5705,286 +5705,286 @@
       <c r="AQ4" s="67"/>
     </row>
     <row r="5" spans="1:109" ht="47.1" customHeight="1">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="180"/>
-      <c r="AD5" s="180"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="180"/>
-      <c r="AG5" s="180"/>
-      <c r="AH5" s="180"/>
-      <c r="AI5" s="180"/>
-      <c r="AJ5" s="180"/>
-      <c r="AK5" s="180"/>
-      <c r="AL5" s="180"/>
-      <c r="AM5" s="194" t="s">
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="181"/>
+      <c r="AM5" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="AN5" s="195"/>
-      <c r="AO5" s="195"/>
-      <c r="AP5" s="195"/>
-      <c r="AQ5" s="195"/>
-      <c r="AR5" s="195"/>
-      <c r="AS5" s="195"/>
-      <c r="AT5" s="195"/>
-      <c r="AU5" s="195"/>
-      <c r="AV5" s="195"/>
-      <c r="AW5" s="195"/>
-      <c r="AX5" s="195"/>
-      <c r="AY5" s="195"/>
-      <c r="AZ5" s="195"/>
-      <c r="BA5" s="195"/>
-      <c r="BB5" s="195"/>
-      <c r="BC5" s="195"/>
-      <c r="BD5" s="195"/>
-      <c r="BE5" s="195"/>
-      <c r="BF5" s="181"/>
+      <c r="AN5" s="196"/>
+      <c r="AO5" s="196"/>
+      <c r="AP5" s="196"/>
+      <c r="AQ5" s="196"/>
+      <c r="AR5" s="196"/>
+      <c r="AS5" s="196"/>
+      <c r="AT5" s="196"/>
+      <c r="AU5" s="196"/>
+      <c r="AV5" s="196"/>
+      <c r="AW5" s="196"/>
+      <c r="AX5" s="196"/>
+      <c r="AY5" s="196"/>
+      <c r="AZ5" s="196"/>
+      <c r="BA5" s="196"/>
+      <c r="BB5" s="196"/>
+      <c r="BC5" s="196"/>
+      <c r="BD5" s="196"/>
+      <c r="BE5" s="196"/>
+      <c r="BF5" s="182"/>
       <c r="BG5" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="BH5" s="180" t="s">
+      <c r="BH5" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="BI5" s="180"/>
-      <c r="BJ5" s="180"/>
-      <c r="BK5" s="180"/>
-      <c r="BL5" s="180"/>
-      <c r="BM5" s="180"/>
-      <c r="BN5" s="213" t="s">
+      <c r="BI5" s="181"/>
+      <c r="BJ5" s="181"/>
+      <c r="BK5" s="181"/>
+      <c r="BL5" s="181"/>
+      <c r="BM5" s="181"/>
+      <c r="BN5" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="BO5" s="217"/>
-      <c r="BP5" s="217"/>
-      <c r="BQ5" s="217"/>
-      <c r="BR5" s="217"/>
-      <c r="BS5" s="217"/>
-      <c r="BT5" s="217"/>
-      <c r="BU5" s="214"/>
-      <c r="BV5" s="180" t="s">
+      <c r="BO5" s="219"/>
+      <c r="BP5" s="219"/>
+      <c r="BQ5" s="219"/>
+      <c r="BR5" s="219"/>
+      <c r="BS5" s="219"/>
+      <c r="BT5" s="219"/>
+      <c r="BU5" s="216"/>
+      <c r="BV5" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="BW5" s="180"/>
-      <c r="BX5" s="180"/>
-      <c r="BY5" s="180"/>
-      <c r="BZ5" s="180"/>
-      <c r="CA5" s="180"/>
-      <c r="CB5" s="180"/>
-      <c r="CC5" s="180"/>
-      <c r="CD5" s="180" t="s">
+      <c r="BW5" s="181"/>
+      <c r="BX5" s="181"/>
+      <c r="BY5" s="181"/>
+      <c r="BZ5" s="181"/>
+      <c r="CA5" s="181"/>
+      <c r="CB5" s="181"/>
+      <c r="CC5" s="181"/>
+      <c r="CD5" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="CE5" s="180"/>
-      <c r="CF5" s="180"/>
-      <c r="CG5" s="180"/>
-      <c r="CH5" s="180"/>
-      <c r="CI5" s="180" t="s">
+      <c r="CE5" s="181"/>
+      <c r="CF5" s="181"/>
+      <c r="CG5" s="181"/>
+      <c r="CH5" s="181"/>
+      <c r="CI5" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="CJ5" s="180"/>
-      <c r="CK5" s="180"/>
-      <c r="CL5" s="180"/>
-      <c r="CM5" s="180"/>
-      <c r="CN5" s="183" t="s">
+      <c r="CJ5" s="181"/>
+      <c r="CK5" s="181"/>
+      <c r="CL5" s="181"/>
+      <c r="CM5" s="181"/>
+      <c r="CN5" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="CO5" s="184"/>
-      <c r="CP5" s="184"/>
-      <c r="CQ5" s="184"/>
-      <c r="CR5" s="183" t="s">
+      <c r="CO5" s="185"/>
+      <c r="CP5" s="185"/>
+      <c r="CQ5" s="185"/>
+      <c r="CR5" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="CS5" s="184"/>
-      <c r="CT5" s="184"/>
-      <c r="CU5" s="184"/>
-      <c r="CV5" s="213" t="s">
+      <c r="CS5" s="185"/>
+      <c r="CT5" s="185"/>
+      <c r="CU5" s="185"/>
+      <c r="CV5" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="CW5" s="214"/>
+      <c r="CW5" s="216"/>
       <c r="CX5" s="102" t="s">
         <v>115</v>
       </c>
       <c r="CY5" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="CZ5" s="139" t="s">
+      <c r="CZ5" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="DA5" s="223" t="s">
+      <c r="DA5" s="214" t="s">
         <v>118</v>
       </c>
-      <c r="DB5" s="224"/>
+      <c r="DB5" s="214"/>
     </row>
     <row r="6" spans="1:109" ht="77.25" customHeight="1">
       <c r="A6" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185" t="s">
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185" t="s">
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185" t="s">
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="O6" s="185"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="188" t="s">
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="193" t="s">
+      <c r="S6" s="189"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="189"/>
+      <c r="W6" s="194" t="s">
         <v>124</v>
       </c>
-      <c r="X6" s="192"/>
-      <c r="Y6" s="189" t="s">
+      <c r="X6" s="193"/>
+      <c r="Y6" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="Z6" s="190"/>
-      <c r="AA6" s="192" t="s">
+      <c r="Z6" s="191"/>
+      <c r="AA6" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="AB6" s="192"/>
-      <c r="AC6" s="215" t="s">
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="AD6" s="216"/>
-      <c r="AE6" s="186" t="s">
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="AF6" s="187"/>
-      <c r="AG6" s="186" t="s">
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="AH6" s="187"/>
-      <c r="AI6" s="186" t="s">
+      <c r="AH6" s="188"/>
+      <c r="AI6" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="AJ6" s="191"/>
+      <c r="AJ6" s="192"/>
       <c r="AK6" s="125" t="s">
         <v>131</v>
       </c>
       <c r="AL6" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="AM6" s="218" t="s">
+      <c r="AM6" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="AN6" s="218"/>
-      <c r="AO6" s="218"/>
-      <c r="AP6" s="218"/>
-      <c r="AQ6" s="218"/>
-      <c r="AR6" s="218" t="s">
+      <c r="AN6" s="220"/>
+      <c r="AO6" s="220"/>
+      <c r="AP6" s="220"/>
+      <c r="AQ6" s="220"/>
+      <c r="AR6" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="AS6" s="218"/>
-      <c r="AT6" s="218"/>
-      <c r="AU6" s="218"/>
-      <c r="AV6" s="218"/>
-      <c r="AW6" s="218"/>
-      <c r="AX6" s="218" t="s">
+      <c r="AS6" s="220"/>
+      <c r="AT6" s="220"/>
+      <c r="AU6" s="220"/>
+      <c r="AV6" s="220"/>
+      <c r="AW6" s="220"/>
+      <c r="AX6" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="AY6" s="218"/>
-      <c r="AZ6" s="218"/>
-      <c r="BA6" s="218"/>
-      <c r="BB6" s="218"/>
-      <c r="BC6" s="218"/>
-      <c r="BD6" s="219" t="s">
+      <c r="AY6" s="220"/>
+      <c r="AZ6" s="220"/>
+      <c r="BA6" s="220"/>
+      <c r="BB6" s="220"/>
+      <c r="BC6" s="220"/>
+      <c r="BD6" s="221" t="s">
         <v>136</v>
       </c>
-      <c r="BE6" s="219"/>
-      <c r="BF6" s="219"/>
+      <c r="BE6" s="221"/>
+      <c r="BF6" s="221"/>
       <c r="BG6" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="BH6" s="180" t="s">
+      <c r="BH6" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="BI6" s="180"/>
-      <c r="BJ6" s="180"/>
-      <c r="BK6" s="180"/>
-      <c r="BL6" s="180"/>
-      <c r="BM6" s="180"/>
-      <c r="BN6" s="213" t="s">
+      <c r="BI6" s="181"/>
+      <c r="BJ6" s="181"/>
+      <c r="BK6" s="181"/>
+      <c r="BL6" s="181"/>
+      <c r="BM6" s="181"/>
+      <c r="BN6" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="BO6" s="217"/>
-      <c r="BP6" s="217"/>
-      <c r="BQ6" s="217"/>
-      <c r="BR6" s="217"/>
-      <c r="BS6" s="217"/>
-      <c r="BT6" s="217"/>
-      <c r="BU6" s="214"/>
-      <c r="BV6" s="213" t="s">
+      <c r="BO6" s="219"/>
+      <c r="BP6" s="219"/>
+      <c r="BQ6" s="219"/>
+      <c r="BR6" s="219"/>
+      <c r="BS6" s="219"/>
+      <c r="BT6" s="219"/>
+      <c r="BU6" s="216"/>
+      <c r="BV6" s="215" t="s">
         <v>138</v>
       </c>
-      <c r="BW6" s="217"/>
-      <c r="BX6" s="217"/>
-      <c r="BY6" s="217"/>
-      <c r="BZ6" s="214"/>
-      <c r="CA6" s="220" t="s">
+      <c r="BW6" s="219"/>
+      <c r="BX6" s="219"/>
+      <c r="BY6" s="219"/>
+      <c r="BZ6" s="216"/>
+      <c r="CA6" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="CB6" s="221"/>
-      <c r="CC6" s="222"/>
-      <c r="CD6" s="180" t="s">
+      <c r="CB6" s="223"/>
+      <c r="CC6" s="224"/>
+      <c r="CD6" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="CE6" s="180"/>
-      <c r="CF6" s="180"/>
-      <c r="CG6" s="180"/>
-      <c r="CH6" s="180"/>
-      <c r="CI6" s="180" t="s">
+      <c r="CE6" s="181"/>
+      <c r="CF6" s="181"/>
+      <c r="CG6" s="181"/>
+      <c r="CH6" s="181"/>
+      <c r="CI6" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="CJ6" s="180"/>
-      <c r="CK6" s="180"/>
-      <c r="CL6" s="180"/>
-      <c r="CM6" s="180"/>
+      <c r="CJ6" s="181"/>
+      <c r="CK6" s="181"/>
+      <c r="CL6" s="181"/>
+      <c r="CM6" s="181"/>
       <c r="CN6" s="98" t="s">
         <v>142</v>
       </c>
@@ -6015,14 +6015,14 @@
         <v>146</v>
       </c>
       <c r="CY6" s="132"/>
-      <c r="CZ6" s="139"/>
-      <c r="DA6" s="140"/>
-      <c r="DB6" s="148"/>
-      <c r="DC6" s="181" t="s">
+      <c r="CZ6" s="151"/>
+      <c r="DA6" s="143"/>
+      <c r="DB6" s="143"/>
+      <c r="DC6" s="182" t="s">
         <v>147</v>
       </c>
-      <c r="DD6" s="182"/>
-      <c r="DE6" s="182"/>
+      <c r="DD6" s="183"/>
+      <c r="DE6" s="183"/>
     </row>
     <row r="7" spans="1:109" ht="91.5" hidden="1">
       <c r="A7" s="70" t="s">
@@ -6166,13 +6166,13 @@
       <c r="CY7" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="CZ7" s="80" t="s">
+      <c r="CZ7" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="DA7" s="141" t="s">
+      <c r="DA7" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="DB7" s="149"/>
+      <c r="DB7" s="144"/>
       <c r="DC7" s="137"/>
       <c r="DD7" s="78"/>
       <c r="DE7" s="78"/>
@@ -6404,13 +6404,13 @@
       <c r="CY8" s="134" t="s">
         <v>213</v>
       </c>
-      <c r="CZ8" s="80" t="s">
+      <c r="CZ8" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="DA8" s="141" t="s">
+      <c r="DA8" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="DB8" s="69"/>
+      <c r="DB8" s="145"/>
       <c r="DC8" s="137"/>
       <c r="DD8" s="78"/>
       <c r="DE8" s="78"/>
@@ -6665,13 +6665,13 @@
       <c r="CY9" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="CZ9" s="80" t="s">
+      <c r="CZ9" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="DA9" s="142" t="s">
+      <c r="DA9" s="146" t="s">
         <v>251</v>
       </c>
-      <c r="DB9" s="141" t="s">
+      <c r="DB9" s="144" t="s">
         <v>216</v>
       </c>
       <c r="DC9" s="137"/>
@@ -6934,13 +6934,13 @@
       <c r="CY10" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="CZ10" s="80" t="s">
+      <c r="CZ10" s="135" t="s">
         <v>266</v>
       </c>
-      <c r="DA10" s="141" t="s">
+      <c r="DA10" s="144" t="s">
         <v>287</v>
       </c>
-      <c r="DB10" s="69"/>
+      <c r="DB10" s="145"/>
       <c r="DC10" s="137"/>
       <c r="DD10" s="78"/>
       <c r="DE10" s="78"/>
@@ -7185,21 +7185,21 @@
       <c r="CU11" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="CV11" s="145"/>
-      <c r="CW11" s="145"/>
+      <c r="CV11" s="139"/>
+      <c r="CW11" s="139"/>
       <c r="CX11" s="106" t="s">
         <v>304</v>
       </c>
       <c r="CY11" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="CZ11" s="143" t="s">
+      <c r="CZ11" s="152" t="s">
         <v>294</v>
       </c>
-      <c r="DA11" s="144" t="s">
+      <c r="DA11" s="147" t="s">
         <v>267</v>
       </c>
-      <c r="DB11" s="150"/>
+      <c r="DB11" s="148"/>
       <c r="DC11" s="138" t="s">
         <v>305</v>
       </c>
@@ -7376,13 +7376,13 @@
       <c r="CY12" s="134" t="s">
         <v>213</v>
       </c>
-      <c r="CZ12" s="143" t="s">
+      <c r="CZ12" s="152" t="s">
         <v>315</v>
       </c>
-      <c r="DA12" s="99" t="s">
+      <c r="DA12" s="149" t="s">
         <v>323</v>
       </c>
-      <c r="DB12" s="151"/>
+      <c r="DB12" s="150"/>
       <c r="DC12" s="91"/>
       <c r="DD12" s="64"/>
       <c r="DE12" s="64"/>
@@ -7507,10 +7507,10 @@
       </c>
       <c r="CX13" s="64"/>
       <c r="CZ13" s="64"/>
-      <c r="DA13" s="99" t="s">
+      <c r="DA13" s="153" t="s">
         <v>329</v>
       </c>
-      <c r="DB13" s="152"/>
+      <c r="DB13" s="142"/>
     </row>
     <row r="14" spans="1:109" ht="76.5">
       <c r="A14" s="70" t="s">
@@ -7864,12 +7864,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="147"/>
+    <col min="1" max="1" width="10.85546875" style="141"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="146"/>
+      <c r="A1" s="140"/>
       <c r="B1" s="64" t="s">
         <v>338</v>
       </c>
@@ -7881,7 +7881,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="146">
+      <c r="A2" s="140">
         <v>570</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -7895,7 +7895,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="146">
+      <c r="A3" s="140">
         <v>591</v>
       </c>
       <c r="B3" s="64" t="s">
@@ -7909,7 +7909,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="146">
+      <c r="A4" s="140">
         <v>525</v>
       </c>
       <c r="B4" s="64" t="s">
@@ -7923,7 +7923,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="146">
+      <c r="A5" s="140">
         <v>609</v>
       </c>
       <c r="B5" s="64" t="s">
@@ -7937,7 +7937,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="146">
+      <c r="A6" s="140">
         <v>613</v>
       </c>
       <c r="B6" s="64" t="s">
@@ -7951,7 +7951,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="146">
+      <c r="A7" s="140">
         <v>299</v>
       </c>
       <c r="B7" s="64" t="s">
@@ -7965,7 +7965,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="146">
+      <c r="A8" s="140">
         <v>223</v>
       </c>
       <c r="B8" s="128" t="s">
@@ -7979,7 +7979,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="146">
+      <c r="A9" s="140">
         <v>571</v>
       </c>
       <c r="B9" s="128" t="s">
@@ -7993,7 +7993,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="146">
+      <c r="A10" s="140">
         <v>572</v>
       </c>
       <c r="B10" s="128" t="s">
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="140" t="s">
         <v>353</v>
       </c>
       <c r="B11" s="128"/>
@@ -8024,6 +8024,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FE281A6E490164995812917410E5206" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8fcdc8cda6cd6c421b0036055ddb6ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60eed870-47b7-4398-bacb-923956a4e3c6" xmlns:ns3="6e788143-6890-4a14-a447-95e8858fb65c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdfe6e9c76325de70081e1f21d7debdf" ns2:_="" ns3:_="">
     <xsd:import namespace="60eed870-47b7-4398-bacb-923956a4e3c6"/>
@@ -8200,7 +8206,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8209,20 +8215,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}"/>
 </file>
--- a/MAE_Planner_AY24.xlsx
+++ b/MAE_Planner_AY24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nps01.sharepoint.com/sites/MAECurricula/Shared Documents/General/CourseAndTeachingPlanning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="739" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5234AB-424B-4399-8EFE-86B8CF6E2018}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="13_ncr:1_{21AC55D9-B8D2-A147-9513-EAD1A2B181E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3642835-A174-E841-A171-DA3C04706DBA}"/>
   <bookViews>
-    <workbookView xWindow="30400" yWindow="500" windowWidth="49260" windowHeight="19400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20520" yWindow="500" windowWidth="49260" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="533 10 quarter (Summer)" sheetId="6" state="hidden" r:id="rId1"/>
@@ -1549,6 +1549,9 @@
 Async</t>
   </si>
   <si>
+    <t>MAE Folk Teaching for Other Departments</t>
+  </si>
+  <si>
     <t>Academic Year/Qtr</t>
   </si>
   <si>
@@ -1641,9 +1644,6 @@
   </si>
   <si>
     <t>Applied Trajectory Optimization</t>
-  </si>
-  <si>
-    <t>MAE Folk Teaching for Other Departments</t>
   </si>
   <si>
     <t xml:space="preserve">23/3
@@ -2002,6 +2002,11 @@
     <t>TS3000
 Electrical Power Engineering
 [Kragh]</t>
+  </si>
+  <si>
+    <t>TS4003
+Total Ship Systems Engineering
+[Didoszak]</t>
   </si>
   <si>
     <t xml:space="preserve">MA/AE4824
@@ -2324,11 +2329,6 @@
 [Horner]</t>
   </si>
   <si>
-    <t>ME3611
-Mech of Solids II
-[Gordis]</t>
-  </si>
-  <si>
     <t>AE4502
 Hypersonic
 [Brophy]</t>
@@ -2432,7 +2432,7 @@
   <si>
     <t>ME4522
 FEM in Structural Dynamics
-[Kwon]</t>
+[Gordis]</t>
   </si>
   <si>
     <t>ME3150
@@ -2482,11 +2482,6 @@
 Capstone Design Project</t>
   </si>
   <si>
-    <t>TS4003
-Total Ship Systems Engineering
-[Didoszak]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -2611,13 +2606,18 @@
   </si>
   <si>
     <t>Hahn</t>
+  </si>
+  <si>
+    <t>ME3611
+Mech of Solids II
+[Alley]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3027,7 +3027,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -3244,17 +3244,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color auto="1"/>
       </left>
@@ -3346,31 +3335,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3682,10 +3651,10 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3709,12 +3678,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3795,6 +3758,12 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3876,30 +3845,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3909,46 +3881,46 @@
     <xf numFmtId="0" fontId="23" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3957,46 +3929,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4348,34 +4305,34 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="12" width="1.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
-    <col min="19" max="20" width="1.7109375" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" customWidth="1"/>
-    <col min="24" max="25" width="1.7109375" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" customWidth="1"/>
-    <col min="29" max="29" width="1.7109375" customWidth="1"/>
-    <col min="30" max="30" width="1.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="2.28515625" customWidth="1"/>
-    <col min="34" max="35" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="12" width="1.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="16" width="1.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" customWidth="1"/>
+    <col min="19" max="20" width="1.6640625" customWidth="1"/>
+    <col min="21" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" customWidth="1"/>
+    <col min="24" max="25" width="1.6640625" customWidth="1"/>
+    <col min="26" max="27" width="14.5" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" customWidth="1"/>
+    <col min="29" max="29" width="1.6640625" customWidth="1"/>
+    <col min="30" max="30" width="1.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="14.5" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="2.33203125" customWidth="1"/>
+    <col min="34" max="35" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.95">
+    <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="159" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +4361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="163" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
@@ -4452,7 +4409,7 @@
       <c r="R3" s="36"/>
       <c r="U3" s="168"/>
     </row>
-    <row r="4" spans="1:35" ht="15.95">
+    <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
@@ -4471,7 +4428,7 @@
       <c r="R4" s="37"/>
       <c r="U4" s="168"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" customHeight="1">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="60"/>
       <c r="C5" s="29"/>
       <c r="D5" s="60"/>
@@ -4488,7 +4445,7 @@
       <c r="R5" s="53"/>
       <c r="U5" s="169"/>
     </row>
-    <row r="6" spans="1:35" ht="19.5" customHeight="1">
+    <row r="6" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -4503,7 +4460,7 @@
       <c r="Q6" s="180"/>
       <c r="R6" s="53"/>
     </row>
-    <row r="7" spans="1:35" ht="11.25" customHeight="1">
+    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
@@ -4522,7 +4479,7 @@
       <c r="Y7" s="60"/>
       <c r="AC7" s="60"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -4542,7 +4499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="63" customHeight="1">
+    <row r="9" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>17</v>
@@ -4600,7 +4557,7 @@
       </c>
       <c r="AI9" s="155"/>
     </row>
-    <row r="10" spans="1:35" ht="78.75" customHeight="1">
+    <row r="10" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
         <v>25</v>
       </c>
@@ -4657,7 +4614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="78.75" customHeight="1">
+    <row r="11" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4716,7 +4673,7 @@
       </c>
       <c r="AI11" s="27"/>
     </row>
-    <row r="12" spans="1:35" ht="78.75" customHeight="1">
+    <row r="12" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4774,7 +4731,7 @@
       <c r="AH12" s="24"/>
       <c r="AI12" s="27"/>
     </row>
-    <row r="13" spans="1:35" ht="78.75" customHeight="1">
+    <row r="13" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4834,7 +4791,7 @@
       <c r="AH13" s="24"/>
       <c r="AI13" s="27"/>
     </row>
-    <row r="14" spans="1:35" ht="78.75" customHeight="1">
+    <row r="14" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4898,7 +4855,7 @@
       <c r="AH14" s="24"/>
       <c r="AI14" s="27"/>
     </row>
-    <row r="15" spans="1:35" ht="78.75" customHeight="1">
+    <row r="15" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4969,7 +4926,7 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="27"/>
     </row>
-    <row r="16" spans="1:35" ht="78.75" customHeight="1">
+    <row r="16" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5043,7 +5000,7 @@
       <c r="AH16" s="24"/>
       <c r="AI16" s="27"/>
     </row>
-    <row r="17" spans="1:35" ht="78.75" customHeight="1">
+    <row r="17" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -5114,7 +5071,7 @@
       <c r="AH17" s="24"/>
       <c r="AI17" s="27"/>
     </row>
-    <row r="18" spans="1:35" ht="78.75" customHeight="1">
+    <row r="18" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -5176,7 +5133,7 @@
       <c r="AH18" s="24"/>
       <c r="AI18" s="27"/>
     </row>
-    <row r="19" spans="1:35" ht="78.75" customHeight="1">
+    <row r="19" spans="1:35" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -5248,7 +5205,7 @@
       </c>
       <c r="AI19" s="46"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="H20" s="16"/>
       <c r="K20" s="16"/>
@@ -5261,7 +5218,7 @@
       <c r="Y20" s="16"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="H21" s="16"/>
       <c r="K21" s="16"/>
@@ -5274,7 +5231,7 @@
       <c r="Y21" s="16"/>
       <c r="AC21" s="15"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="H22" s="17"/>
       <c r="K22" s="17"/>
@@ -5287,7 +5244,7 @@
       <c r="Y22" s="17"/>
       <c r="AC22" s="16"/>
     </row>
-    <row r="23" spans="1:35" ht="48.75" customHeight="1">
+    <row r="23" spans="1:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="H23" s="17"/>
       <c r="K23" s="17"/>
@@ -5300,7 +5257,7 @@
       <c r="Y23" s="17"/>
       <c r="AC23" s="16"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="23"/>
       <c r="E24" s="156"/>
@@ -5317,7 +5274,7 @@
       <c r="Y24" s="17"/>
       <c r="AC24" s="17"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="H25" s="17"/>
@@ -5331,7 +5288,7 @@
       <c r="Y25" s="17"/>
       <c r="AC25" s="17"/>
     </row>
-    <row r="26" spans="1:35" ht="16.5" customHeight="1">
+    <row r="26" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -5343,14 +5300,14 @@
       <c r="Y26" s="18"/>
       <c r="AC26" s="17"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="I27" s="12"/>
       <c r="AC27" s="17"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AC28" s="18"/>
     </row>
-    <row r="29" spans="1:35" ht="30" customHeight="1">
+    <row r="29" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I29" s="2"/>
     </row>
   </sheetData>
@@ -5499,19 +5456,19 @@
   </sheetPr>
   <dimension ref="A1:DE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="33840" topLeftCell="CT1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="DC11" sqref="DC11"/>
-      <selection activeCell="CV9" sqref="CV9"/>
+    <sheetView tabSelected="1" topLeftCell="O5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="33840" topLeftCell="CT1"/>
+      <selection activeCell="AC11" sqref="AC11"/>
+      <selection pane="topRight" activeCell="CU8" sqref="CU8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="118" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="118" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>98</v>
       </c>
@@ -5554,7 +5511,7 @@
       </c>
       <c r="AL1" s="63">
         <f ca="1">TODAY()</f>
-        <v>45056</v>
+        <v>45062</v>
       </c>
       <c r="AM1" s="63"/>
       <c r="AN1" s="63"/>
@@ -5562,255 +5519,255 @@
       <c r="AP1" s="63"/>
       <c r="AQ1" s="63"/>
     </row>
-    <row r="2" spans="1:109" ht="15" hidden="1" customHeight="1">
-      <c r="B2" s="197" t="s">
+    <row r="2" spans="1:109" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="200" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="200"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
       <c r="AO2" s="66"/>
       <c r="AP2" s="66"/>
       <c r="AQ2" s="66"/>
     </row>
-    <row r="3" spans="1:109" ht="108.95" hidden="1" customHeight="1">
-      <c r="B3" s="202" t="s">
+    <row r="3" spans="1:109" ht="109" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="205" t="s">
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="206"/>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="206"/>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="206"/>
-      <c r="AJ3" s="206"/>
-      <c r="AK3" s="206"/>
-      <c r="AL3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="207"/>
+      <c r="AL3" s="208"/>
       <c r="AM3" s="67"/>
       <c r="AN3" s="67"/>
       <c r="AO3" s="67"/>
       <c r="AP3" s="67"/>
       <c r="AQ3" s="67"/>
     </row>
-    <row r="4" spans="1:109" ht="65.099999999999994" hidden="1" customHeight="1">
-      <c r="B4" s="211" t="s">
+    <row r="4" spans="1:109" ht="65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="212"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="212"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="212"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="213"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="209"/>
-      <c r="Z4" s="209"/>
-      <c r="AA4" s="209"/>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="209"/>
-      <c r="AE4" s="209"/>
-      <c r="AF4" s="209"/>
-      <c r="AG4" s="209"/>
-      <c r="AH4" s="209"/>
-      <c r="AI4" s="209"/>
-      <c r="AJ4" s="209"/>
-      <c r="AK4" s="209"/>
-      <c r="AL4" s="210"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="213"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="214"/>
+      <c r="W4" s="209"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
+      <c r="AB4" s="210"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="210"/>
+      <c r="AE4" s="210"/>
+      <c r="AF4" s="210"/>
+      <c r="AG4" s="210"/>
+      <c r="AH4" s="210"/>
+      <c r="AI4" s="210"/>
+      <c r="AJ4" s="210"/>
+      <c r="AK4" s="210"/>
+      <c r="AL4" s="211"/>
       <c r="AM4" s="67"/>
       <c r="AN4" s="67"/>
       <c r="AO4" s="67"/>
       <c r="AP4" s="67"/>
       <c r="AQ4" s="67"/>
     </row>
-    <row r="5" spans="1:109" ht="47.1" customHeight="1">
-      <c r="B5" s="181" t="s">
+    <row r="5" spans="1:109" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="195" t="s">
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="183"/>
+      <c r="AB5" s="183"/>
+      <c r="AC5" s="183"/>
+      <c r="AD5" s="183"/>
+      <c r="AE5" s="183"/>
+      <c r="AF5" s="183"/>
+      <c r="AG5" s="183"/>
+      <c r="AH5" s="183"/>
+      <c r="AI5" s="183"/>
+      <c r="AJ5" s="183"/>
+      <c r="AK5" s="183"/>
+      <c r="AL5" s="183"/>
+      <c r="AM5" s="196" t="s">
         <v>106</v>
       </c>
-      <c r="AN5" s="196"/>
-      <c r="AO5" s="196"/>
-      <c r="AP5" s="196"/>
-      <c r="AQ5" s="196"/>
-      <c r="AR5" s="196"/>
-      <c r="AS5" s="196"/>
-      <c r="AT5" s="196"/>
-      <c r="AU5" s="196"/>
-      <c r="AV5" s="196"/>
-      <c r="AW5" s="196"/>
-      <c r="AX5" s="196"/>
-      <c r="AY5" s="196"/>
-      <c r="AZ5" s="196"/>
-      <c r="BA5" s="196"/>
-      <c r="BB5" s="196"/>
-      <c r="BC5" s="196"/>
-      <c r="BD5" s="196"/>
-      <c r="BE5" s="196"/>
-      <c r="BF5" s="182"/>
-      <c r="BG5" s="129" t="s">
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="197"/>
+      <c r="AT5" s="197"/>
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="197"/>
+      <c r="AY5" s="197"/>
+      <c r="AZ5" s="197"/>
+      <c r="BA5" s="197"/>
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="197"/>
+      <c r="BE5" s="197"/>
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="BH5" s="181" t="s">
+      <c r="BH5" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="215" t="s">
+      <c r="BI5" s="183"/>
+      <c r="BJ5" s="183"/>
+      <c r="BK5" s="183"/>
+      <c r="BL5" s="183"/>
+      <c r="BM5" s="183"/>
+      <c r="BN5" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="BO5" s="219"/>
-      <c r="BP5" s="219"/>
-      <c r="BQ5" s="219"/>
-      <c r="BR5" s="219"/>
-      <c r="BS5" s="219"/>
-      <c r="BT5" s="219"/>
-      <c r="BU5" s="216"/>
-      <c r="BV5" s="181" t="s">
+      <c r="BO5" s="217"/>
+      <c r="BP5" s="217"/>
+      <c r="BQ5" s="217"/>
+      <c r="BR5" s="217"/>
+      <c r="BS5" s="217"/>
+      <c r="BT5" s="217"/>
+      <c r="BU5" s="188"/>
+      <c r="BV5" s="183" t="s">
         <v>110</v>
       </c>
-      <c r="BW5" s="181"/>
-      <c r="BX5" s="181"/>
-      <c r="BY5" s="181"/>
-      <c r="BZ5" s="181"/>
-      <c r="CA5" s="181"/>
-      <c r="CB5" s="181"/>
-      <c r="CC5" s="181"/>
-      <c r="CD5" s="181" t="s">
+      <c r="BW5" s="183"/>
+      <c r="BX5" s="183"/>
+      <c r="BY5" s="183"/>
+      <c r="BZ5" s="183"/>
+      <c r="CA5" s="183"/>
+      <c r="CB5" s="183"/>
+      <c r="CC5" s="183"/>
+      <c r="CD5" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="CE5" s="181"/>
-      <c r="CF5" s="181"/>
-      <c r="CG5" s="181"/>
-      <c r="CH5" s="181"/>
-      <c r="CI5" s="181" t="s">
+      <c r="CE5" s="183"/>
+      <c r="CF5" s="183"/>
+      <c r="CG5" s="183"/>
+      <c r="CH5" s="183"/>
+      <c r="CI5" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="CJ5" s="181"/>
-      <c r="CK5" s="181"/>
-      <c r="CL5" s="181"/>
-      <c r="CM5" s="181"/>
+      <c r="CJ5" s="183"/>
+      <c r="CK5" s="183"/>
+      <c r="CL5" s="183"/>
+      <c r="CM5" s="183"/>
       <c r="CN5" s="184" t="s">
         <v>112</v>
       </c>
@@ -5823,208 +5780,211 @@
       <c r="CS5" s="185"/>
       <c r="CT5" s="185"/>
       <c r="CU5" s="185"/>
-      <c r="CV5" s="215" t="s">
+      <c r="CV5" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="CW5" s="216"/>
+      <c r="CW5" s="188"/>
       <c r="CX5" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="CY5" s="132" t="s">
+      <c r="CY5" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="CZ5" s="151" t="s">
+      <c r="CZ5" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="DA5" s="214" t="s">
+      <c r="DA5" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="DB5" s="214"/>
+      <c r="DB5" s="186"/>
+      <c r="DC5" s="181" t="s">
+        <v>119</v>
+      </c>
+      <c r="DD5" s="182"/>
+      <c r="DE5" s="182"/>
     </row>
-    <row r="6" spans="1:109" ht="77.25" customHeight="1">
+    <row r="6" spans="1:109" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186" t="s">
+      <c r="B6" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186" t="s">
-        <v>120</v>
-      </c>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186" t="s">
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="189" t="s">
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="189"/>
-      <c r="T6" s="189"/>
-      <c r="U6" s="189"/>
-      <c r="V6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="190" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="190"/>
+      <c r="T6" s="190"/>
+      <c r="U6" s="190"/>
+      <c r="V6" s="190"/>
       <c r="W6" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="Z6" s="191"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="191" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z6" s="192"/>
       <c r="AA6" s="193" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB6" s="193"/>
-      <c r="AC6" s="217" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD6" s="218"/>
-      <c r="AE6" s="187" t="s">
+      <c r="AC6" s="193" t="s">
         <v>128</v>
       </c>
-      <c r="AF6" s="188"/>
-      <c r="AG6" s="187" t="s">
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193" t="s">
         <v>129</v>
       </c>
-      <c r="AH6" s="188"/>
-      <c r="AI6" s="187" t="s">
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193" t="s">
         <v>130</v>
       </c>
-      <c r="AJ6" s="192"/>
-      <c r="AK6" s="125" t="s">
+      <c r="AH6" s="193"/>
+      <c r="AI6" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="AL6" s="126" t="s">
+      <c r="AJ6" s="193"/>
+      <c r="AK6" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="AM6" s="220" t="s">
+      <c r="AL6" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="AN6" s="220"/>
-      <c r="AO6" s="220"/>
-      <c r="AP6" s="220"/>
-      <c r="AQ6" s="220"/>
-      <c r="AR6" s="220" t="s">
+      <c r="AM6" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="220"/>
-      <c r="AU6" s="220"/>
-      <c r="AV6" s="220"/>
-      <c r="AW6" s="220"/>
-      <c r="AX6" s="220" t="s">
+      <c r="AN6" s="215"/>
+      <c r="AO6" s="215"/>
+      <c r="AP6" s="215"/>
+      <c r="AQ6" s="215"/>
+      <c r="AR6" s="215" t="s">
         <v>135</v>
       </c>
-      <c r="AY6" s="220"/>
-      <c r="AZ6" s="220"/>
-      <c r="BA6" s="220"/>
-      <c r="BB6" s="220"/>
-      <c r="BC6" s="220"/>
-      <c r="BD6" s="221" t="s">
+      <c r="AS6" s="215"/>
+      <c r="AT6" s="215"/>
+      <c r="AU6" s="215"/>
+      <c r="AV6" s="215"/>
+      <c r="AW6" s="215"/>
+      <c r="AX6" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="BE6" s="221"/>
-      <c r="BF6" s="221"/>
+      <c r="AY6" s="215"/>
+      <c r="AZ6" s="215"/>
+      <c r="BA6" s="215"/>
+      <c r="BB6" s="215"/>
+      <c r="BC6" s="215"/>
+      <c r="BD6" s="216" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE6" s="216"/>
+      <c r="BF6" s="216"/>
       <c r="BG6" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH6" s="181" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH6" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="BI6" s="181"/>
-      <c r="BJ6" s="181"/>
-      <c r="BK6" s="181"/>
-      <c r="BL6" s="181"/>
-      <c r="BM6" s="181"/>
-      <c r="BN6" s="215" t="s">
+      <c r="BI6" s="183"/>
+      <c r="BJ6" s="183"/>
+      <c r="BK6" s="183"/>
+      <c r="BL6" s="183"/>
+      <c r="BM6" s="183"/>
+      <c r="BN6" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="BO6" s="219"/>
-      <c r="BP6" s="219"/>
-      <c r="BQ6" s="219"/>
-      <c r="BR6" s="219"/>
-      <c r="BS6" s="219"/>
-      <c r="BT6" s="219"/>
-      <c r="BU6" s="216"/>
-      <c r="BV6" s="215" t="s">
-        <v>138</v>
-      </c>
-      <c r="BW6" s="219"/>
-      <c r="BX6" s="219"/>
-      <c r="BY6" s="219"/>
-      <c r="BZ6" s="216"/>
-      <c r="CA6" s="222" t="s">
+      <c r="BO6" s="217"/>
+      <c r="BP6" s="217"/>
+      <c r="BQ6" s="217"/>
+      <c r="BR6" s="217"/>
+      <c r="BS6" s="217"/>
+      <c r="BT6" s="217"/>
+      <c r="BU6" s="188"/>
+      <c r="BV6" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="CB6" s="223"/>
-      <c r="CC6" s="224"/>
-      <c r="CD6" s="181" t="s">
+      <c r="BW6" s="217"/>
+      <c r="BX6" s="217"/>
+      <c r="BY6" s="217"/>
+      <c r="BZ6" s="188"/>
+      <c r="CA6" s="218" t="s">
         <v>140</v>
       </c>
-      <c r="CE6" s="181"/>
-      <c r="CF6" s="181"/>
-      <c r="CG6" s="181"/>
-      <c r="CH6" s="181"/>
-      <c r="CI6" s="181" t="s">
+      <c r="CB6" s="219"/>
+      <c r="CC6" s="220"/>
+      <c r="CD6" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="CJ6" s="181"/>
-      <c r="CK6" s="181"/>
-      <c r="CL6" s="181"/>
-      <c r="CM6" s="181"/>
+      <c r="CE6" s="183"/>
+      <c r="CF6" s="183"/>
+      <c r="CG6" s="183"/>
+      <c r="CH6" s="183"/>
+      <c r="CI6" s="183" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ6" s="183"/>
+      <c r="CK6" s="183"/>
+      <c r="CL6" s="183"/>
+      <c r="CM6" s="183"/>
       <c r="CN6" s="98" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CO6" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="CP6" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="CQ6" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="CR6" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="CP6" s="98" t="s">
+      <c r="CS6" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="CQ6" s="98" t="s">
+      <c r="CT6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="CR6" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="CS6" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="CT6" s="98" t="s">
-        <v>144</v>
-      </c>
       <c r="CU6" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="CV6" s="130"/>
-      <c r="CW6" s="130"/>
+        <v>146</v>
+      </c>
+      <c r="CV6" s="128"/>
+      <c r="CW6" s="128"/>
       <c r="CX6" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="CY6" s="132"/>
-      <c r="CZ6" s="151"/>
-      <c r="DA6" s="143"/>
-      <c r="DB6" s="143"/>
-      <c r="DC6" s="182" t="s">
         <v>147</v>
       </c>
-      <c r="DD6" s="183"/>
-      <c r="DE6" s="183"/>
+      <c r="CY6" s="130"/>
+      <c r="CZ6" s="149"/>
+      <c r="DA6" s="141"/>
+      <c r="DB6" s="141"/>
+      <c r="DC6" s="181"/>
+      <c r="DD6" s="182"/>
+      <c r="DE6" s="182"/>
     </row>
-    <row r="7" spans="1:109" ht="91.5" hidden="1">
+    <row r="7" spans="1:109" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
         <v>148</v>
       </c>
@@ -6073,7 +6033,7 @@
       <c r="Z7" s="70"/>
       <c r="AA7" s="70"/>
       <c r="AB7" s="70"/>
-      <c r="AC7" s="69"/>
+      <c r="AC7" s="70"/>
       <c r="AD7" s="70"/>
       <c r="AE7" s="55" t="s">
         <v>158</v>
@@ -6163,21 +6123,21 @@
       <c r="CV7" s="64"/>
       <c r="CW7" s="64"/>
       <c r="CX7" s="64"/>
-      <c r="CY7" s="133" t="s">
+      <c r="CY7" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="CZ7" s="135" t="s">
+      <c r="CZ7" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="DA7" s="144" t="s">
+      <c r="DA7" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="DB7" s="144"/>
-      <c r="DC7" s="137"/>
+      <c r="DB7" s="142"/>
+      <c r="DC7" s="135"/>
       <c r="DD7" s="78"/>
       <c r="DE7" s="78"/>
     </row>
-    <row r="8" spans="1:109" ht="108.75" customHeight="1">
+    <row r="8" spans="1:109" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="70" t="s">
         <v>168</v>
       </c>
@@ -6395,27 +6355,27 @@
       <c r="CV8" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="CW8" s="134" t="s">
+      <c r="CW8" s="132" t="s">
         <v>213</v>
       </c>
       <c r="CX8" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="CY8" s="134" t="s">
-        <v>213</v>
-      </c>
-      <c r="CZ8" s="135" t="s">
+      <c r="CY8" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="CZ8" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="DA8" s="144" t="s">
+      <c r="DA8" s="142" t="s">
         <v>216</v>
       </c>
-      <c r="DB8" s="145"/>
-      <c r="DC8" s="137"/>
+      <c r="DB8" s="143"/>
+      <c r="DC8" s="135"/>
       <c r="DD8" s="78"/>
       <c r="DE8" s="78"/>
     </row>
-    <row r="9" spans="1:109" ht="154.5" customHeight="1">
+    <row r="9" spans="1:109" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="70" t="s">
         <v>217</v>
       </c>
@@ -6485,17 +6445,19 @@
       <c r="AG9" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="AH9" s="78"/>
+      <c r="AH9" s="77" t="s">
+        <v>228</v>
+      </c>
       <c r="AI9" s="75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AJ9" s="64"/>
       <c r="AK9" s="64"/>
       <c r="AL9" s="81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM9" s="107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN9" s="57" t="s">
         <v>186</v>
@@ -6505,16 +6467,16 @@
       </c>
       <c r="AP9" s="108"/>
       <c r="AQ9" s="114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AR9" s="65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AS9" s="65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AT9" s="55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AU9" s="57" t="s">
         <v>186</v>
@@ -6522,41 +6484,41 @@
       <c r="AV9" s="70"/>
       <c r="AW9" s="64"/>
       <c r="AX9" s="54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AY9" s="54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AZ9" s="65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BA9" s="65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BB9" s="65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BC9" s="64"/>
       <c r="BD9" s="75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BE9" s="75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BF9" s="124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BG9" s="65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BH9" s="92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BI9" s="94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BJ9" s="94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BK9" s="57" t="s">
         <v>186</v>
@@ -6566,16 +6528,16 @@
       </c>
       <c r="BM9" s="89"/>
       <c r="BN9" s="94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BO9" s="94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BP9" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BQ9" s="118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BR9" s="64"/>
       <c r="BS9" s="64"/>
@@ -6586,20 +6548,20 @@
         <v>199</v>
       </c>
       <c r="BV9" s="109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BW9" s="78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BX9" s="78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BY9" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BZ9" s="64"/>
       <c r="CA9" s="75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CB9" s="55" t="s">
         <v>226</v>
@@ -6608,84 +6570,84 @@
         <v>225</v>
       </c>
       <c r="CD9" s="65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CE9" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="CF9" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="CF9" s="75" t="s">
-        <v>240</v>
-      </c>
       <c r="CG9" s="75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CH9" s="57" t="s">
         <v>186</v>
       </c>
       <c r="CI9" s="65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CJ9" s="122" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CK9" s="75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CL9" s="75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CM9" s="57" t="s">
         <v>186</v>
       </c>
       <c r="CN9" s="109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CO9" s="78"/>
       <c r="CP9" s="111"/>
       <c r="CQ9" s="111"/>
       <c r="CR9" s="64"/>
       <c r="CS9" s="109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CT9" s="109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CU9" s="109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CV9" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="CW9" s="135" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW9" s="133" t="s">
         <v>223</v>
       </c>
       <c r="CX9" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="CY9" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="CY9" s="133" t="s">
         <v>223</v>
       </c>
-      <c r="CZ9" s="135" t="s">
+      <c r="CZ9" s="133" t="s">
         <v>226</v>
       </c>
-      <c r="DA9" s="146" t="s">
-        <v>251</v>
-      </c>
-      <c r="DB9" s="144" t="s">
+      <c r="DA9" s="144" t="s">
+        <v>252</v>
+      </c>
+      <c r="DB9" s="142" t="s">
         <v>216</v>
       </c>
-      <c r="DC9" s="137"/>
+      <c r="DC9" s="135"/>
       <c r="DD9" s="110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DE9" s="78"/>
     </row>
-    <row r="10" spans="1:109" ht="171" customHeight="1">
+    <row r="10" spans="1:109" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
@@ -6694,13 +6656,13 @@
         <v>169</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H10" s="54" t="s">
         <v>171</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>173</v>
@@ -6709,67 +6671,67 @@
         <v>174</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
       <c r="P10" s="70"/>
       <c r="Q10" s="70"/>
       <c r="R10" s="56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S10" s="79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T10" s="99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U10" s="62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V10" s="70"/>
       <c r="W10" s="55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y10" s="70"/>
       <c r="Z10" s="70"/>
       <c r="AA10" s="56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AB10" s="55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AC10" s="55" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD10" s="64"/>
       <c r="AE10" s="55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF10" s="70"/>
       <c r="AG10" s="77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AH10" s="77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI10" s="55" t="s">
         <v>182</v>
       </c>
       <c r="AJ10" s="55" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK10" s="80" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL10" s="81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM10" s="73"/>
       <c r="AN10" s="73"/>
@@ -6777,55 +6739,55 @@
       <c r="AP10" s="73"/>
       <c r="AQ10" s="73"/>
       <c r="AR10" s="65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AS10" s="65" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AT10" s="55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AU10" s="57" t="s">
         <v>186</v>
       </c>
       <c r="AV10" s="70"/>
       <c r="AW10" s="97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AX10" s="65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AY10" s="65" t="s">
         <v>209</v>
       </c>
       <c r="AZ10" s="65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BA10" s="65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BB10" s="84"/>
       <c r="BC10" s="97" t="s">
         <v>183</v>
       </c>
       <c r="BD10" s="75" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BE10" s="75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BF10" s="64"/>
       <c r="BG10" s="65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BH10" s="94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BI10" s="94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BJ10" s="55" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BK10" s="57" t="s">
         <v>186</v>
@@ -6835,16 +6797,16 @@
       </c>
       <c r="BM10" s="64"/>
       <c r="BN10" s="94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BO10" s="94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BP10" s="55" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BQ10" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BR10" s="64"/>
       <c r="BS10" s="64"/>
@@ -6855,53 +6817,53 @@
         <v>199</v>
       </c>
       <c r="BV10" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BW10" s="95" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BX10" s="78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BY10" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BZ10" s="64"/>
       <c r="CA10" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="CB10" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="CC10" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="CD10" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="CE10" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF10" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="CG10" s="75" t="s">
         <v>280</v>
-      </c>
-      <c r="CB10" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="CC10" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="CD10" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE10" s="122" t="s">
-        <v>278</v>
-      </c>
-      <c r="CF10" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="CG10" s="75" t="s">
-        <v>279</v>
       </c>
       <c r="CH10" s="57" t="s">
         <v>186</v>
       </c>
       <c r="CI10" s="65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="CJ10" s="122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CK10" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="CL10" s="75" t="s">
         <v>280</v>
-      </c>
-      <c r="CL10" s="75" t="s">
-        <v>279</v>
       </c>
       <c r="CM10" s="57" t="s">
         <v>186</v>
@@ -6915,46 +6877,46 @@
       <c r="CP10" s="78"/>
       <c r="CQ10" s="78"/>
       <c r="CR10" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CS10" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CT10" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CU10" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CV10" s="70"/>
       <c r="CW10" s="70"/>
       <c r="CX10" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="CY10" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="CZ10" s="135" t="s">
-        <v>266</v>
-      </c>
-      <c r="DA10" s="144" t="s">
+      <c r="CY10" s="131" t="s">
         <v>287</v>
       </c>
-      <c r="DB10" s="145"/>
-      <c r="DC10" s="137"/>
+      <c r="CZ10" s="133" t="s">
+        <v>267</v>
+      </c>
+      <c r="DA10" s="142" t="s">
+        <v>288</v>
+      </c>
+      <c r="DB10" s="143"/>
+      <c r="DC10" s="135"/>
       <c r="DD10" s="78"/>
       <c r="DE10" s="78"/>
     </row>
-    <row r="11" spans="1:109" ht="137.25">
+    <row r="11" spans="1:109" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="70" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="54" t="s">
@@ -6988,30 +6950,30 @@
         <v>221</v>
       </c>
       <c r="R11" s="76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S11" s="68"/>
       <c r="T11" s="100" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U11" s="70"/>
       <c r="V11" s="70"/>
       <c r="W11" s="55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="X11" s="68"/>
       <c r="Y11" s="55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z11" s="75" t="s">
         <v>164</v>
       </c>
       <c r="AA11" s="76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AB11" s="70"/>
       <c r="AC11" s="55" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="AD11" s="70"/>
       <c r="AE11" s="55" t="s">
@@ -7031,7 +6993,7 @@
         <v>157</v>
       </c>
       <c r="AK11" s="72"/>
-      <c r="AL11" s="127" t="s">
+      <c r="AL11" s="125" t="s">
         <v>297</v>
       </c>
       <c r="AM11" s="83"/>
@@ -7043,7 +7005,7 @@
         <v>298</v>
       </c>
       <c r="AS11" s="55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AT11" s="57" t="s">
         <v>186</v>
@@ -7100,10 +7062,10 @@
         <v>302</v>
       </c>
       <c r="BP11" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BQ11" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BR11" s="64"/>
       <c r="BS11" s="64"/>
@@ -7117,13 +7079,13 @@
         <v>303</v>
       </c>
       <c r="BW11" s="78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BX11" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BY11" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BZ11" s="64"/>
       <c r="CA11" s="103" t="s">
@@ -7164,13 +7126,13 @@
         <v>186</v>
       </c>
       <c r="CN11" s="94" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="CO11" s="94" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="CP11" s="94" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="CQ11" s="78"/>
       <c r="CR11" s="109" t="s">
@@ -7185,22 +7147,22 @@
       <c r="CU11" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="CV11" s="139"/>
-      <c r="CW11" s="139"/>
+      <c r="CV11" s="137"/>
+      <c r="CW11" s="137"/>
       <c r="CX11" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="CY11" s="136" t="s">
+      <c r="CY11" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="CZ11" s="152" t="s">
+      <c r="CZ11" s="150" t="s">
         <v>294</v>
       </c>
-      <c r="DA11" s="147" t="s">
-        <v>267</v>
-      </c>
-      <c r="DB11" s="148"/>
-      <c r="DC11" s="138" t="s">
+      <c r="DA11" s="145" t="s">
+        <v>268</v>
+      </c>
+      <c r="DB11" s="146"/>
+      <c r="DC11" s="136" t="s">
         <v>305</v>
       </c>
       <c r="DD11" s="110" t="s">
@@ -7208,7 +7170,7 @@
       </c>
       <c r="DE11" s="78"/>
     </row>
-    <row r="12" spans="1:109" ht="91.5">
+    <row r="12" spans="1:109" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="70" t="s">
         <v>307</v>
       </c>
@@ -7218,10 +7180,10 @@
         <v>308</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G12" s="70"/>
       <c r="H12" s="70"/>
@@ -7236,7 +7198,7 @@
         <v>171</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N12" s="54" t="s">
         <v>173</v>
@@ -7245,7 +7207,7 @@
         <v>174</v>
       </c>
       <c r="P12" s="54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="54" t="s">
         <v>310</v>
@@ -7256,9 +7218,7 @@
       <c r="S12" s="79" t="s">
         <v>312</v>
       </c>
-      <c r="T12" s="99" t="s">
-        <v>261</v>
-      </c>
+      <c r="T12" s="111"/>
       <c r="U12" s="62" t="s">
         <v>177</v>
       </c>
@@ -7310,7 +7270,7 @@
         <v>319</v>
       </c>
       <c r="AS12" s="55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AT12" s="57" t="s">
         <v>186</v>
@@ -7318,7 +7278,7 @@
       <c r="AU12" s="64"/>
       <c r="AV12" s="70"/>
       <c r="AW12" s="97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AX12" s="65" t="s">
         <v>320</v>
@@ -7334,7 +7294,7 @@
       </c>
       <c r="BB12" s="70"/>
       <c r="BC12" s="97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BD12" s="75" t="s">
         <v>321</v>
@@ -7367,27 +7327,27 @@
       <c r="CV12" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="CW12" s="134" t="s">
+      <c r="CW12" s="132" t="s">
         <v>213</v>
       </c>
       <c r="CX12" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="CY12" s="134" t="s">
+      <c r="CY12" s="132" t="s">
         <v>213</v>
       </c>
-      <c r="CZ12" s="152" t="s">
+      <c r="CZ12" s="150" t="s">
         <v>315</v>
       </c>
-      <c r="DA12" s="149" t="s">
+      <c r="DA12" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="DB12" s="150"/>
+      <c r="DB12" s="148"/>
       <c r="DC12" s="91"/>
       <c r="DD12" s="64"/>
       <c r="DE12" s="64"/>
     </row>
-    <row r="13" spans="1:109" ht="76.5">
+    <row r="13" spans="1:109" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="70" t="s">
         <v>324</v>
       </c>
@@ -7404,7 +7364,7 @@
       </c>
       <c r="G13" s="70"/>
       <c r="H13" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I13" s="70"/>
       <c r="J13" s="54" t="s">
@@ -7442,14 +7402,14 @@
       <c r="AF13" s="72"/>
       <c r="AG13" s="78"/>
       <c r="AH13" s="77" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="AI13" s="72"/>
       <c r="AJ13" s="72" t="s">
         <v>157</v>
       </c>
       <c r="AK13" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL13" s="64"/>
       <c r="AM13" s="83"/>
@@ -7464,13 +7424,13 @@
       <c r="AV13" s="70"/>
       <c r="AW13" s="64"/>
       <c r="AX13" s="65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AY13" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ13" s="55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BA13" s="57" t="s">
         <v>186</v>
@@ -7485,13 +7445,13 @@
       <c r="BG13" s="70"/>
       <c r="CN13" s="64"/>
       <c r="CO13" s="109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CP13" s="109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CQ13" s="109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CR13" s="64"/>
       <c r="CS13" s="64"/>
@@ -7500,21 +7460,21 @@
         <v>225</v>
       </c>
       <c r="CV13" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="CW13" s="135" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW13" s="133" t="s">
         <v>223</v>
       </c>
       <c r="CX13" s="64"/>
       <c r="CZ13" s="64"/>
-      <c r="DA13" s="153" t="s">
+      <c r="DA13" s="151" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB13" s="140"/>
+    </row>
+    <row r="14" spans="1:109" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="70" t="s">
         <v>329</v>
-      </c>
-      <c r="DB13" s="142"/>
-    </row>
-    <row r="14" spans="1:109" ht="76.5">
-      <c r="A14" s="70" t="s">
-        <v>330</v>
       </c>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -7526,10 +7486,10 @@
         <v>308</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
@@ -7544,7 +7504,7 @@
         <v>171</v>
       </c>
       <c r="Q14" s="54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R14" s="70"/>
       <c r="S14" s="70"/>
@@ -7566,7 +7526,7 @@
       <c r="AI14" s="70"/>
       <c r="AJ14" s="70"/>
       <c r="AK14" s="74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL14" s="64"/>
       <c r="AM14" s="108"/>
@@ -7581,36 +7541,36 @@
       <c r="AV14" s="70"/>
       <c r="AW14" s="64"/>
       <c r="AX14" s="65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AY14" s="65" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AZ14" s="55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BA14" s="57" t="s">
         <v>186</v>
       </c>
       <c r="BB14" s="70"/>
       <c r="BC14" s="97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BD14" s="70"/>
       <c r="BE14" s="70"/>
       <c r="BF14" s="70"/>
       <c r="BG14" s="70"/>
       <c r="CN14" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CO14" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CP14" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CQ14" s="94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CR14" s="70"/>
       <c r="CS14" s="70"/>
@@ -7620,9 +7580,9 @@
       <c r="CW14" s="70"/>
       <c r="CX14" s="64"/>
     </row>
-    <row r="15" spans="1:109" ht="91.5">
+    <row r="15" spans="1:109" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -7637,11 +7597,11 @@
         <v>157</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K15" s="70"/>
       <c r="L15" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M15" s="70"/>
       <c r="N15" s="54" t="s">
@@ -7686,7 +7646,7 @@
         <v>298</v>
       </c>
       <c r="AY15" s="55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AZ15" s="57" t="s">
         <v>186</v>
@@ -7720,9 +7680,9 @@
       <c r="CW15" s="111"/>
       <c r="CX15" s="64"/>
     </row>
-    <row r="16" spans="1:109" ht="84.95" customHeight="1">
+    <row r="16" spans="1:109" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J16" s="70"/>
       <c r="K16" s="70"/>
@@ -7730,10 +7690,10 @@
         <v>308</v>
       </c>
       <c r="M16" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N16" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
@@ -7750,10 +7710,10 @@
       <c r="CS16" s="64"/>
       <c r="CT16" s="70"/>
       <c r="CU16" s="70"/>
-      <c r="CV16" s="131"/>
-      <c r="CW16" s="131"/>
+      <c r="CV16" s="129"/>
+      <c r="CW16" s="129"/>
     </row>
-    <row r="17" spans="1:101" ht="84.95" customHeight="1">
+    <row r="17" spans="1:101" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
         <v>324</v>
       </c>
@@ -7766,11 +7726,11 @@
         <v>157</v>
       </c>
       <c r="N17" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O17" s="70"/>
       <c r="P17" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="70"/>
       <c r="CN17" s="64"/>
@@ -7783,20 +7743,20 @@
       <c r="CS17" s="64"/>
       <c r="CT17" s="64"/>
       <c r="CU17" s="69"/>
-      <c r="CV17" s="131"/>
-      <c r="CW17" s="131"/>
+      <c r="CV17" s="129"/>
+      <c r="CW17" s="129"/>
     </row>
-    <row r="18" spans="1:101" ht="15" customHeight="1">
+    <row r="18" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N18" s="70"/>
       <c r="O18" s="70"/>
       <c r="P18" s="57" t="s">
         <v>308</v>
       </c>
       <c r="Q18" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:101" ht="15" customHeight="1">
+    <row r="19" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N19" s="70"/>
       <c r="O19" s="70"/>
       <c r="P19" s="57" t="s">
@@ -7807,15 +7767,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="BN6:BU6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AW6"/>
-    <mergeCell ref="AX6:BC6"/>
-    <mergeCell ref="BD6:BF6"/>
+  <mergeCells count="40">
     <mergeCell ref="BV6:BZ6"/>
     <mergeCell ref="CA6:CC6"/>
     <mergeCell ref="CI6:CM6"/>
@@ -7824,6 +7776,11 @@
     <mergeCell ref="CD5:CH5"/>
     <mergeCell ref="CD6:CH6"/>
     <mergeCell ref="BN5:BU5"/>
+    <mergeCell ref="BN6:BU6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AW6"/>
+    <mergeCell ref="AX6:BC6"/>
+    <mergeCell ref="BD6:BF6"/>
     <mergeCell ref="BH6:BM6"/>
     <mergeCell ref="AM5:BF5"/>
     <mergeCell ref="B2:V2"/>
@@ -7831,14 +7788,6 @@
     <mergeCell ref="B3:V3"/>
     <mergeCell ref="W3:AL4"/>
     <mergeCell ref="B4:V4"/>
-    <mergeCell ref="CI5:CM5"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="CN5:CQ5"/>
-    <mergeCell ref="CR5:CU5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="B5:AL5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="R6:V6"/>
@@ -7847,6 +7796,18 @@
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="DC5:DE5"/>
+    <mergeCell ref="CI5:CM5"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="CN5:CQ5"/>
+    <mergeCell ref="CR5:CU5"/>
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="CV5:CW5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="10" fitToHeight="6" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7862,160 +7823,160 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="141"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="139"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="140"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="138"/>
       <c r="B1" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="D1" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="64" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="138">
+        <v>570</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>340</v>
       </c>
+      <c r="C2" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="140">
-        <v>570</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="64" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="138">
+        <v>591</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>343</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="140">
-        <v>591</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="64" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="138">
+        <v>525</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>343</v>
+      <c r="C4" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="140">
-        <v>525</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="64" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="138">
+        <v>609</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>343</v>
+      <c r="D5" s="64" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="140">
-        <v>609</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="64" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="138">
+        <v>613</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>343</v>
-      </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="140">
-        <v>613</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="64" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="138">
+        <v>299</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>349</v>
-      </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="140">
-        <v>299</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="64" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="138">
+        <v>223</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>349</v>
+      <c r="D8" s="64" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="140">
-        <v>223</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="64" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="138">
+        <v>571</v>
+      </c>
+      <c r="B9" s="126" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>349</v>
+      <c r="D9" s="64" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="140">
-        <v>571</v>
-      </c>
-      <c r="B9" s="128" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="64" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="138">
+        <v>572</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="140">
-        <v>572</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>341</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="140" t="s">
+      <c r="B11" s="126"/>
+      <c r="C11" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128" t="s">
+      <c r="D11" s="64" t="s">
         <v>354</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -8216,13 +8177,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A82349-D458-4ACE-93C4-C39C269E05B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60eed870-47b7-4398-bacb-923956a4e3c6"/>
+    <ds:schemaRef ds:uri="6e788143-6890-4a14-a447-95e8858fb65c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC9D17C-AA50-4978-A4DC-AC1A6A4AEB1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="60eed870-47b7-4398-bacb-923956a4e3c6"/>
+    <ds:schemaRef ds:uri="6e788143-6890-4a14-a447-95e8858fb65c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F30B520-7B1F-47F6-8BD5-5D8285D33C84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>